--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC996841-9E54-4F05-8155-D65A1940C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2476791E-3269-4604-ADA4-97C7A21D4F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -133,13 +133,16 @@
   <si>
     <t>{2,4,9,23}</t>
   </si>
+  <si>
+    <t>(4,) 1.904</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -299,13 +302,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,10 +468,10 @@
                   <c:v>0.57571487287886791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.13727907932593508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.12500733955727772</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
@@ -552,10 +555,10 @@
                   <c:v>0.62043199065966115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.13712784588441318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.12481027437244596</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
@@ -639,10 +642,10 @@
                   <c:v>0.56777408209701097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.14190462214431743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.12214990665855585</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-1</c:v>
@@ -4498,7 +4501,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,17 +4538,17 @@
       <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="10"/>
       <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="10"/>
       <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="10"/>
       <c r="S1" s="9" t="s">
         <v>5</v>
@@ -4571,17 +4574,17 @@
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="10"/>
       <c r="S2" s="9" t="s">
         <v>6</v>
@@ -4610,10 +4613,10 @@
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>1.4730000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -4782,41 +4785,55 @@
       <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O13" s="3"/>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>-1</v>
+        <v>0.14190462214431743</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O14" s="3"/>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>-1</v>
+        <v>0.12214990665855585</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4884,6 +4901,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -4893,21 +4925,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4955,17 +4972,17 @@
       <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="10"/>
       <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="10"/>
       <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="10"/>
       <c r="S1" s="9" t="s">
         <v>5</v>
@@ -4991,17 +5008,17 @@
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="10"/>
       <c r="S2" s="9" t="s">
         <v>6</v>
@@ -5344,21 +5361,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -5368,6 +5370,21 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5415,17 +5432,17 @@
       <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="10"/>
       <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="10"/>
       <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="10"/>
       <c r="S1" s="9" t="s">
         <v>5</v>
@@ -5451,17 +5468,17 @@
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="10"/>
       <c r="S2" s="9" t="s">
         <v>6</v>
@@ -5840,6 +5857,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -5852,18 +5881,6 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2476791E-3269-4604-ADA4-97C7A21D4F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6A7C33-A5BD-403C-9588-D0267F05E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="GEANT_1024LP" sheetId="3" r:id="rId1"/>
-    <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId2"/>
-    <sheet name="GoodNet_1024LP" sheetId="1" r:id="rId3"/>
+    <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
+    <sheet name="GEANT_1024LP" sheetId="3" r:id="rId2"/>
+    <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId3"/>
+    <sheet name="GoodNet_1024LP" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>(4,) 1.904</t>
+  </si>
+  <si>
+    <t>(2, 4, 9, 23) 1.834</t>
+  </si>
+  <si>
+    <t>{8, 18, 27, 28, 39}</t>
   </si>
 </sst>
 </file>
@@ -460,27 +467,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$L$12:$L$17</c:f>
+              <c:f>China_Telecom_1024LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.57571487287886791</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13727907932593508</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12500733955727772</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,7 +495,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBB0-40D1-9F09-D72C157A2793}"/>
+              <c16:uniqueId val="{00000000-6D01-4A80-B12F-095F82B91140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -547,27 +554,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$N$12:$N$17</c:f>
+              <c:f>China_Telecom_1024LP!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.62043199065966115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13712784588441318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12481027437244596</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,7 +582,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FBB0-40D1-9F09-D72C157A2793}"/>
+              <c16:uniqueId val="{00000001-6D01-4A80-B12F-095F82B91140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -634,27 +641,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$P$12:$P$17</c:f>
+              <c:f>China_Telecom_1024LP!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.56777408209701097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14190462214431743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12214990665855585</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,7 +669,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FBB0-40D1-9F09-D72C157A2793}"/>
+              <c16:uniqueId val="{00000002-6D01-4A80-B12F-095F82B91140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1113,6 +1120,659 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>GEANT_1024LP!$L$12:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57571487287886791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13727907932593508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12500733955727772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11097410604192337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBB0-40D1-9F09-D72C157A2793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_1024LP!$N$12:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62043199065966115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13712784588441318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12481027437244596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11792177466433151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBB0-40D1-9F09-D72C157A2793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_1024LP!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.56777408209701097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14190462214431743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12214990665855585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11675692795027692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBB0-40D1-9F09-D72C157A2793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>ScaleFree30Nodes_random_1024LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
@@ -1637,7 +2297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2420,6 +3080,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -3926,7 +4626,651 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA2AEE2-9FB7-445C-852A-2E579E6EFF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105790" y="504825"/>
+          <a:ext cx="5707889" cy="4472939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1290638</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BF7524-1A38-4E98-A8A1-459A9DCD4EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9C4F04-16CD-4D01-9FBD-3C6F24023AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105790" y="504825"/>
+          <a:ext cx="5709920" cy="4282440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4018,7 +5362,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4110,7 +5454,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4497,11 +5841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,13 +5904,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -4598,135 +5942,101 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
-        <v>1.7073</v>
-      </c>
+      <c r="J3" s="11"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.7031000000000001</v>
-      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.7130000000000001</v>
-      </c>
+      <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
+      <c r="S3" s="14"/>
       <c r="T3" s="15"/>
-      <c r="U3" s="5">
-        <v>1.7116</v>
-      </c>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J4" s="3"/>
+      <c r="K4" s="9" t="e">
         <f>ROUND(J4/J3,4)</f>
-        <v>80.064800000000005</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="9">
-        <v>132.49350000000001</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="3">
+      <c r="O4" s="3" t="e">
         <f>ROUND(M4/M3,4)</f>
-        <v>77.795500000000004</v>
-      </c>
-      <c r="P4" s="9">
-        <v>151.20259999999999</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="9"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="3">
+      <c r="R4" s="3" t="e">
         <f>ROUND(P4/P3,4)</f>
-        <v>88.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="e">
         <f>ROUND(S4/S3,4)</f>
-        <v>29.025200000000002</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" s="3"/>
+      <c r="K5" s="9" t="e">
         <f>ROUND(J5/J3,4)</f>
-        <v>1.4876</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="9">
-        <v>2.5322</v>
-      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="3">
+      <c r="O5" s="3" t="e">
         <f>ROUND(M5/M3,4)</f>
-        <v>1.4867999999999999</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2.5428999999999999</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="9"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="3">
+      <c r="R5" s="3" t="e">
         <f>ROUND(P5/P3,4)</f>
-        <v>1.4844999999999999</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="e">
         <f>ROUND(S5/S3,4)</f>
-        <v>1.4894000000000001</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="J6" s="3"/>
+      <c r="K6" s="9" t="e">
         <f>ROUND(J6/J3,4)</f>
-        <v>1.4956</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="9">
-        <v>2.9327999999999999</v>
-      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="3">
+      <c r="O6" s="3" t="e">
         <f>ROUND(M6/M3,4)</f>
-        <v>1.722</v>
-      </c>
-      <c r="P6" s="9">
-        <v>2.9142999999999999</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="9"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="3">
+      <c r="R6" s="3" t="e">
         <f>ROUND(P6/P3,4)</f>
-        <v>1.7013</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="e">
         <f>ROUND(S6/S3,4)</f>
-        <v>1.4730000000000001</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4756,6 +6066,422 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6" t="e">
+        <f>K12/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6" t="e">
+        <f>M12/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6" t="e">
+        <f>O12/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6" t="e">
+        <f>K13/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="6" t="e">
+        <f>M13/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6" t="e">
+        <f>O13/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6" t="e">
+        <f>K14/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6" t="e">
+        <f>M14/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6" t="e">
+        <f>O14/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6" t="e">
+        <f>K15/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6" t="e">
+        <f>M15/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6" t="e">
+        <f>O15/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6" t="e">
+        <f>K16/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6" t="e">
+        <f>M16/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6" t="e">
+        <f>O16/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6" t="e">
+        <f>K17/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6" t="e">
+        <f>M17/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6" t="e">
+        <f>O17/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <f>ROUND(J4/J3,4)</f>
+        <v>80.064800000000005</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="3">
+        <f>ROUND(M4/M3,4)</f>
+        <v>77.795500000000004</v>
+      </c>
+      <c r="P4" s="9">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="3">
+        <f>ROUND(P4/P3,4)</f>
+        <v>88.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="3">
+        <f>ROUND(S4/S3,4)</f>
+        <v>29.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="9">
+        <f>ROUND(J5/J3,4)</f>
+        <v>1.4876</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="3">
+        <f>ROUND(M5/M3,4)</f>
+        <v>1.4867999999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="3">
+        <f>ROUND(P5/P3,4)</f>
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <f>ROUND(S5/S3,4)</f>
+        <v>1.4894000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="9">
+        <f>ROUND(J6/J3,4)</f>
+        <v>1.4956</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="3">
+        <f>ROUND(M6/M3,4)</f>
+        <v>1.722</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="3">
+        <f>ROUND(P6/P3,4)</f>
+        <v>1.7013</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="3">
+        <f>ROUND(S6/S3,4)</f>
+        <v>1.4730000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2">
         <v>2.6836000000000002</v>
       </c>
@@ -4882,21 +6608,29 @@
       <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8920999999999999</v>
+      </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>0.11097410604192337</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.915</v>
+      </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>0.11792177466433151</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.9051</v>
+      </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>-1</v>
+        <v>0.11675692795027692</v>
       </c>
     </row>
   </sheetData>
@@ -4932,11 +6666,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U4" sqref="U4:U6"/>
     </sheetView>
   </sheetViews>
@@ -5392,7 +7126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idoye/PycharmProjects/Research_Implementing/Smart_Nodes_Routing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6A7C33-A5BD-403C-9588-D0267F05E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E74A49-9C39-9748-A07E-5A9A12C7C096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -472,22 +472,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.43875957990349113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,22 +559,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.43124468386730941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,22 +646,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.44604214123006836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5844,31 +5844,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:O17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>42</v>
       </c>
@@ -5938,108 +5938,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11">
+        <v>1.4016999999999999</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="11"/>
+      <c r="M3" s="11">
+        <v>1.4092</v>
+      </c>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="11"/>
+      <c r="P3" s="11">
+        <v>1.4108000000000001</v>
+      </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
+      <c r="S3" s="14">
+        <v>1.4048</v>
+      </c>
       <c r="T3" s="15"/>
-      <c r="U3" s="5"/>
+      <c r="U3" s="5">
+        <v>1.4016999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9" t="e">
+      <c r="J4" s="3">
+        <v>6.8305999999999996</v>
+      </c>
+      <c r="K4" s="9">
         <f>ROUND(J4/J3,4)</f>
-        <v>#DIV/0!</v>
+        <v>4.8731</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>7.6843000000000004</v>
+      </c>
       <c r="N4" s="10"/>
-      <c r="O4" s="3" t="e">
+      <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="9"/>
+        <v>5.4530000000000003</v>
+      </c>
+      <c r="P4" s="9">
+        <v>7.6825999999999999</v>
+      </c>
       <c r="Q4" s="10"/>
-      <c r="R4" s="3" t="e">
+      <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="e">
+        <v>5.4455999999999998</v>
+      </c>
+      <c r="S4" s="3">
+        <v>7.1189</v>
+      </c>
+      <c r="T4" s="3">
         <f>ROUND(S4/S3,4)</f>
-        <v>#DIV/0!</v>
+        <v>5.0675999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9" t="e">
+      <c r="J5" s="3">
+        <v>2.1465000000000001</v>
+      </c>
+      <c r="K5" s="9">
         <f>ROUND(J5/J3,4)</f>
-        <v>#DIV/0!</v>
+        <v>1.5314000000000001</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>2.1532</v>
+      </c>
       <c r="N5" s="10"/>
-      <c r="O5" s="3" t="e">
+      <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="9"/>
+        <v>1.528</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.1534</v>
+      </c>
       <c r="Q5" s="10"/>
-      <c r="R5" s="3" t="e">
+      <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="e">
+        <v>1.5264</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.1427999999999998</v>
+      </c>
+      <c r="T5" s="3">
         <f>ROUND(S5/S3,4)</f>
-        <v>#DIV/0!</v>
+        <v>1.5253000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9" t="e">
+      <c r="J6" s="3">
+        <v>2.29</v>
+      </c>
+      <c r="K6" s="9">
         <f>ROUND(J6/J3,4)</f>
-        <v>#DIV/0!</v>
+        <v>1.6336999999999999</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9">
+        <v>2.2345000000000002</v>
+      </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="3" t="e">
+      <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="9"/>
+        <v>1.5857000000000001</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.23</v>
+      </c>
       <c r="Q6" s="10"/>
-      <c r="R6" s="3" t="e">
+      <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="e">
+        <v>1.5807</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.3260999999999998</v>
+      </c>
+      <c r="T6" s="3">
         <f>ROUND(S6/S3,4)</f>
-        <v>#DIV/0!</v>
+        <v>1.6557999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6059,30 +6093,36 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="6" t="e">
+      <c r="K12" s="2">
+        <v>2.0274999999999999</v>
+      </c>
+      <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="6" t="e">
+        <v>0.43875957990349113</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.0192000000000001</v>
+      </c>
+      <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="6" t="e">
+        <v>0.43124468386730941</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.0314000000000001</v>
+      </c>
+      <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>#DIV/0!</v>
+        <v>0.44604214123006836</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6090,103 +6130,547 @@
         <v>15</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="6" t="e">
+      <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="6" t="e">
+      <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="6" t="e">
+      <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="6" t="e">
+      <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="6" t="e">
+      <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="6" t="e">
+      <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="6" t="e">
+      <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="6" t="e">
+      <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="2"/>
-      <c r="P15" s="6" t="e">
+      <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="6" t="e">
+      <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="6" t="e">
+      <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="6" t="e">
+      <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="6" t="e">
+      <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="6" t="e">
+      <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="6" t="e">
+      <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <f>ROUND(J4/J3,4)</f>
+        <v>80.064800000000005</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="3">
+        <f>ROUND(M4/M3,4)</f>
+        <v>77.795500000000004</v>
+      </c>
+      <c r="P4" s="9">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="3">
+        <f>ROUND(P4/P3,4)</f>
+        <v>88.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="3">
+        <f>ROUND(S4/S3,4)</f>
+        <v>29.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="9">
+        <f>ROUND(J5/J3,4)</f>
+        <v>1.4876</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="3">
+        <f>ROUND(M5/M3,4)</f>
+        <v>1.4867999999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="3">
+        <f>ROUND(P5/P3,4)</f>
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <f>ROUND(S5/S3,4)</f>
+        <v>1.4894000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="9">
+        <f>ROUND(J6/J3,4)</f>
+        <v>1.4956</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="3">
+        <f>ROUND(M6/M3,4)</f>
+        <v>1.722</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="3">
+        <f>ROUND(P6/P3,4)</f>
+        <v>1.7013</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="3">
+        <f>ROUND(S6/S3,4)</f>
+        <v>1.4730000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.12214990665855585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8920999999999999</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>0.11097410604192337</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.915</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>0.11792177466433151</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.9051</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>0.11675692795027692</v>
       </c>
     </row>
   </sheetData>
@@ -6222,35 +6706,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="U4" sqref="U4:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="28.83203125" customWidth="1"/>
+    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6284,15 +6766,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -6320,142 +6802,144 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="11">
-        <v>1.7073</v>
+        <f>ROUND(1.3137349069022,4)</f>
+        <v>1.3137000000000001</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
       <c r="M3" s="11">
-        <v>1.7031000000000001</v>
+        <v>1.3108</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
       <c r="P3" s="11">
-        <v>1.7130000000000001</v>
+        <v>1.3133999999999999</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="15"/>
+      <c r="S3" s="11">
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
-        <v>1.7116</v>
+        <v>1.3261000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>136.69470000000001</v>
+        <f>ROUND(1.88295256877831,4)</f>
+        <v>1.883</v>
       </c>
       <c r="K4" s="9">
         <f>ROUND(J4/J3,4)</f>
-        <v>80.064800000000005</v>
+        <v>1.4334</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="9">
-        <v>132.49350000000001</v>
+        <v>1.9887999999999999</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
-        <v>77.795500000000004</v>
+        <v>1.5172000000000001</v>
       </c>
       <c r="P4" s="9">
-        <v>151.20259999999999</v>
+        <v>1.8765000000000001</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
-        <v>88.267700000000005</v>
+        <v>1.4287000000000001</v>
       </c>
       <c r="S4" s="3">
-        <v>49.514683496694197</v>
+        <v>1.8301000000000001</v>
       </c>
       <c r="T4" s="3">
         <f>ROUND(S4/S3,4)</f>
-        <v>29.025200000000002</v>
+        <v>1.3955</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>2.5396999999999998</v>
+        <v>1.6628000000000001</v>
       </c>
       <c r="K5" s="9">
         <f>ROUND(J5/J3,4)</f>
-        <v>1.4876</v>
+        <v>1.2657</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="9">
-        <v>2.5322</v>
+        <v>1.661</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
-        <v>1.4867999999999999</v>
+        <v>1.2672000000000001</v>
       </c>
       <c r="P5" s="9">
-        <v>2.5428999999999999</v>
+        <v>1.6674</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
-        <v>1.4844999999999999</v>
+        <v>1.2695000000000001</v>
       </c>
       <c r="S5" s="3">
-        <v>2.5407999999999999</v>
+        <v>1.6593</v>
       </c>
       <c r="T5" s="3">
         <f>ROUND(S5/S3,4)</f>
-        <v>1.4894000000000001</v>
+        <v>1.2653000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>2.5535000000000001</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="K6" s="9">
         <f>ROUND(J6/J3,4)</f>
-        <v>1.4956</v>
+        <v>1.2994000000000001</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="9">
-        <v>2.9327999999999999</v>
+        <v>1.6947000000000001</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
-        <v>1.722</v>
+        <v>1.2928999999999999</v>
       </c>
       <c r="P6" s="9">
-        <v>2.9142999999999999</v>
+        <v>1.7579</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
-        <v>1.7013</v>
+        <v>1.3384</v>
       </c>
       <c r="S6" s="3">
-        <v>2.5127999999999999</v>
+        <v>1.7423999999999999</v>
       </c>
       <c r="T6" s="3">
         <f>ROUND(S6/S3,4)</f>
-        <v>1.4730000000000001</v>
+        <v>1.3287</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6475,7 +6959,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6483,28 +6967,28 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>2.6836000000000002</v>
+        <v>1.6414</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
+        <v>0.25221238938053103</v>
       </c>
       <c r="M12" s="2">
-        <v>2.7757999999999998</v>
+        <v>1.6188</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
+        <v>0.23252626770214713</v>
       </c>
       <c r="O12" s="3">
-        <v>2.6745000000000001</v>
+        <v>1.633</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
+        <v>0.24523410096080545</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6512,125 +6996,141 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>1.9369000000000001</v>
+        <v>1.5123</v>
       </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
+        <v>0.15372291730241083</v>
       </c>
       <c r="M13" s="3">
-        <v>1.9479</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
+        <v>0.15676869194457144</v>
       </c>
       <c r="O13" s="3">
-        <v>1.948</v>
+        <v>1.5106999999999999</v>
       </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
+        <v>0.15197498856184244</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2">
-        <v>1.9159999999999999</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
+        <v>0.14540738480317361</v>
       </c>
       <c r="M14" s="2">
-        <v>1.9268000000000001</v>
+        <v>1.4993000000000001</v>
       </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
+        <v>0.14154103852596323</v>
       </c>
       <c r="O14" s="3">
-        <v>1.9142999999999999</v>
+        <v>1.502</v>
       </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
+        <v>0.14534085709928335</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.4744999999999999</v>
+      </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>0.12488556606652423</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.4734</v>
+      </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>0.12182122734886569</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.4752000000000001</v>
+      </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>-1</v>
+        <v>0.12490468201921634</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.4461999999999999</v>
+      </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>0.10329569728410126</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.4498</v>
+      </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>0.10385259631490795</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.4549000000000001</v>
+      </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>-1</v>
+        <v>0.10942504193991165</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" ht="16" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
-        <v>1.8920999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>0.11097410604192337</v>
+        <v>9.8565761367104043E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>1.915</v>
+        <v>1.4302999999999999</v>
       </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>0.11792177466433151</v>
+        <v>8.9005634231764885E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>1.9051</v>
+        <v>1.427</v>
       </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>0.11675692795027692</v>
+        <v>8.8150068628946254E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6666,466 +7166,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
-        <f>ROUND(1.3137349069022,4)</f>
-        <v>1.3137000000000001</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.3108</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.3133999999999999</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="5">
-        <v>1.3261000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <f>ROUND(1.88295256877831,4)</f>
-        <v>1.883</v>
-      </c>
-      <c r="K4" s="9">
-        <f>ROUND(J4/J3,4)</f>
-        <v>1.4334</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
-        <v>1.9887999999999999</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>1.5172000000000001</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1.8765000000000001</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>1.4287000000000001</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.8301000000000001</v>
-      </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>1.3955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.6628000000000001</v>
-      </c>
-      <c r="K5" s="9">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.2657</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
-        <v>1.661</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.2672000000000001</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1.6674</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.2695000000000001</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.6593</v>
-      </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.2653000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="K6" s="9">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.2994000000000001</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.2928999999999999</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1.7579</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.3384</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.3287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.6414</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.25221238938053103</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.6188</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.23252626770214713</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1.633</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.24523410096080545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.5123</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.15372291730241083</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.5193000000000001</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.15676869194457144</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.5106999999999999</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.15197498856184244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.5014000000000001</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.14540738480317361</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.4993000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.14154103852596323</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.502</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.14534085709928335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4744999999999999</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.12488556606652423</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.4734</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.12182122734886569</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.4752000000000001</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.12490468201921634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.4461999999999999</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.10329569728410126</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4498</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>0.10385259631490795</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.4549000000000001</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>0.10942504193991165</v>
-      </c>
-    </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.8565761367104043E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.4302999999999999</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>8.9005634231764885E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.427</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>8.8150068628946254E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
@@ -7134,25 +7174,25 @@
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="28.83203125" customWidth="1"/>
+    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7186,7 +7226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
@@ -7222,7 +7262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7254,7 +7294,7 @@
         <v>1.0531999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7294,7 +7334,7 @@
         <v>1.2017</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7330,7 +7370,7 @@
         <v>1.1927000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7366,7 +7406,7 @@
         <v>1.4152</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7386,7 +7426,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7415,7 +7455,7 @@
         <v>0.18470000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7444,7 +7484,7 @@
         <v>0.1278999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7473,7 +7513,7 @@
         <v>0.11620000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7502,7 +7542,7 @@
         <v>0.10759999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7531,7 +7571,7 @@
         <v>9.8100000000000076E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" ht="16" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7560,7 +7600,7 @@
         <v>8.5099999999999953E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:16" ht="16" x14ac:dyDescent="0.2">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -7591,6 +7631,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -7603,18 +7655,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idoye/PycharmProjects/Research_Implementing/Smart_Nodes_Routing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E74A49-9C39-9748-A07E-5A9A12C7C096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559174F1-1914-3D49-9A36-2978B05F3317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>{8, 18, 27, 28, 39}</t>
+  </si>
+  <si>
+    <t>(4, 23)  1.87</t>
+  </si>
+  <si>
+    <t>(4, 9, 23)  1.845</t>
   </si>
 </sst>
 </file>
@@ -5283,7 +5289,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>270129</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:rowOff>142239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6267,7 +6273,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6602,11 +6608,13 @@
         <v>0.12214990665855585</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
@@ -6623,11 +6631,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="6">
         <f>K16/M3-1</f>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idoye/PycharmProjects/Research_Implementing/Smart_Nodes_Routing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559174F1-1914-3D49-9A36-2978B05F3317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660CFEF8-821F-4776-A648-D6BF556DE964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>(4, 9, 23)  1.845</t>
+  </si>
+  <si>
+    <t>LP</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
                   <c:v>0.43875957990349113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.2448197558898666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
@@ -1140,13 +1143,13 @@
                   <c:v>0.12500733955727772</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.11226586812283479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10933004521167278</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11097410604192337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,13 +1230,13 @@
                   <c:v>0.12481027437244596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.10554582603619367</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11792177466433151</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,13 +1317,13 @@
                   <c:v>0.12214990665855585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.11329838725692398</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11675692795027692</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,31 +5853,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="4.5" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.1640625" customWidth="1"/>
-    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>5.0675999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>1.5253000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>1.6557999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6099,7 +6102,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6128,17 +6131,19 @@
         <v>0.44604214123006836</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>1.7542</v>
+      </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>-1</v>
+        <v>0.2448197558898666</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="6">
@@ -6151,7 +6156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -6172,7 +6177,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -6193,7 +6198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -6272,31 +6277,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="4.5" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.1640625" customWidth="1"/>
-    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>1.7116</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6429,7 +6434,7 @@
         <v>29.025200000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>1.4894000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6501,7 +6506,7 @@
         <v>1.4730000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6520,8 +6525,12 @@
         <v>19</v>
       </c>
       <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6549,8 +6558,15 @@
         <f>O12/S3-1</f>
         <v>0.56777408209701097</v>
       </c>
+      <c r="Q12" s="3">
+        <v>2.6947999999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.57443327880345874</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6578,8 +6594,15 @@
         <f>O13/S3-1</f>
         <v>0.14190462214431743</v>
       </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -6607,41 +6630,63 @@
         <f>O14/S3-1</f>
         <v>0.12214990665855585</v>
       </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>1.8943000000000001</v>
+      </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>0.11226586812283479</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8937999999999999</v>
+      </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>0.10554582603619367</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8992</v>
+      </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>-1</v>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>1.8893</v>
+      </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>-1</v>
+        <v>0.10933004521167278</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="6">
@@ -6653,38 +6698,46 @@
         <f>O16/S3-1</f>
         <v>-1</v>
       </c>
+      <c r="Q16" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.8688946015424097E-2</v>
+      </c>
     </row>
-    <row r="17" spans="9:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="2">
-        <v>1.8920999999999999</v>
-      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>0.11097410604192337</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.915</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>0.11792177466433151</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.9051</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>0.11675692795027692</v>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>8.5592428137415411E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -6694,6 +6747,7 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
@@ -6720,29 +6774,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" customWidth="1"/>
-    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6776,7 +6830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -6812,7 +6866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -6840,7 +6894,7 @@
         <v>1.3261000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6877,7 +6931,7 @@
         <v>1.3955</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6913,7 +6967,7 @@
         <v>1.2653000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6949,7 +7003,7 @@
         <v>1.3287</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6969,7 +7023,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6998,7 +7052,7 @@
         <v>0.24523410096080545</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7027,7 +7081,7 @@
         <v>0.15197498856184244</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7056,7 +7110,7 @@
         <v>0.14534085709928335</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7085,7 +7139,7 @@
         <v>0.12490468201921634</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7114,7 +7168,7 @@
         <v>0.10942504193991165</v>
       </c>
     </row>
-    <row r="17" spans="9:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7184,25 +7238,25 @@
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" customWidth="1"/>
-    <col min="21" max="21" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7236,7 +7290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -7272,7 +7326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -7304,7 +7358,7 @@
         <v>1.0531999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7344,7 +7398,7 @@
         <v>1.2017</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7380,7 +7434,7 @@
         <v>1.1927000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7416,7 +7470,7 @@
         <v>1.4152</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7436,7 +7490,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7465,7 +7519,7 @@
         <v>0.18470000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7494,7 +7548,7 @@
         <v>0.1278999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7523,7 +7577,7 @@
         <v>0.11620000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7552,7 +7606,7 @@
         <v>0.10759999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7581,7 +7635,7 @@
         <v>9.8100000000000076E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7610,7 +7664,7 @@
         <v>8.5099999999999953E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>5</v>
       </c>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoye\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660CFEF8-821F-4776-A648-D6BF556DE964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A0AD0F-44EC-45EB-BD8C-8805FCF21562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -147,10 +138,13 @@
     <t>(4, 23)  1.87</t>
   </si>
   <si>
-    <t>(4, 9, 23)  1.845</t>
+    <t>LP</t>
   </si>
   <si>
-    <t>LP</t>
+    <t>(4, 9, 23)  1.8446</t>
+  </si>
+  <si>
+    <t>(28,)1.7077</t>
   </si>
 </sst>
 </file>
@@ -164,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,7 +166,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +174,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,14 +182,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -298,12 +292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -324,8 +315,11 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -411,7 +405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -571,7 +565,7 @@
                   <c:v>0.43124468386730941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.25347320669123885</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
@@ -658,7 +652,7 @@
                   <c:v>0.44604214123006836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.25911161731207288</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1</c:v>
@@ -756,7 +750,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -794,7 +788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -877,7 +871,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -909,7 +903,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -951,7 +945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -988,7 +982,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1064,7 +1058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1146,7 +1140,7 @@
                   <c:v>0.11226586812283479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10933004521167278</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1</c:v>
@@ -1409,7 +1403,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1447,7 +1441,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -1530,7 +1524,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1562,7 +1556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -1604,7 +1598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1641,7 +1635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1717,7 +1711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1985,6 +1979,64 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6063-495C-BB5C-7CE55F9239A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_random_1024LP!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23090264685921125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13852650629665941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12864791493854155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10496945931679358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6569640298620021E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2740366488198474E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A987-45FE-A36E-EA3385DC16BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2062,7 +2114,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2100,7 +2152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -2184,7 +2236,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2216,7 +2268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -2258,7 +2310,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2295,7 +2347,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2371,7 +2423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2648,6 +2700,67 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-15FA-49B4-870A-31AE7D10FBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_1024LP!$R$12:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18389999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1199999999999948E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3099999999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8599999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1900000000000048E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2D6-4298-B716-F676F0C5B53E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2725,7 +2838,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2763,7 +2876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -2847,7 +2960,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2879,7 +2992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -2921,7 +3034,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2958,7 +3071,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5853,31 +5966,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="19.875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5888,30 +6001,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>42</v>
       </c>
@@ -5924,80 +6037,80 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
         <v>4.8731</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>5.4530000000000003</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>5.4455999999999998</v>
@@ -6010,30 +6123,30 @@
         <v>5.0675999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
         <v>1.5314000000000001</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.528</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.5264</v>
@@ -6046,30 +6159,30 @@
         <v>1.5253000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
         <v>1.6336999999999999</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.5857000000000001</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.5807</v>
@@ -6082,27 +6195,31 @@
         <v>1.6557999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6130,8 +6247,15 @@
         <f>O12/S3-1</f>
         <v>0.44604214123006836</v>
       </c>
+      <c r="Q12" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.44110722693871729</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6145,22 +6269,35 @@
         <f>K13/M3-1</f>
         <v>0.2448197558898666</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>1.7684</v>
+      </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O13" s="3"/>
+        <v>0.25347320669123885</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.7687999999999999</v>
+      </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>-1</v>
+        <v>0.25911161731207288</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.7562</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.25290718413355218</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
@@ -6176,8 +6313,13 @@
         <f>O14/S3-1</f>
         <v>-1</v>
       </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -6197,8 +6339,13 @@
         <f>O15/S3-1</f>
         <v>-1</v>
       </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -6218,8 +6365,13 @@
         <f>O16/S3-1</f>
         <v>-1</v>
       </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -6239,501 +6391,10 @@
         <f>O17/S3-1</f>
         <v>-1</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="5">
-        <v>1.7116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="9">
-        <f>ROUND(J4/J3,4)</f>
-        <v>80.064800000000005</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>77.795500000000004</v>
-      </c>
-      <c r="P4" s="9">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>88.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>29.025200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="9">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.4876</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.4867999999999999</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.4844999999999999</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.4894000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="9">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.4956</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.722</v>
-      </c>
-      <c r="P6" s="9">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.7013</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.4730000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.6836000000000002</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.7757999999999998</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.6745000000000001</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2.6947999999999999</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.57443327880345874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.9479</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.948</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.9527000000000001</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.14086235101659272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.9268000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.9142999999999999</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.9112</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.11661603178312685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.8943000000000001</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.11226586812283479</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.8937999999999999</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.10554582603619367</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.8992</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.11329838725692398</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.8764000000000001</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>9.6284178546389487E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.8893</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.10933004521167278</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8633999999999999</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>8.8688946015424097E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.8581000000000001</v>
-      </c>
+      <c r="Q17" s="3"/>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>8.5592428137415411E-2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -6770,33 +6431,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.875" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6807,223 +6470,225 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
-        <f>ROUND(1.3137349069022,4)</f>
-        <v>1.3137000000000001</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.3108</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.3133999999999999</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="T3" s="13"/>
+      <c r="J3" s="10">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="14"/>
       <c r="U3" s="5">
-        <v>1.3261000000000001</v>
+        <v>1.7116</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <f>ROUND(1.88295256877831,4)</f>
-        <v>1.883</v>
-      </c>
-      <c r="K4" s="9">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
-        <v>1.4334</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
-        <v>1.9887999999999999</v>
-      </c>
-      <c r="N4" s="10"/>
+        <v>80.064800000000005</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
-        <v>1.5172000000000001</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1.8765000000000001</v>
-      </c>
-      <c r="Q4" s="10"/>
+        <v>77.795500000000004</v>
+      </c>
+      <c r="P4" s="7">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
-        <v>1.4287000000000001</v>
+        <v>88.267700000000005</v>
       </c>
       <c r="S4" s="3">
-        <v>1.8301000000000001</v>
+        <v>49.514683496694197</v>
       </c>
       <c r="T4" s="3">
         <f>ROUND(S4/S3,4)</f>
-        <v>1.3955</v>
+        <v>29.025200000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>1.6628000000000001</v>
-      </c>
-      <c r="K5" s="9">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
-        <v>1.2657</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
-        <v>1.661</v>
-      </c>
-      <c r="N5" s="10"/>
+        <v>1.4876</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
-        <v>1.2672000000000001</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1.6674</v>
-      </c>
-      <c r="Q5" s="10"/>
+        <v>1.4867999999999999</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
-        <v>1.2695000000000001</v>
+        <v>1.4844999999999999</v>
       </c>
       <c r="S5" s="3">
-        <v>1.6593</v>
+        <v>2.5407999999999999</v>
       </c>
       <c r="T5" s="3">
         <f>ROUND(S5/S3,4)</f>
-        <v>1.2653000000000001</v>
+        <v>1.4894000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="K6" s="9">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
-        <v>1.2994000000000001</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="N6" s="10"/>
+        <v>1.4956</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
-        <v>1.2928999999999999</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1.7579</v>
-      </c>
-      <c r="Q6" s="10"/>
+        <v>1.722</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
-        <v>1.3384</v>
+        <v>1.7013</v>
       </c>
       <c r="S6" s="3">
-        <v>1.7423999999999999</v>
+        <v>2.5127999999999999</v>
       </c>
       <c r="T6" s="3">
         <f>ROUND(S6/S3,4)</f>
-        <v>1.3287</v>
+        <v>1.4730000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7031,28 +6696,35 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>1.6414</v>
+        <v>2.6836000000000002</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.25221238938053103</v>
+        <v>0.57571487287886791</v>
       </c>
       <c r="M12" s="2">
-        <v>1.6188</v>
+        <v>2.7757999999999998</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.23252626770214713</v>
+        <v>0.62043199065966115</v>
       </c>
       <c r="O12" s="3">
-        <v>1.633</v>
+        <v>2.6745000000000001</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.24523410096080545</v>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6947999999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.57443327880345874</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7060,145 +6732,164 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>1.5123</v>
+        <v>1.9369000000000001</v>
       </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>0.15372291730241083</v>
+        <v>0.13727907932593508</v>
       </c>
       <c r="M13" s="3">
-        <v>1.5193000000000001</v>
+        <v>1.9479</v>
       </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>0.15676869194457144</v>
+        <v>0.13712784588441318</v>
       </c>
       <c r="O13" s="3">
-        <v>1.5106999999999999</v>
+        <v>1.948</v>
       </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>0.15197498856184244</v>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2">
-        <v>1.5014000000000001</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>0.14540738480317361</v>
+        <v>0.12500733955727772</v>
       </c>
       <c r="M14" s="2">
-        <v>1.4993000000000001</v>
+        <v>1.9268000000000001</v>
       </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>0.14154103852596323</v>
+        <v>0.12481027437244596</v>
       </c>
       <c r="O14" s="3">
-        <v>1.502</v>
+        <v>1.9142999999999999</v>
       </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>0.14534085709928335</v>
+        <v>0.12214990665855585</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K15" s="2">
-        <v>1.4744999999999999</v>
+        <v>1.8943000000000001</v>
       </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>0.12488556606652423</v>
+        <v>0.11226586812283479</v>
       </c>
       <c r="M15" s="2">
-        <v>1.4734</v>
+        <v>1.8937999999999999</v>
       </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>0.12182122734886569</v>
+        <v>0.10554582603619367</v>
       </c>
       <c r="O15" s="2">
-        <v>1.4752000000000001</v>
+        <v>1.8992</v>
       </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>0.12490468201921634</v>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.4461999999999999</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>0.10329569728410126</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4498</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>0.10385259631490795</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.4549000000000001</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>0.10942504193991165</v>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>9.8565761367104043E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.4302999999999999</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>8.9005634231764885E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.427</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>8.8150068628946254E-2</v>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
@@ -7223,9 +6914,517 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.375" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="28.875" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="9"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10">
+        <f>ROUND(1.3137349069022,4)</f>
+        <v>1.3137000000000001</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
+        <v>1.3108</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
+        <v>1.3133999999999999</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10">
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="5">
+        <v>1.3261000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <f>ROUND(1.88295256877831,4)</f>
+        <v>1.883</v>
+      </c>
+      <c r="K4" s="7">
+        <f>ROUND(J4/J3,4)</f>
+        <v>1.4334</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
+        <v>1.9887999999999999</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="3">
+        <f>ROUND(M4/M3,4)</f>
+        <v>1.5172000000000001</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="3">
+        <f>ROUND(P4/P3,4)</f>
+        <v>1.4287000000000001</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.8301000000000001</v>
+      </c>
+      <c r="T4" s="3">
+        <f>ROUND(S4/S3,4)</f>
+        <v>1.3955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.6628000000000001</v>
+      </c>
+      <c r="K5" s="7">
+        <f>ROUND(J5/J3,4)</f>
+        <v>1.2657</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
+        <v>1.661</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="3">
+        <f>ROUND(M5/M3,4)</f>
+        <v>1.2672000000000001</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1.6674</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="3">
+        <f>ROUND(P5/P3,4)</f>
+        <v>1.2695000000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.6593</v>
+      </c>
+      <c r="T5" s="3">
+        <f>ROUND(S5/S3,4)</f>
+        <v>1.2653000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="K6" s="7">
+        <f>ROUND(J6/J3,4)</f>
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="3">
+        <f>ROUND(M6/M3,4)</f>
+        <v>1.2928999999999999</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1.7579</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="3">
+        <f>ROUND(P6/P3,4)</f>
+        <v>1.3384</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1.7423999999999999</v>
+      </c>
+      <c r="T6" s="3">
+        <f>ROUND(S6/S3,4)</f>
+        <v>1.3287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.6414</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.25221238938053103</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.6188</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.23252626770214713</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1.633</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.24523410096080545</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.6323000000000001</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.23090264685921125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.5123</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.15372291730241083</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.5193000000000001</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.15676869194457144</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.5106999999999999</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.15197498856184244</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.5098</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13852650629665941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.5014000000000001</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.14540738480317361</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.4993000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.14154103852596323</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.502</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.14534085709928335</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.4966999999999999</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.12864791493854155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.4744999999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.12488556606652423</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.4734</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.12182122734886569</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.4752000000000001</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.12490468201921634</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.4653</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>0.10496945931679358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.4461999999999999</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>0.10329569728410126</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.4498</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>0.10385259631490795</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.4549000000000001</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>0.10942504193991165</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.4409000000000001</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.6569640298620021E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>9.8565761367104043E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.4302999999999999</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>8.9005634231764885E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.427</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>8.8150068628946254E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.4093</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>6.2740366488198474E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7234,29 +7433,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.375" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="28.875" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7267,30 +7466,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
@@ -7303,62 +7502,62 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7366,25 +7565,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
         <v>1.2325999999999999</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>1.2611000000000001</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>1.2390000000000001</v>
@@ -7398,30 +7597,30 @@
         <v>1.2017</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
         <v>1.1899</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.1914</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.1918</v>
@@ -7434,30 +7633,30 @@
         <v>1.1927000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
         <v>1.4119999999999999</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.4401999999999999</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.4314</v>
@@ -7470,27 +7669,31 @@
         <v>1.4152</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7518,8 +7721,15 @@
         <f>ROUND(O12/P3,4)-1</f>
         <v>0.18470000000000009</v>
       </c>
+      <c r="Q12" s="3">
+        <v>1.2468999999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>0.18389999999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7547,8 +7757,15 @@
         <f>ROUND(O13/P3,4)-1</f>
         <v>0.1278999999999999</v>
       </c>
+      <c r="Q13" s="3">
+        <v>1.1849000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>ROUND(Q13/U3,4)-1</f>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7576,8 +7793,15 @@
         <f>ROUND(O14/P3,4)-1</f>
         <v>0.11620000000000008</v>
       </c>
+      <c r="Q14" s="3">
+        <v>1.1675</v>
+      </c>
+      <c r="R14" s="6">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>0.10850000000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7605,8 +7829,15 @@
         <f>ROUND(O15/P3,4)-1</f>
         <v>0.10759999999999992</v>
       </c>
+      <c r="Q15" s="3">
+        <v>1.1492</v>
+      </c>
+      <c r="R15" s="6">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>9.1199999999999948E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7634,8 +7865,15 @@
         <f>ROUND(O16/P3,4)-1</f>
         <v>9.8100000000000076E-2</v>
       </c>
+      <c r="Q16" s="3">
+        <v>1.1407</v>
+      </c>
+      <c r="R16" s="6">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>8.3099999999999952E-2</v>
+      </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7663,8 +7901,15 @@
         <f>ROUND(O17/P3,4)-1</f>
         <v>8.5099999999999953E-2</v>
       </c>
+      <c r="Q17" s="3">
+        <v>1.1149</v>
+      </c>
+      <c r="R17" s="6">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>5.8599999999999985E-2</v>
+      </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -7692,9 +7937,29 @@
         <f>ROUND(O18/P3,4)-1</f>
         <v>7.6100000000000056E-2</v>
       </c>
+      <c r="Q18" s="3">
+        <v>1.0972999999999999</v>
+      </c>
+      <c r="R18" s="6">
+        <f>ROUND(Q18/U3,4)-1</f>
+        <v>4.1900000000000048E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
@@ -7707,18 +7972,6 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoye\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A0AD0F-44EC-45EB-BD8C-8805FCF21562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AEEA5-1339-4DA4-99A0-06C3274F9A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -146,6 +155,15 @@
   <si>
     <t>(28,)1.7077</t>
   </si>
+  <si>
+    <t>(8, 18, 27, 28, 39)1.507</t>
+  </si>
+  <si>
+    <t>(28, 39) 1.643</t>
+  </si>
+  <si>
+    <t>(8, 18, 28, 39)1.541</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +176,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +184,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +192,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,14 +200,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,9 +310,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -315,11 +336,8 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -405,7 +423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -470,10 +488,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$L$12:$L$17</c:f>
+              <c:f>China_Telecom_1024LP!$L$12:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.43875957990349113</c:v>
                 </c:pt>
@@ -481,16 +499,19 @@
                   <c:v>0.2448197558898666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.22899517456713037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.1862049389724667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.14433721260289523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12822878228782297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,10 +578,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$N$12:$N$17</c:f>
+              <c:f>China_Telecom_1024LP!$N$12:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.43124468386730941</c:v>
                 </c:pt>
@@ -568,16 +589,19 @@
                   <c:v>0.25347320669123885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.22660901616104323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.2021548057839524</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.13935355826481421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12546073149985837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,10 +668,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$P$12:$P$17</c:f>
+              <c:f>China_Telecom_1024LP!$P$12:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.44604214123006836</c:v>
                 </c:pt>
@@ -655,16 +679,19 @@
                   <c:v>0.25911161731207288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.22978359908883816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.19597095671981757</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.1412300683371297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1252135535307517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,6 +700,67 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6D01-4A80-B12F-095F82B91140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>China_Telecom_1024LP!$R$12:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44110722693871729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25290718413355218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22565456231718639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1721481058714418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10087750588571009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.318470428765079E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D91F-4035-B91A-6859D96372A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,7 +838,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -788,7 +876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -871,7 +959,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -903,7 +991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -945,7 +1033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -982,7 +1070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1058,7 +1146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1140,10 +1228,10 @@
                   <c:v>0.11226586812283479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.11167870354060239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.1152016910339968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,10 +1315,10 @@
                   <c:v>0.10554582603619367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.10858143607705784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.11348511383537652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,10 +1402,10 @@
                   <c:v>0.11329838725692398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.10890193722300068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.11241909725013932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,6 +1414,64 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FBB0-40D1-9F09-D72C157A2793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_1024LP!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57443327880345874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14086235101659272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11661603178312685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6284178546389487E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8688946015424097E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5592428137415411E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A45F-4B49-B850-F5FF4112456B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1403,7 +1549,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1441,7 +1587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -1524,7 +1670,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1556,7 +1702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -1598,7 +1744,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1635,7 +1781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1711,7 +1857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2114,7 +2260,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2152,7 +2298,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -2236,7 +2382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2268,7 +2414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -2310,7 +2456,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2347,7 +2493,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2423,7 +2569,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2838,7 +2984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2876,7 +3022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -2960,7 +3106,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2992,7 +3138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -3034,7 +3180,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3071,7 +3217,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5964,33 +6110,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.125" customWidth="1"/>
-    <col min="11" max="11" width="25.75" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.875" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.125" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6001,30 +6147,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -6037,80 +6183,80 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="9">
         <f>ROUND(J4/J3,4)</f>
         <v>4.8731</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>5.4530000000000003</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="9">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>5.4455999999999998</v>
@@ -6123,30 +6269,30 @@
         <v>5.0675999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="9">
         <f>ROUND(J5/J3,4)</f>
         <v>1.5314000000000001</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
+      <c r="L5" s="10"/>
+      <c r="M5" s="9">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.528</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="9">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.5264</v>
@@ -6159,30 +6305,30 @@
         <v>1.5253000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <f>ROUND(J6/J3,4)</f>
         <v>1.6336999999999999</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
+      <c r="L6" s="10"/>
+      <c r="M6" s="9">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.5857000000000001</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="9">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.5807</v>
@@ -6195,31 +6341,31 @@
         <v>1.6557999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6255,7 +6401,7 @@
         <v>0.44110722693871729</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6291,61 +6437,79 @@
         <v>0.25290718413355218</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>1.7319</v>
+      </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>0.22899517456713037</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.7304999999999999</v>
+      </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O14" s="3"/>
+        <v>0.22660901616104323</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.7276</v>
+      </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="3"/>
+        <v>0.22978359908883816</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.718</v>
+      </c>
       <c r="R14" s="6">
         <f>Q14/U3-1</f>
-        <v>-1</v>
+        <v>0.22565456231718639</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.6716</v>
+      </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>0.1862049389724667</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.696</v>
+      </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>0.2021548057839524</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.6800999999999999</v>
+      </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="2"/>
+        <v>0.19597095671981757</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.643</v>
+      </c>
       <c r="R15" s="6">
         <f>Q15/U3-1</f>
-        <v>-1</v>
+        <v>0.1721481058714418</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -6371,30 +6535,583 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.6126</v>
+      </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>0.14433721260289523</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.6073999999999999</v>
+      </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>0.13935355826481421</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.6032</v>
+      </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="3"/>
+        <v>0.1412300683371297</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.5430999999999999</v>
+      </c>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>-1</v>
+        <v>0.10087750588571009</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.5899000000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <f>K18/M3-1</f>
+        <v>0.12822878228782297</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.5878000000000001</v>
+      </c>
+      <c r="N18" s="6">
+        <f>M18/P3-1</f>
+        <v>0.12546073149985837</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.5807</v>
+      </c>
+      <c r="P18" s="6">
+        <f>O18/S3-1</f>
+        <v>0.1252135535307517</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1.5183</v>
+      </c>
+      <c r="R18" s="6">
+        <f>Q18/U3-1</f>
+        <v>8.318470428765079E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J25:J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="9">
+        <f>ROUND(J4/J3,4)</f>
+        <v>80.064800000000005</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="3">
+        <f>ROUND(M4/M3,4)</f>
+        <v>77.795500000000004</v>
+      </c>
+      <c r="P4" s="9">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="3">
+        <f>ROUND(P4/P3,4)</f>
+        <v>88.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="3">
+        <f>ROUND(S4/S3,4)</f>
+        <v>29.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="9">
+        <f>ROUND(J5/J3,4)</f>
+        <v>1.4876</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="3">
+        <f>ROUND(M5/M3,4)</f>
+        <v>1.4867999999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="3">
+        <f>ROUND(P5/P3,4)</f>
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <f>ROUND(S5/S3,4)</f>
+        <v>1.4894000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="9">
+        <f>ROUND(J6/J3,4)</f>
+        <v>1.4956</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="3">
+        <f>ROUND(M6/M3,4)</f>
+        <v>1.722</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="3">
+        <f>ROUND(P6/P3,4)</f>
+        <v>1.7013</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="3">
+        <f>ROUND(S6/S3,4)</f>
+        <v>1.4730000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6947999999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.57443327880345874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.12214990665855585</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8943000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.11226586812283479</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8937999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10554582603619367</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8992</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8933</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>0.11167870354060239</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.899</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>0.10858143607705784</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8916999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>0.10890193722300068</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.8688946015424097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8993</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>0.1152016910339968</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.9074</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>0.11348511383537652</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>0.11241909725013932</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>8.5592428137415411E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6431,35 +7148,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.125" customWidth="1"/>
-    <col min="11" max="11" width="25.75" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="22.125" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.875" customWidth="1"/>
-    <col min="16" max="16" width="20.375" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="19.875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.125" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6470,225 +7185,227 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="14"/>
+      <c r="J3" s="11">
+        <f>ROUND(1.3137349069022,4)</f>
+        <v>1.3137000000000001</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.3108</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.3133999999999999</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
-        <v>1.7116</v>
+        <v>1.3261000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="7">
+        <f>ROUND(1.88295256877831,4)</f>
+        <v>1.883</v>
+      </c>
+      <c r="K4" s="9">
         <f>ROUND(J4/J3,4)</f>
-        <v>80.064800000000005</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="9"/>
+        <v>1.4334</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
+        <v>1.9887999999999999</v>
+      </c>
+      <c r="N4" s="10"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
-        <v>77.795500000000004</v>
-      </c>
-      <c r="P4" s="7">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="9"/>
+        <v>1.5172000000000001</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="Q4" s="10"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
-        <v>88.267700000000005</v>
+        <v>1.4287000000000001</v>
       </c>
       <c r="S4" s="3">
-        <v>49.514683496694197</v>
+        <v>1.8301000000000001</v>
       </c>
       <c r="T4" s="3">
         <f>ROUND(S4/S3,4)</f>
-        <v>29.025200000000002</v>
+        <v>1.3955</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="7">
+        <v>1.6628000000000001</v>
+      </c>
+      <c r="K5" s="9">
         <f>ROUND(J5/J3,4)</f>
-        <v>1.4876</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="9"/>
+        <v>1.2657</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9">
+        <v>1.661</v>
+      </c>
+      <c r="N5" s="10"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
-        <v>1.4867999999999999</v>
-      </c>
-      <c r="P5" s="7">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="9"/>
+        <v>1.2672000000000001</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.6674</v>
+      </c>
+      <c r="Q5" s="10"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
-        <v>1.4844999999999999</v>
+        <v>1.2695000000000001</v>
       </c>
       <c r="S5" s="3">
-        <v>2.5407999999999999</v>
+        <v>1.6593</v>
       </c>
       <c r="T5" s="3">
         <f>ROUND(S5/S3,4)</f>
-        <v>1.4894000000000001</v>
+        <v>1.2653000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="7">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="K6" s="9">
         <f>ROUND(J6/J3,4)</f>
-        <v>1.4956</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="9"/>
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
-        <v>1.722</v>
-      </c>
-      <c r="P6" s="7">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="9"/>
+        <v>1.2928999999999999</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1.7579</v>
+      </c>
+      <c r="Q6" s="10"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
-        <v>1.7013</v>
+        <v>1.3384</v>
       </c>
       <c r="S6" s="3">
-        <v>2.5127999999999999</v>
+        <v>1.7423999999999999</v>
       </c>
       <c r="T6" s="3">
         <f>ROUND(S6/S3,4)</f>
-        <v>1.4730000000000001</v>
+        <v>1.3287</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6696,35 +7413,35 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>2.6836000000000002</v>
+        <v>1.6414</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
+        <v>0.25221238938053103</v>
       </c>
       <c r="M12" s="2">
-        <v>2.7757999999999998</v>
+        <v>1.6188</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
+        <v>0.23252626770214713</v>
       </c>
       <c r="O12" s="3">
-        <v>2.6745000000000001</v>
+        <v>1.633</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
+        <v>0.24523410096080545</v>
       </c>
       <c r="Q12" s="3">
-        <v>2.6947999999999999</v>
+        <v>1.6323000000000001</v>
       </c>
       <c r="R12" s="6">
         <f>Q12/U3-1</f>
-        <v>0.57443327880345874</v>
+        <v>0.23090264685921125</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6732,160 +7449,176 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>1.9369000000000001</v>
+        <v>1.5123</v>
       </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
+        <v>0.15372291730241083</v>
       </c>
       <c r="M13" s="3">
-        <v>1.9479</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
+        <v>0.15676869194457144</v>
       </c>
       <c r="O13" s="3">
-        <v>1.948</v>
+        <v>1.5106999999999999</v>
       </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
+        <v>0.15197498856184244</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.9527000000000001</v>
+        <v>1.5098</v>
       </c>
       <c r="R13" s="6">
         <f>Q13/U3-1</f>
-        <v>0.14086235101659272</v>
+        <v>0.13852650629665941</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2">
-        <v>1.9159999999999999</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
+        <v>0.14540738480317361</v>
       </c>
       <c r="M14" s="2">
-        <v>1.9268000000000001</v>
+        <v>1.4993000000000001</v>
       </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
+        <v>0.14154103852596323</v>
       </c>
       <c r="O14" s="3">
-        <v>1.9142999999999999</v>
+        <v>1.502</v>
       </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
+        <v>0.14534085709928335</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.9112</v>
+        <v>1.4966999999999999</v>
       </c>
       <c r="R14" s="6">
         <f>Q14/U3-1</f>
-        <v>0.11661603178312685</v>
+        <v>0.12864791493854155</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2">
-        <v>1.8943000000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>0.11226586812283479</v>
+        <v>0.12488556606652423</v>
       </c>
       <c r="M15" s="2">
-        <v>1.8937999999999999</v>
+        <v>1.4734</v>
       </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>0.10554582603619367</v>
+        <v>0.12182122734886569</v>
       </c>
       <c r="O15" s="2">
-        <v>1.8992</v>
+        <v>1.4752000000000001</v>
       </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>0.11329838725692398</v>
+        <v>0.12490468201921634</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.8764000000000001</v>
+        <v>1.4653</v>
       </c>
       <c r="R15" s="6">
         <f>Q15/U3-1</f>
-        <v>9.6284178546389487E-2</v>
+        <v>0.10496945931679358</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.4461999999999999</v>
+      </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>0.10329569728410126</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.4498</v>
+      </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>0.10385259631490795</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.4549000000000001</v>
+      </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>0.10942504193991165</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.4409000000000001</v>
+      </c>
       <c r="R16" s="6">
         <f>Q16/U3-1</f>
-        <v>-1</v>
+        <v>8.6569640298620021E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.44</v>
+      </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>9.8565761367104043E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.4302999999999999</v>
+      </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>8.9005634231764885E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.427</v>
+      </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="3"/>
+        <v>8.8150068628946254E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.4093</v>
+      </c>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>-1</v>
+        <v>6.2740366488198474E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6917,513 +7650,6 @@
     <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.375" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.375" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20.375" customWidth="1"/>
-    <col min="19" max="19" width="16.75" customWidth="1"/>
-    <col min="20" max="20" width="28.875" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="10">
-        <f>ROUND(1.3137349069022,4)</f>
-        <v>1.3137000000000001</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
-        <v>1.3108</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
-        <v>1.3133999999999999</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="10">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="5">
-        <v>1.3261000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <f>ROUND(1.88295256877831,4)</f>
-        <v>1.883</v>
-      </c>
-      <c r="K4" s="7">
-        <f>ROUND(J4/J3,4)</f>
-        <v>1.4334</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
-        <v>1.9887999999999999</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>1.5172000000000001</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1.8765000000000001</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>1.4287000000000001</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.8301000000000001</v>
-      </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>1.3955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.6628000000000001</v>
-      </c>
-      <c r="K5" s="7">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.2657</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
-        <v>1.661</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.2672000000000001</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1.6674</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.2695000000000001</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.6593</v>
-      </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.2653000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="K6" s="7">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.2994000000000001</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.2928999999999999</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1.7579</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.3384</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.3287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.6414</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.25221238938053103</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.6188</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.23252626770214713</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1.633</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.24523410096080545</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1.6323000000000001</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.23090264685921125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.5123</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.15372291730241083</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.5193000000000001</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.15676869194457144</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.5106999999999999</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.15197498856184244</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.5098</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13852650629665941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.5014000000000001</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.14540738480317361</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.4993000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.14154103852596323</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.502</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.14534085709928335</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.4966999999999999</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.12864791493854155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4744999999999999</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.12488556606652423</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.4734</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.12182122734886569</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.4752000000000001</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.12490468201921634</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.4653</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>0.10496945931679358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.4461999999999999</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.10329569728410126</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4498</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>0.10385259631490795</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.4549000000000001</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>0.10942504193991165</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1.4409000000000001</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>8.6569640298620021E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.8565761367104043E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.4302999999999999</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>8.9005634231764885E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.427</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>8.8150068628946254E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.4093</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>6.2740366488198474E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7437,25 +7663,25 @@
       <selection activeCell="Q11" sqref="Q11:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.375" customWidth="1"/>
-    <col min="17" max="17" width="10.375" customWidth="1"/>
-    <col min="18" max="18" width="20.375" customWidth="1"/>
-    <col min="19" max="19" width="16.75" customWidth="1"/>
-    <col min="20" max="20" width="28.875" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7466,30 +7692,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -7502,62 +7728,62 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="10">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7565,25 +7791,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="9">
         <f>ROUND(J4/J3,4)</f>
         <v>1.2325999999999999</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>1.2611000000000001</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="9">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>1.2390000000000001</v>
@@ -7597,30 +7823,30 @@
         <v>1.2017</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="9">
         <f>ROUND(J5/J3,4)</f>
         <v>1.1899</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
+      <c r="L5" s="10"/>
+      <c r="M5" s="9">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.1914</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="9">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.1918</v>
@@ -7633,30 +7859,30 @@
         <v>1.1927000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <f>ROUND(J6/J3,4)</f>
         <v>1.4119999999999999</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
+      <c r="L6" s="10"/>
+      <c r="M6" s="9">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.4401999999999999</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="9">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.4314</v>
@@ -7669,31 +7895,31 @@
         <v>1.4152</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7729,7 +7955,7 @@
         <v>0.18389999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7765,7 +7991,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7801,7 +8027,7 @@
         <v>0.10850000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7837,7 +8063,7 @@
         <v>9.1199999999999948E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7873,7 +8099,7 @@
         <v>8.3099999999999952E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7909,7 +8135,7 @@
         <v>5.8599999999999985E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -7947,6 +8173,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -7960,18 +8198,6 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AEEA5-1339-4DA4-99A0-06C3274F9A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36982CD-8150-4609-9D6F-098012B33C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
     <sheet name="GEANT_1024LP" sheetId="3" r:id="rId2"/>
     <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId3"/>
-    <sheet name="GoodNet_1024LP" sheetId="1" r:id="rId4"/>
+    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId4"/>
+    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -163,6 +164,9 @@
   </si>
   <si>
     <t>(8, 18, 28, 39)1.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gravity Traffic, 512 TMs, 100% sparsity 20% elephant flows</t>
   </si>
 </sst>
 </file>
@@ -291,7 +295,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -310,12 +314,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -336,7 +337,13 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +466,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -549,7 +556,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -639,7 +646,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1182,7 +1189,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1269,7 +1276,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1356,7 +1363,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1893,7 +1900,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1980,7 +1987,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2067,7 +2074,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2605,7 +2612,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2634,7 +2641,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_1024LP!$L$12:$L$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$L$12:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2695,7 +2702,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2724,7 +2731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_1024LP!$N$12:$N$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$N$12:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2785,7 +2792,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2814,7 +2821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_1024LP!$P$12:$P$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$P$12:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2875,7 +2882,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_1024LP!$R$12:$R$18</c:f>
+              <c:f>GoodNet_Gravity_1024LP!$R$12:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2907,6 +2914,730 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2D6-4298-B716-F676F0C5B53E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Bimodal_1024LP!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.2597343105813508E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EE4-4BD1-B90D-FF53C3CE8003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Bimodal_1024LP!$N$12:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8EE4-4BD1-B90D-FF53C3CE8003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Bimodal_1024LP!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8EE4-4BD1-B90D-FF53C3CE8003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Bimodal_1024LP!$R$12:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8EE4-4BD1-B90D-FF53C3CE8003}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3388,6 +4119,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -4895,6 +5666,508 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5813,6 +7086,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDACBEF-6162-49BA-A2E7-A778AE58F161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="466725"/>
+          <a:ext cx="5633720" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1366837</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FD5FD8-5E25-42BF-A5A7-B66D08A24745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6112,7 +7478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -6147,25 +7513,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -6183,25 +7549,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -6210,25 +7576,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -6240,23 +7606,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
         <v>4.8731</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>5.4530000000000003</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>5.4455999999999998</v>
@@ -6276,23 +7642,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
         <v>1.5314000000000001</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.528</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.5264</v>
@@ -6312,23 +7678,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
         <v>1.6336999999999999</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.5857000000000001</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.5807</v>
@@ -6348,22 +7714,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -6609,21 +7975,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -6634,6 +7985,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6680,25 +8046,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -6716,25 +8082,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -6743,25 +8109,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -6773,23 +8139,23 @@
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
         <v>80.064800000000005</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>77.795500000000004</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>88.267700000000005</v>
@@ -6809,23 +8175,23 @@
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
         <v>1.4876</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.4867999999999999</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.4844999999999999</v>
@@ -6845,23 +8211,23 @@
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
         <v>1.4956</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.722</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.7013</v>
@@ -6881,22 +8247,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -7116,6 +8482,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -7126,21 +8507,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7185,25 +8551,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7221,25 +8587,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7248,26 +8614,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -7280,23 +8646,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
         <v>1.4334</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>1.5172000000000001</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>1.4287000000000001</v>
@@ -7316,23 +8682,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
         <v>1.2657</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
         <v>1.661</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.2672000000000001</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.2695000000000001</v>
@@ -7352,23 +8718,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
         <v>1.2994000000000001</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.2928999999999999</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.3384</v>
@@ -7388,22 +8754,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -7623,21 +8989,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -7648,6 +8999,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7692,25 +9058,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7728,25 +9094,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7755,29 +9121,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -7791,25 +9157,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>ROUND(J4/J3,4)</f>
         <v>1.2325999999999999</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="L4" s="9"/>
+      <c r="M4" s="7">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="3">
         <f>ROUND(M4/M3,4)</f>
         <v>1.2611000000000001</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="3">
         <f>ROUND(P4/P3,4)</f>
         <v>1.2390000000000001</v>
@@ -7830,23 +9196,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ROUND(J5/J3,4)</f>
         <v>1.1899</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="3">
         <f>ROUND(M5/M3,4)</f>
         <v>1.1914</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3">
         <f>ROUND(P5/P3,4)</f>
         <v>1.1918</v>
@@ -7866,23 +9232,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f>ROUND(J6/J3,4)</f>
         <v>1.4119999999999999</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9">
+      <c r="L6" s="9"/>
+      <c r="M6" s="7">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="3">
         <f>ROUND(M6/M3,4)</f>
         <v>1.4401999999999999</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3">
         <f>ROUND(P6/P3,4)</f>
         <v>1.4314</v>
@@ -7902,22 +9268,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -8173,18 +9539,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -8198,6 +9552,475 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="9"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="13">
+        <v>8.7319999999999993</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9.4544999999999995</v>
+      </c>
+      <c r="K4" s="7">
+        <f>ROUND(J4/J3,4)</f>
+        <v>1.0827</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="3" t="e">
+        <f>ROUND(M4/M3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="3" t="e">
+        <f>ROUND(P4/P3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="e">
+        <f>ROUND(S4/S3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="7">
+        <f>ROUND(J5/J3,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="3" t="e">
+        <f>ROUND(M5/M3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="3" t="e">
+        <f>ROUND(P5/P3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="e">
+        <f>ROUND(S5/S3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="7">
+        <f>ROUND(J6/J3,4)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="3" t="e">
+        <f>ROUND(M6/M3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="3" t="e">
+        <f>ROUND(P6/P3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="e">
+        <f>ROUND(S6/S3,4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>8.7309000000000001</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/J3-1</f>
+        <v>-1.2597343105813508E-4</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6" t="e">
+        <f>M12/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6" t="e">
+        <f>ROUND(O12/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6" t="e">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6">
+        <f>(ROUND(K13/J3,4)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="6" t="e">
+        <f>ROUND(M13/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6" t="e">
+        <f>ROUND(O13/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6" t="e">
+        <f>ROUND(Q13/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/J3,4)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6" t="e">
+        <f>ROUND(M14/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6" t="e">
+        <f>ROUND(O14/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6" t="e">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f>(ROUND(K15/J3,4)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6" t="e">
+        <f>ROUND(M15/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="6" t="e">
+        <f>ROUND(O15/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6" t="e">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f>(ROUND(K16/J3,4)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6" t="e">
+        <f>ROUND(M16/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6" t="e">
+        <f>ROUND(O16/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="6" t="e">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <f>(ROUND(K17/J3,4)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6" t="e">
+        <f>ROUND(M17/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6" t="e">
+        <f>ROUND(O17/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6" t="e">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <f>(ROUND(K18/J3,4)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="6" t="e">
+        <f>ROUND(M18/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="6" t="e">
+        <f>ROUND(O18/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="6" t="e">
+        <f>ROUND(Q18/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoye\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36982CD-8150-4609-9D6F-098012B33C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5686F9C-2C90-4FB4-9E4E-756512828F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -166,21 +157,22 @@
     <t>(8, 18, 28, 39)1.541</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gravity Traffic, 512 TMs, 100% sparsity 20% elephant flows</t>
+    <t xml:space="preserve"> Bimodal Traffic, 1024 TMs, 30% sparsity 20% elephant flows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +180,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -196,7 +188,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,14 +196,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -314,9 +306,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -337,13 +332,25 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +437,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -845,7 +852,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -883,7 +890,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -966,7 +973,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -998,7 +1005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -1040,7 +1047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1077,7 +1084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1153,7 +1160,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1556,7 +1563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1594,7 +1601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -1677,7 +1684,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1709,7 +1716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -1751,7 +1758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1788,7 +1795,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1864,7 +1871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2267,7 +2274,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2305,7 +2312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -2389,7 +2396,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2421,7 +2428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -2463,7 +2470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2500,7 +2507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2576,7 +2583,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2646,25 +2653,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18670000000000009</c:v>
+                  <c:v>0.18650000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12850000000000006</c:v>
+                  <c:v>0.12840000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11480000000000001</c:v>
+                  <c:v>0.11470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10529999999999995</c:v>
+                  <c:v>0.10519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9599999999999911E-2</c:v>
+                  <c:v>9.9499999999999922E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4300000000000042E-2</c:v>
+                  <c:v>8.4200000000000053E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7199999999999926E-2</c:v>
+                  <c:v>6.7099999999999937E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,25 +2743,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.17199999999999993</c:v>
+                  <c:v>0.1745000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12640000000000007</c:v>
+                  <c:v>0.12890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11470000000000002</c:v>
+                  <c:v>0.11719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10040000000000004</c:v>
+                  <c:v>0.1028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0899999999999981E-2</c:v>
+                  <c:v>9.3299999999999939E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.109999999999995E-2</c:v>
+                  <c:v>8.3499999999999908E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.899999999999995E-2</c:v>
+                  <c:v>7.1299999999999919E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,25 +2833,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18470000000000009</c:v>
+                  <c:v>0.18149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1278999999999999</c:v>
+                  <c:v>0.12490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11620000000000008</c:v>
+                  <c:v>0.11319999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10759999999999992</c:v>
+                  <c:v>0.10470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8100000000000076E-2</c:v>
+                  <c:v>9.5099999999999962E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5099999999999953E-2</c:v>
+                  <c:v>8.2200000000000051E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6100000000000056E-2</c:v>
+                  <c:v>7.3199999999999932E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,7 +2998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3029,7 +3036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -3113,7 +3120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3145,7 +3152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -3187,7 +3194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3224,7 +3231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3300,7 +3307,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3370,7 +3377,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.2597343105813508E-4</c:v>
+                  <c:v>2.9752127357383751E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
@@ -3460,25 +3467,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5373716785563207E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,25 +3557,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.2601448013335244E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3611,25 +3618,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.2000000000000934E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,7 +3722,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3753,7 +3760,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -3837,7 +3844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
+              <a:endParaRPr lang="he-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3869,7 +3876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -3911,7 +3918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="he-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3948,7 +3955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="he-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7478,31 +7485,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="19.875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7513,30 +7520,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>42</v>
       </c>
@@ -7549,189 +7556,189 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="7">
-        <f>ROUND(J4/J3,4)</f>
-        <v>4.8731</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>3.8731</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="9">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>5.4530000000000003</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="P4" s="9">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>5.4455999999999998</v>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>4.4455999999999998</v>
       </c>
       <c r="S4" s="3">
         <v>7.1189</v>
       </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>5.0675999999999997</v>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>4.0675999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="7">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.5314000000000001</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.53140000000000009</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="9">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.528</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="P5" s="9">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.5264</v>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.52639999999999998</v>
       </c>
       <c r="S5" s="3">
         <v>2.1427999999999998</v>
       </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.5253000000000001</v>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.5253000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="7">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.6336999999999999</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.63369999999999993</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="9">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.5857000000000001</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.58570000000000011</v>
+      </c>
+      <c r="P6" s="9">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.5807</v>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.58069999999999999</v>
       </c>
       <c r="S6" s="3">
         <v>2.3260999999999998</v>
       </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.6557999999999999</v>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.65579999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7767,7 +7774,7 @@
         <v>0.44110722693871729</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7803,7 +7810,7 @@
         <v>0.25290718413355218</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7839,7 +7846,7 @@
         <v>0.22565456231718639</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7875,7 +7882,7 @@
         <v>0.1721481058714418</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7901,7 +7908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7937,7 +7944,7 @@
         <v>0.10087750588571009</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -7971,6 +7978,513 @@
       <c r="R18" s="6">
         <f>Q18/U3-1</f>
         <v>8.318470428765079E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.875" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="18">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="9">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="22">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="9">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="22">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="18">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="9">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="22">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="22">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="9">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="22">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="22">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6947999999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.57443327880345874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.12214990665855585</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8943000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.11226586812283479</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8937999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10554582603619367</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8992</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8933</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>0.11167870354060239</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.899</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>0.10858143607705784</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8916999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>0.10890193722300068</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.8688946015424097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8993</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>0.1152016910339968</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.9074</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>0.11348511383537652</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>0.11241909725013932</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>8.5592428137415411E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8007,35 +8521,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J25:J26"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.375" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="28.875" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8046,225 +8558,227 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="14"/>
+      <c r="J3" s="11">
+        <f>ROUND(1.3137349069022,4)</f>
+        <v>1.3137000000000001</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.3108</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.3133999999999999</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
-        <v>1.7116</v>
+        <v>1.3261000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="7">
-        <f>ROUND(J4/J3,4)</f>
-        <v>80.064800000000005</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>77.795500000000004</v>
-      </c>
-      <c r="P4" s="7">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>88.267700000000005</v>
+        <f>ROUND(1.88295256877831,4)</f>
+        <v>1.883</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="9">
+        <v>1.9887999999999999</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>0.5172000000000001</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>0.42870000000000008</v>
       </c>
       <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>29.025200000000002</v>
+        <v>1.8301000000000001</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>0.39549999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="7">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.4876</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.4867999999999999</v>
-      </c>
-      <c r="P5" s="7">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.4844999999999999</v>
+        <v>1.6628000000000001</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.26570000000000005</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="9">
+        <v>1.661</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.2672000000000001</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.6674</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.26950000000000007</v>
       </c>
       <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.4894000000000001</v>
+        <v>1.6593</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.26530000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="7">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.4956</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.722</v>
-      </c>
-      <c r="P6" s="7">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.7013</v>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.29940000000000011</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="9">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.29289999999999994</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1.7579</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.33840000000000003</v>
       </c>
       <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.4730000000000001</v>
+        <v>1.7423999999999999</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.32869999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -8272,35 +8786,35 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>2.6836000000000002</v>
+        <v>1.6414</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
+        <v>0.25221238938053103</v>
       </c>
       <c r="M12" s="2">
-        <v>2.7757999999999998</v>
+        <v>1.6188</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
+        <v>0.23252626770214713</v>
       </c>
       <c r="O12" s="3">
-        <v>2.6745000000000001</v>
+        <v>1.633</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
+        <v>0.24523410096080545</v>
       </c>
       <c r="Q12" s="3">
-        <v>2.6947999999999999</v>
+        <v>1.6323000000000001</v>
       </c>
       <c r="R12" s="6">
         <f>Q12/U3-1</f>
-        <v>0.57443327880345874</v>
+        <v>0.23090264685921125</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -8308,176 +8822,176 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>1.9369000000000001</v>
+        <v>1.5123</v>
       </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
+        <v>0.15372291730241083</v>
       </c>
       <c r="M13" s="3">
-        <v>1.9479</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
+        <v>0.15676869194457144</v>
       </c>
       <c r="O13" s="3">
-        <v>1.948</v>
+        <v>1.5106999999999999</v>
       </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
+        <v>0.15197498856184244</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.9527000000000001</v>
+        <v>1.5098</v>
       </c>
       <c r="R13" s="6">
         <f>Q13/U3-1</f>
-        <v>0.14086235101659272</v>
+        <v>0.13852650629665941</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2">
-        <v>1.9159999999999999</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
+        <v>0.14540738480317361</v>
       </c>
       <c r="M14" s="2">
-        <v>1.9268000000000001</v>
+        <v>1.4993000000000001</v>
       </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
+        <v>0.14154103852596323</v>
       </c>
       <c r="O14" s="3">
-        <v>1.9142999999999999</v>
+        <v>1.502</v>
       </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
+        <v>0.14534085709928335</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.9112</v>
+        <v>1.4966999999999999</v>
       </c>
       <c r="R14" s="6">
         <f>Q14/U3-1</f>
-        <v>0.11661603178312685</v>
+        <v>0.12864791493854155</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2">
-        <v>1.8943000000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>0.11226586812283479</v>
+        <v>0.12488556606652423</v>
       </c>
       <c r="M15" s="2">
-        <v>1.8937999999999999</v>
+        <v>1.4734</v>
       </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>0.10554582603619367</v>
+        <v>0.12182122734886569</v>
       </c>
       <c r="O15" s="2">
-        <v>1.8992</v>
+        <v>1.4752000000000001</v>
       </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>0.11329838725692398</v>
+        <v>0.12490468201921634</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.8764000000000001</v>
+        <v>1.4653</v>
       </c>
       <c r="R15" s="6">
         <f>Q15/U3-1</f>
-        <v>9.6284178546389487E-2</v>
+        <v>0.10496945931679358</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2">
-        <v>1.8933</v>
+        <v>1.4461999999999999</v>
       </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>0.11167870354060239</v>
+        <v>0.10329569728410126</v>
       </c>
       <c r="M16" s="2">
-        <v>1.899</v>
+        <v>1.4498</v>
       </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>0.10858143607705784</v>
+        <v>0.10385259631490795</v>
       </c>
       <c r="O16" s="2">
-        <v>1.8916999999999999</v>
+        <v>1.4549000000000001</v>
       </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>0.10890193722300068</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8633999999999999</v>
+        <v>0.10942504193991165</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.4409000000000001</v>
       </c>
       <c r="R16" s="6">
         <f>Q16/U3-1</f>
-        <v>8.8688946015424097E-2</v>
+        <v>8.6569640298620021E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
-        <v>1.8993</v>
+        <v>1.44</v>
       </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>0.1152016910339968</v>
+        <v>9.8565761367104043E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>1.9074</v>
+        <v>1.4302999999999999</v>
       </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>0.11348511383537652</v>
+        <v>8.9005634231764885E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>1.8976999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>0.11241909725013932</v>
+        <v>8.8150068628946254E-2</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.8581000000000001</v>
+        <v>1.4093</v>
       </c>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>8.5592428137415411E-2</v>
+        <v>6.2740366488198474E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8509,513 +9023,6 @@
     <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="10">
-        <f>ROUND(1.3137349069022,4)</f>
-        <v>1.3137000000000001</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
-        <v>1.3108</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
-        <v>1.3133999999999999</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="10">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="5">
-        <v>1.3261000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <f>ROUND(1.88295256877831,4)</f>
-        <v>1.883</v>
-      </c>
-      <c r="K4" s="7">
-        <f>ROUND(J4/J3,4)</f>
-        <v>1.4334</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
-        <v>1.9887999999999999</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>1.5172000000000001</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1.8765000000000001</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>1.4287000000000001</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.8301000000000001</v>
-      </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>1.3955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.6628000000000001</v>
-      </c>
-      <c r="K5" s="7">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.2657</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
-        <v>1.661</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.2672000000000001</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1.6674</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.2695000000000001</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.6593</v>
-      </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.2653000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="K6" s="7">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.2994000000000001</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.2928999999999999</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1.7579</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.3384</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.3287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.6414</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.25221238938053103</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.6188</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.23252626770214713</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1.633</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.24523410096080545</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1.6323000000000001</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.23090264685921125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.5123</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.15372291730241083</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.5193000000000001</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.15676869194457144</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.5106999999999999</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.15197498856184244</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.5098</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13852650629665941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.5014000000000001</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.14540738480317361</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.4993000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.14154103852596323</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.502</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.14534085709928335</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.4966999999999999</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.12864791493854155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4744999999999999</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.12488556606652423</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.4734</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.12182122734886569</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.4752000000000001</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.12490468201921634</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.4653</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>0.10496945931679358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.4461999999999999</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.10329569728410126</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4498</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>0.10385259631490795</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.4549000000000001</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>0.10942504193991165</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1.4409000000000001</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>8.6569640298620021E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.8565761367104043E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.4302999999999999</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>8.9005634231764885E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.427</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>8.8150068628946254E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.4093</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>6.2740366488198474E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9025,29 +9032,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:R11"/>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.375" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="28.875" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9058,30 +9065,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
@@ -9094,62 +9101,62 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="10">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -9157,135 +9164,135 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="7">
-        <f>ROUND(J4/J3,4)</f>
-        <v>1.2325999999999999</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7">
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>0.23259999999999992</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="9">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3">
-        <f>ROUND(M4/M3,4)</f>
-        <v>1.2611000000000001</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>0.26110000000000011</v>
+      </c>
+      <c r="P4" s="9">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3">
-        <f>ROUND(P4/P3,4)</f>
-        <v>1.2390000000000001</v>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>0.2390000000000001</v>
       </c>
       <c r="S4" s="3">
         <f>ROUND(1.26194880524321,4)</f>
         <v>1.2619</v>
       </c>
-      <c r="T4" s="3">
-        <f>ROUND(S4/S3,4)</f>
-        <v>1.2017</v>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>0.20169999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="7">
-        <f>ROUND(J5/J3,4)</f>
-        <v>1.1899</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7">
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.18989999999999996</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="9">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="3">
-        <f>ROUND(M5/M3,4)</f>
-        <v>1.1914</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.19140000000000001</v>
+      </c>
+      <c r="P5" s="9">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3">
-        <f>ROUND(P5/P3,4)</f>
-        <v>1.1918</v>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.19179999999999997</v>
       </c>
       <c r="S5" s="3">
         <v>1.2524999999999999</v>
       </c>
-      <c r="T5" s="3">
-        <f>ROUND(S5/S3,4)</f>
-        <v>1.1927000000000001</v>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.19270000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="7">
-        <f>ROUND(J6/J3,4)</f>
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7">
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.41199999999999992</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="9">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="3">
-        <f>ROUND(M6/M3,4)</f>
-        <v>1.4401999999999999</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.44019999999999992</v>
+      </c>
+      <c r="P6" s="9">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3">
-        <f>ROUND(P6/P3,4)</f>
-        <v>1.4314</v>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.43140000000000001</v>
       </c>
       <c r="S6" s="3">
         <v>1.4861</v>
       </c>
-      <c r="T6" s="3">
-        <f>ROUND(S6/S3,4)</f>
-        <v>1.4152</v>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.41520000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -9296,22 +9303,22 @@
         <v>1.2454000000000001</v>
       </c>
       <c r="L12" s="6">
-        <f>ROUND(K12/J3,4)-1</f>
-        <v>0.18670000000000009</v>
+        <f>ROUND(K12/M3,4)-1</f>
+        <v>0.18650000000000011</v>
       </c>
       <c r="M12" s="2">
         <v>1.2301</v>
       </c>
       <c r="N12" s="6">
-        <f>ROUND(M12/M3,4)-1</f>
-        <v>0.17199999999999993</v>
+        <f>ROUND(M12/P3,4)-1</f>
+        <v>0.1745000000000001</v>
       </c>
       <c r="O12" s="3">
         <v>1.2406999999999999</v>
       </c>
       <c r="P12" s="6">
-        <f>ROUND(O12/P3,4)-1</f>
-        <v>0.18470000000000009</v>
+        <f>ROUND(O12/S3,4)-1</f>
+        <v>0.18149999999999999</v>
       </c>
       <c r="Q12" s="3">
         <v>1.2468999999999999</v>
@@ -9321,7 +9328,7 @@
         <v>0.18389999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -9332,22 +9339,22 @@
         <v>1.1843999999999999</v>
       </c>
       <c r="L13" s="6">
-        <f>(ROUND(K13/J3,4)-1)</f>
-        <v>0.12850000000000006</v>
+        <f>(ROUND(K13/M3,4)-1)</f>
+        <v>0.12840000000000007</v>
       </c>
       <c r="M13" s="3">
         <v>1.1822999999999999</v>
       </c>
       <c r="N13" s="6">
-        <f>ROUND(M13/M3,4)-1</f>
-        <v>0.12640000000000007</v>
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>0.12890000000000001</v>
       </c>
       <c r="O13" s="3">
         <v>1.1813</v>
       </c>
       <c r="P13" s="6">
-        <f>ROUND(O13/P3,4)-1</f>
-        <v>0.1278999999999999</v>
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>0.12490000000000001</v>
       </c>
       <c r="Q13" s="3">
         <v>1.1849000000000001</v>
@@ -9357,7 +9364,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -9368,22 +9375,22 @@
         <v>1.17</v>
       </c>
       <c r="L14" s="6">
-        <f>(ROUND(K14/J3,4)-1)</f>
-        <v>0.11480000000000001</v>
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>0.11470000000000002</v>
       </c>
       <c r="M14" s="2">
         <v>1.17</v>
       </c>
       <c r="N14" s="6">
-        <f>ROUND(M14/M3,4)-1</f>
-        <v>0.11470000000000002</v>
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>0.11719999999999997</v>
       </c>
       <c r="O14" s="3">
         <v>1.169</v>
       </c>
       <c r="P14" s="6">
-        <f>ROUND(O14/P3,4)-1</f>
-        <v>0.11620000000000008</v>
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>0.11319999999999997</v>
       </c>
       <c r="Q14" s="3">
         <v>1.1675</v>
@@ -9393,7 +9400,7 @@
         <v>0.10850000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -9404,22 +9411,22 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L15" s="6">
-        <f>(ROUND(K15/J3,4)-1)</f>
-        <v>0.10529999999999995</v>
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>0.10519999999999996</v>
       </c>
       <c r="M15" s="2">
         <v>1.155</v>
       </c>
       <c r="N15" s="6">
-        <f>ROUND(M15/M3,4)-1</f>
-        <v>0.10040000000000004</v>
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>0.1028</v>
       </c>
       <c r="O15" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="P15" s="6">
-        <f>ROUND(O15/P3,4)-1</f>
-        <v>0.10759999999999992</v>
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>0.10470000000000002</v>
       </c>
       <c r="Q15" s="3">
         <v>1.1492</v>
@@ -9429,7 +9436,7 @@
         <v>9.1199999999999948E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -9440,22 +9447,22 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="L16" s="6">
-        <f>(ROUND(K16/J3,4)-1)</f>
-        <v>9.9599999999999911E-2</v>
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>9.9499999999999922E-2</v>
       </c>
       <c r="M16" s="2">
         <v>1.145</v>
       </c>
       <c r="N16" s="6">
-        <f>ROUND(M16/M3,4)-1</f>
-        <v>9.0899999999999981E-2</v>
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>9.3299999999999939E-2</v>
       </c>
       <c r="O16" s="3">
         <v>1.1499999999999999</v>
       </c>
       <c r="P16" s="6">
-        <f>ROUND(O16/P3,4)-1</f>
-        <v>9.8100000000000076E-2</v>
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>9.5099999999999962E-2</v>
       </c>
       <c r="Q16" s="3">
         <v>1.1407</v>
@@ -9465,7 +9472,7 @@
         <v>8.3099999999999952E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -9476,22 +9483,22 @@
         <v>1.1379999999999999</v>
       </c>
       <c r="L17" s="6">
-        <f>(ROUND(K17/J3,4)-1)</f>
-        <v>8.4300000000000042E-2</v>
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>8.4200000000000053E-2</v>
       </c>
       <c r="M17" s="2">
         <v>1.1347</v>
       </c>
       <c r="N17" s="6">
-        <f>ROUND(M17/M3,4)-1</f>
-        <v>8.109999999999995E-2</v>
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>8.3499999999999908E-2</v>
       </c>
       <c r="O17" s="3">
         <v>1.1364000000000001</v>
       </c>
       <c r="P17" s="6">
-        <f>ROUND(O17/P3,4)-1</f>
-        <v>8.5099999999999953E-2</v>
+        <f>ROUND(O17/S3,4)-1</f>
+        <v>8.2200000000000051E-2</v>
       </c>
       <c r="Q17" s="3">
         <v>1.1149</v>
@@ -9501,7 +9508,7 @@
         <v>5.8599999999999985E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -9512,22 +9519,22 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L18" s="6">
-        <f>(ROUND(K18/J3,4)-1)</f>
-        <v>6.7199999999999926E-2</v>
+        <f>(ROUND(K18/M3,4)-1)</f>
+        <v>6.7099999999999937E-2</v>
       </c>
       <c r="M18" s="2">
         <v>1.1220000000000001</v>
       </c>
       <c r="N18" s="6">
-        <f>ROUND(M18/M3,4)-1</f>
-        <v>6.899999999999995E-2</v>
+        <f>ROUND(M18/P3,4)-1</f>
+        <v>7.1299999999999919E-2</v>
       </c>
       <c r="O18" s="3">
         <v>1.127</v>
       </c>
       <c r="P18" s="6">
-        <f>ROUND(O18/P3,4)-1</f>
-        <v>7.6100000000000056E-2</v>
+        <f>ROUND(O18/S3,4)-1</f>
+        <v>7.3199999999999932E-2</v>
       </c>
       <c r="Q18" s="3">
         <v>1.0972999999999999</v>
@@ -9539,6 +9546,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -9552,18 +9571,6 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9573,31 +9580,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.375" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="28.875" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9608,30 +9615,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
@@ -9644,159 +9651,191 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="36" x14ac:dyDescent="0.2">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13">
-        <v>8.7319999999999993</v>
+      <c r="J3" s="14">
+        <v>8.1255000000000006</v>
       </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="5"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
+        <v>8.0968999999999998</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>8.0462000000000007</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
+        <v>8.0386000000000006</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="5">
+        <v>8.2049000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>9.4544999999999995</v>
-      </c>
-      <c r="K4" s="7">
-        <f>ROUND(J4/J3,4)</f>
-        <v>1.0827</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="3" t="e">
-        <f>ROUND(M4/M3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="3" t="e">
-        <f>ROUND(P4/P3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="e">
-        <f>ROUND(S4/S3,4)</f>
-        <v>#DIV/0!</v>
+        <v>8.3346999999999998</v>
+      </c>
+      <c r="K4" s="20">
+        <f>J4/J3 -1</f>
+        <v>2.5746107931819529E-2</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="9">
+        <v>8.3082999999999991</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
+        <f>M4/M3 -1</f>
+        <v>2.6108757672689498E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>8.2776999999999994</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4) - 1</f>
+        <v>2.8799999999999937E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>8.2254000000000005</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4) - 1</f>
+        <v>2.3200000000000109E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7">
-        <f>ROUND(J5/J3,4)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="3" t="e">
-        <f>ROUND(M5/M3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="3" t="e">
-        <f>ROUND(P5/P3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="e">
-        <f>ROUND(S5/S3,4)</f>
-        <v>#DIV/0!</v>
+      <c r="J5" s="3">
+        <v>8.3390000000000004</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4) - 1</f>
+        <v>2.629999999999999E-2</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="9">
+        <v>8.3263999999999996</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>2.8299999999999992E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>8.2669999999999995</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>2.7400000000000091E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>2.629999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="7">
-        <f>ROUND(J6/J3,4)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="3" t="e">
-        <f>ROUND(M6/M3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="3" t="e">
-        <f>ROUND(P6/P3,4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="e">
-        <f>ROUND(S6/S3,4)</f>
-        <v>#DIV/0!</v>
+      <c r="J6" s="3">
+        <v>9.0373999999999999</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.11220000000000008</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="9">
+        <v>9.0866000000000007</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.12220000000000009</v>
+      </c>
+      <c r="P6" s="9">
+        <v>9.0182000000000002</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.12080000000000002</v>
+      </c>
+      <c r="S6" s="3">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.11260000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -9804,29 +9843,35 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>8.7309000000000001</v>
+        <v>8.3377999999999997</v>
       </c>
       <c r="L12" s="6">
-        <f>K12/J3-1</f>
-        <v>-1.2597343105813508E-4</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="6" t="e">
-        <f>M12/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="6" t="e">
-        <f>ROUND(O12/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="6" t="e">
+        <f>K12/M3-1</f>
+        <v>2.9752127357383751E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8.1699000000000002</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>1.5373716785563207E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>8.1050000000000004</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>8.2601448013335244E-3</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>8.2477</v>
+      </c>
+      <c r="R12" s="6">
         <f>ROUND(Q12/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>5.2000000000000934E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -9835,26 +9880,26 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="6">
-        <f>(ROUND(K13/J3,4)-1)</f>
+        <f>(ROUND(K13/M3,4)-1)</f>
         <v>-1</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="6" t="e">
-        <f>ROUND(M13/M3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="N13" s="6">
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="6" t="e">
-        <f>ROUND(O13/P3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="P13" s="6">
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="6" t="e">
+      <c r="R13" s="6">
         <f>ROUND(Q13/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -9863,26 +9908,26 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="6">
-        <f>(ROUND(K14/J3,4)-1)</f>
+        <f>(ROUND(K14/M3,4)-1)</f>
         <v>-1</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="6" t="e">
-        <f>ROUND(M14/M3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="6" t="e">
-        <f>ROUND(O14/P3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="6" t="e">
+      <c r="R14" s="6">
         <f>ROUND(Q14/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -9891,26 +9936,26 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="6">
-        <f>(ROUND(K15/J3,4)-1)</f>
+        <f>(ROUND(K15/M3,4)-1)</f>
         <v>-1</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="6" t="e">
-        <f>ROUND(M15/M3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="N15" s="6">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="O15" s="3"/>
-      <c r="P15" s="6" t="e">
-        <f>ROUND(O15/P3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="P15" s="6">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="6" t="e">
+      <c r="R15" s="6">
         <f>ROUND(Q15/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -9919,26 +9964,26 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="6">
-        <f>(ROUND(K16/J3,4)-1)</f>
+        <f>(ROUND(K16/M3,4)-1)</f>
         <v>-1</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="6" t="e">
-        <f>ROUND(M16/M3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="N16" s="6">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="O16" s="3"/>
-      <c r="P16" s="6" t="e">
-        <f>ROUND(O16/P3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="P16" s="6">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="6" t="e">
+      <c r="R16" s="6">
         <f>ROUND(Q16/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -9947,26 +9992,26 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="6">
-        <f>(ROUND(K17/J3,4)-1)</f>
+        <f>(ROUND(K17/M3,4)-1)</f>
         <v>-1</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="6" t="e">
-        <f>ROUND(M17/M3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="N17" s="6">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="6" t="e">
-        <f>ROUND(O17/P3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="P17" s="6">
+        <f>ROUND(O17/S3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="6" t="e">
+      <c r="R17" s="6">
         <f>ROUND(Q17/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -9975,27 +10020,43 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="6">
-        <f>(ROUND(K18/J3,4)-1)</f>
+        <f>(ROUND(K18/M3,4)-1)</f>
         <v>-1</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="6" t="e">
-        <f>ROUND(M18/M3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="N18" s="6">
+        <f>ROUND(M18/P3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="6" t="e">
-        <f>ROUND(O18/P3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="P18" s="6">
+        <f>ROUND(O18/S3,4)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="6" t="e">
+      <c r="R18" s="6">
         <f>ROUND(Q18/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -10006,21 +10067,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoye\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5686F9C-2C90-4FB4-9E4E-756512828F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809686B-4ADB-426E-83C6-0C23885603D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
-    <sheet name="GEANT_1024LP" sheetId="3" r:id="rId2"/>
-    <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId3"/>
-    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId4"/>
-    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId5"/>
+    <sheet name="GEANT_2048LP" sheetId="6" r:id="rId2"/>
+    <sheet name="GEANT_1024LP" sheetId="3" r:id="rId3"/>
+    <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId4"/>
+    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId5"/>
+    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="44">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -159,6 +169,9 @@
   <si>
     <t xml:space="preserve"> Bimodal Traffic, 1024 TMs, 30% sparsity 20% elephant flows</t>
   </si>
+  <si>
+    <t>(8, 28, 39) 1.584</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +185,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +193,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +201,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -196,14 +209,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -305,6 +318,9 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,6 +331,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -335,22 +357,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -519,7 +532,7 @@
                   <c:v>0.1862049389724667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.1637099063298324</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.14433721260289523</c:v>
@@ -609,7 +622,7 @@
                   <c:v>0.2021548057839524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.16926566487099515</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.13935355826481421</c:v>
@@ -699,7 +712,7 @@
                   <c:v>0.19597095671981757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.1636531890660593</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1412300683371297</c:v>
@@ -852,7 +865,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -890,7 +903,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -973,7 +986,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1005,7 +1018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -1047,7 +1060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1084,7 +1097,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1160,7 +1173,718 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_2048LP!$L$12:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57571487287886791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13727907932593508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D01A-4811-9380-3668A4859FB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_2048LP!$N$12:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62043199065966115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13712784588441318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D01A-4811-9380-3668A4859FB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_2048LP!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.56777408209701097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14190462214431743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D01A-4811-9380-3668A4859FB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GEANT_2048LP!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5706860706860708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13178563178563185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D01A-4811-9380-3668A4859FB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1563,7 +2287,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1601,7 +2325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -1684,7 +2408,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1716,7 +2440,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -1758,7 +2482,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1795,7 +2519,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1806,7 +2530,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1871,7 +2595,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2274,7 +2998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2312,7 +3036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -2396,7 +3120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2428,7 +3152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -2470,7 +3194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2507,7 +3231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2518,7 +3242,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2583,7 +3307,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2998,7 +3722,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3036,7 +3760,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -3120,7 +3844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3152,7 +3876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -3194,7 +3918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3231,7 +3955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3242,7 +3966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3307,7 +4031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3722,7 +4446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3760,7 +4484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054783824"/>
@@ -3844,7 +4568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3876,7 +4600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054782576"/>
@@ -3918,7 +4642,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3955,7 +4679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4166,6 +4890,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -6175,6 +6939,508 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6838,6 +8104,98 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8DEB58-9DE2-45D9-8EA0-5ACFFB9AC764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105790" y="504825"/>
+          <a:ext cx="5631689" cy="4685664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1290638</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C2DC9A-A009-49C9-8AF2-3EFD08A45EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EAD5D9-2E38-4D6E-ACD3-054CB0779265}"/>
             </a:ext>
           </a:extLst>
@@ -6910,7 +8268,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7002,7 +8360,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7093,7 +8451,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7485,31 +8843,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.125" customWidth="1"/>
-    <col min="11" max="11" width="25.75" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.875" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.125" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7520,30 +8878,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -7556,80 +8914,80 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="9">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -7642,30 +9000,30 @@
         <v>4.0675999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="9">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -7678,30 +9036,30 @@
         <v>0.5253000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="9">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -7714,31 +9072,31 @@
         <v>0.65579999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -7774,7 +9132,7 @@
         <v>0.44110722693871729</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -7810,7 +9168,7 @@
         <v>0.25290718413355218</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -7846,7 +9204,7 @@
         <v>0.22565456231718639</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -7882,25 +9240,33 @@
         <v>0.1721481058714418</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.6398999999999999</v>
+      </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>0.1637099063298324</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.6496</v>
+      </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>0.16926566487099515</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.6347</v>
+      </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>-1</v>
+        <v>0.1636531890660593</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="6">
@@ -7908,7 +9274,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -7944,7 +9310,7 @@
         <v>0.10087750588571009</v>
       </c>
     </row>
-    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -8015,6 +9381,473 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="5">
+        <v>1.7316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="10">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="10">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="10">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.7198000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.5706860706860708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9598</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13178563178563185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -8022,27 +9855,27 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.125" customWidth="1"/>
-    <col min="11" max="11" width="25.75" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.875" customWidth="1"/>
-    <col min="16" max="16" width="20.375" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.125" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8053,30 +9886,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -8089,80 +9922,80 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
         <v>79.064800000000005</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="9">
+      <c r="L4" s="21"/>
+      <c r="M4" s="10">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="22">
+      <c r="N4" s="11"/>
+      <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -8170,35 +10003,35 @@
       <c r="S4" s="3">
         <v>49.514683496694197</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="7">
         <f>ROUND(S4/S3,4)-1</f>
         <v>28.025200000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.48760000000000003</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="9">
+      <c r="L5" s="21"/>
+      <c r="M5" s="10">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="22">
+      <c r="N5" s="11"/>
+      <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -8206,35 +10039,35 @@
       <c r="S5" s="3">
         <v>2.5407999999999999</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="7">
         <f>ROUND(S5/S3,4)-1</f>
         <v>0.48940000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.49560000000000004</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="9">
+      <c r="L6" s="21"/>
+      <c r="M6" s="10">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="22">
+      <c r="N6" s="11"/>
+      <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -8242,36 +10075,36 @@
       <c r="S6" s="3">
         <v>2.5127999999999999</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="7">
         <f>ROUND(S6/S3,4)-1</f>
         <v>0.47300000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -8307,7 +10140,7 @@
         <v>0.57443327880345874</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -8343,7 +10176,7 @@
         <v>0.14086235101659272</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -8379,7 +10212,7 @@
         <v>0.11661603178312685</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -8415,7 +10248,7 @@
         <v>9.6284178546389487E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -8451,7 +10284,7 @@
         <v>8.8688946015424097E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -8521,7 +10354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -8529,25 +10362,25 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20.375" customWidth="1"/>
-    <col min="19" max="19" width="16.75" customWidth="1"/>
-    <col min="20" max="20" width="28.875" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8558,30 +10391,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -8594,58 +10427,58 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8653,23 +10486,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="9">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -8682,30 +10515,30 @@
         <v>0.39549999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="9">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>1.661</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -8718,30 +10551,30 @@
         <v>0.26530000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="9">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -8754,31 +10587,31 @@
         <v>0.32869999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -8814,7 +10647,7 @@
         <v>0.23090264685921125</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -8850,7 +10683,7 @@
         <v>0.13852650629665941</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -8886,7 +10719,7 @@
         <v>0.12864791493854155</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -8922,7 +10755,7 @@
         <v>0.10496945931679358</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -8958,7 +10791,7 @@
         <v>8.6569640298620021E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -9028,7 +10861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
@@ -9036,25 +10869,25 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.375" customWidth="1"/>
-    <col min="17" max="17" width="10.375" customWidth="1"/>
-    <col min="18" max="18" width="20.375" customWidth="1"/>
-    <col min="19" max="19" width="16.75" customWidth="1"/>
-    <col min="20" max="20" width="28.875" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9065,30 +10898,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -9101,62 +10934,62 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
@@ -9164,25 +10997,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="9">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -9196,30 +11029,30 @@
         <v>0.20169999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="9">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -9232,30 +11065,30 @@
         <v>0.19270000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="9">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -9268,31 +11101,31 @@
         <v>0.41520000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -9328,7 +11161,7 @@
         <v>0.18389999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -9364,7 +11197,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -9400,7 +11233,7 @@
         <v>0.10850000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -9436,7 +11269,7 @@
         <v>9.1199999999999948E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -9472,7 +11305,7 @@
         <v>8.3099999999999952E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -9508,7 +11341,7 @@
         <v>5.8599999999999985E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>5</v>
       </c>
@@ -9578,33 +11411,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.375" customWidth="1"/>
-    <col min="17" max="17" width="10.375" customWidth="1"/>
-    <col min="18" max="18" width="20.375" customWidth="1"/>
-    <col min="19" max="19" width="16.75" customWidth="1"/>
-    <col min="20" max="20" width="28.875" customWidth="1"/>
-    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9615,30 +11448,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -9651,82 +11484,82 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>8.1255000000000006</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11">
+      <c r="K3" s="22"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14">
         <v>8.0968999999999998</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>8.0462000000000007</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>8.0386000000000006</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <v>8.2049000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
         <v>8.3346999999999998</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="12">
         <f>J4/J3 -1</f>
         <v>2.5746107931819529E-2</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="9">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <v>8.3082999999999991</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>2.6108757672689498E-2</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <v>8.2776999999999994</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>2.8799999999999937E-2</v>
@@ -9739,30 +11572,30 @@
         <v>2.3200000000000109E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>8.3390000000000004</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.629999999999999E-2</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="9">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>8.3263999999999996</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.8299999999999992E-2</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>8.2669999999999995</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.7400000000000091E-2</v>
@@ -9775,30 +11608,30 @@
         <v>2.629999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>9.0373999999999999</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.11220000000000008</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="9">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>9.0866000000000007</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.12220000000000009</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>9.0182000000000002</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.12080000000000002</v>
@@ -9811,31 +11644,31 @@
         <v>0.11260000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
@@ -9871,7 +11704,7 @@
         <v>5.2000000000000934E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
@@ -9899,7 +11732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>1</v>
       </c>
@@ -9927,7 +11760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>2</v>
       </c>
@@ -9955,7 +11788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -9983,7 +11816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>4</v>
       </c>
@@ -10011,7 +11844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="9:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>5</v>
       </c>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809686B-4ADB-426E-83C6-0C23885603D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458838F2-C619-4D1A-A6C5-2A91F98F89B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -322,21 +322,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,8 +345,17 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,7 +773,7 @@
                   <c:v>0.1721481058714418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.13226796033388033</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.10087750588571009</c:v>
@@ -8843,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8878,25 +8878,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -8914,25 +8914,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8941,25 +8941,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -8971,23 +8971,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -9007,23 +9007,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -9043,23 +9043,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -9079,22 +9079,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -9268,10 +9268,12 @@
         <f>O16/S3-1</f>
         <v>0.1636531890660593</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>1.5871</v>
+      </c>
       <c r="R16" s="6">
         <f>Q16/U3-1</f>
-        <v>-1</v>
+        <v>0.13226796033388033</v>
       </c>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.25">
@@ -9348,21 +9350,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -9373,6 +9360,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9384,8 +9386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9419,25 +9421,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9455,25 +9457,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -9482,25 +9484,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.7316</v>
       </c>
@@ -9517,18 +9519,18 @@
         <v>79.064800000000005</v>
       </c>
       <c r="L4" s="21"/>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -9553,18 +9555,18 @@
         <v>0.48760000000000003</v>
       </c>
       <c r="L5" s="21"/>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -9589,18 +9591,18 @@
         <v>0.49560000000000004</v>
       </c>
       <c r="L6" s="21"/>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -9620,22 +9622,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -9815,6 +9817,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -9825,21 +9842,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9886,25 +9888,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9922,25 +9924,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -9949,25 +9951,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -9984,18 +9986,18 @@
         <v>79.064800000000005</v>
       </c>
       <c r="L4" s="21"/>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -10020,18 +10022,18 @@
         <v>0.48760000000000003</v>
       </c>
       <c r="L5" s="21"/>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -10056,18 +10058,18 @@
         <v>0.49560000000000004</v>
       </c>
       <c r="L6" s="21"/>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -10087,22 +10089,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10322,6 +10324,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -10332,21 +10349,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10391,25 +10393,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10427,25 +10429,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10454,26 +10456,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -10486,23 +10488,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -10522,23 +10524,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>1.661</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -10558,23 +10560,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -10594,22 +10596,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10829,21 +10831,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -10854,6 +10841,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10865,7 +10867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -10898,25 +10900,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10934,25 +10936,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10961,29 +10963,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -10997,25 +10999,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -11036,23 +11038,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -11072,23 +11074,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -11108,22 +11110,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11379,18 +11381,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -11404,6 +11394,18 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11448,25 +11450,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11484,54 +11486,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="11"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>8.1255000000000006</v>
       </c>
       <c r="K3" s="22"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="14">
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
         <v>8.0968999999999998</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>8.0462000000000007</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <v>8.0386000000000006</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <v>8.2049000000000003</v>
       </c>
@@ -11543,23 +11545,23 @@
       <c r="J4" s="3">
         <v>8.3346999999999998</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>J4/J3 -1</f>
         <v>2.5746107931819529E-2</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>8.3082999999999991</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>2.6108757672689498E-2</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>8.2776999999999994</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>2.8799999999999937E-2</v>
@@ -11579,23 +11581,23 @@
       <c r="J5" s="3">
         <v>8.3390000000000004</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.629999999999999E-2</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>8.3263999999999996</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.8299999999999992E-2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>8.2669999999999995</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.7400000000000091E-2</v>
@@ -11615,23 +11617,23 @@
       <c r="J6" s="3">
         <v>9.0373999999999999</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.11220000000000008</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>9.0866000000000007</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.12220000000000009</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>9.0182000000000002</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.12080000000000002</v>
@@ -11651,22 +11653,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11874,22 +11876,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -11900,6 +11886,22 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458838F2-C619-4D1A-A6C5-2A91F98F89B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814E372-D397-4B43-9271-6C10A98419B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -322,12 +322,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,17 +354,8 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4101,7 +4101,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.9752127357383751E-2</c:v>
+                  <c:v>5.3044416119227389E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
@@ -4191,7 +4191,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5373716785563207E-2</c:v>
+                  <c:v>6.0802499916891017E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
@@ -4281,7 +4281,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.2601448013335244E-3</c:v>
+                  <c:v>5.0222606578905316E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
@@ -4342,7 +4342,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.2000000000000934E-3</c:v>
+                  <c:v>5.3600000000000092E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-1</c:v>
@@ -8878,25 +8878,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -8914,25 +8914,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8941,25 +8941,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -8971,23 +8971,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -9007,23 +9007,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -9043,23 +9043,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -9079,22 +9079,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -9346,6 +9346,980 @@
       <c r="R18" s="6">
         <f>Q18/U3-1</f>
         <v>8.318470428765079E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="5">
+        <v>1.7316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="10">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="10">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="10">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.7198000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.5706860706860708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9598</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13178563178563185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="10">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="10">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="10">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6947999999999999</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.57443327880345874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.12214990665855585</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8943000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.11226586812283479</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8937999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10554582603619367</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8992</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8933</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>0.11167870354060239</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.899</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>0.10858143607705784</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8916999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>0.10890193722300068</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.8688946015424097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8993</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>0.1152016910339968</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.9074</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>0.11348511383537652</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>0.11241909725013932</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>8.5592428137415411E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9375,980 +10349,6 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="5">
-        <v>1.7316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="8">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="7">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="8">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="8">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="7">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="8">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.6836000000000002</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.7757999999999998</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.6745000000000001</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2.7198000000000002</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.5706860706860708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.9479</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.948</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.9598</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13178563178563185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="5">
-        <v>1.7116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="8">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="7">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="8">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="8">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="7">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="8">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.6836000000000002</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.7757999999999998</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.6745000000000001</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2.6947999999999999</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.57443327880345874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.9479</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.948</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.9527000000000001</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.14086235101659272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.9268000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.9142999999999999</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.9112</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.11661603178312685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.8943000000000001</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.11226586812283479</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.8937999999999999</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.10554582603619367</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.8992</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.11329838725692398</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.8764000000000001</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>9.6284178546389487E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.8933</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.11167870354060239</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.899</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>0.10858143607705784</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.8916999999999999</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>0.10890193722300068</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8633999999999999</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>8.8688946015424097E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.8993</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>0.1152016910339968</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.9074</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>0.11348511383537652</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.8976999999999999</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>0.11241909725013932</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.8581000000000001</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>8.5592428137415411E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10393,25 +10393,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10429,25 +10429,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10456,26 +10456,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -10488,23 +10488,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -10524,23 +10524,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>1.661</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -10560,23 +10560,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -10596,22 +10596,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10831,6 +10831,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -10841,21 +10856,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10867,7 +10867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -10900,25 +10900,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10936,25 +10936,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10963,29 +10963,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -10999,25 +10999,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -11038,23 +11038,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -11074,23 +11074,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -11110,22 +11110,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11381,6 +11381,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -11394,18 +11406,6 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11417,8 +11417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11450,25 +11450,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11486,56 +11486,56 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="11"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
-        <v>8.1255000000000006</v>
+      <c r="J3" s="17">
+        <v>3.0270000000000001</v>
       </c>
       <c r="K3" s="22"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11">
-        <v>8.0968999999999998</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>8.0462000000000007</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
-        <v>8.0386000000000006</v>
-      </c>
-      <c r="T3" s="13"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14">
+        <v>3.0596999999999999</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>3.0081000000000002</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
-        <v>8.2049000000000003</v>
+        <v>3.0289999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -11543,35 +11543,35 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>8.3346999999999998</v>
-      </c>
-      <c r="K4" s="16">
+        <v>3.1755</v>
+      </c>
+      <c r="K4" s="12">
         <f>J4/J3 -1</f>
-        <v>2.5746107931819529E-2</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
-        <v>8.3082999999999991</v>
-      </c>
-      <c r="N4" s="10"/>
+        <v>4.9058473736372621E-2</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
+        <v>3.2151000000000001</v>
+      </c>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
-        <v>2.6108757672689498E-2</v>
-      </c>
-      <c r="P4" s="8">
-        <v>8.2776999999999994</v>
-      </c>
-      <c r="Q4" s="10"/>
+        <v>5.0789293067947883E-2</v>
+      </c>
+      <c r="P4" s="10">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
-        <v>2.8799999999999937E-2</v>
+        <v>5.3199999999999914E-2</v>
       </c>
       <c r="S4" s="3">
-        <v>8.2254000000000005</v>
+        <v>3.2637</v>
       </c>
       <c r="T4" s="6">
         <f>ROUND(S4/S3,4) - 1</f>
-        <v>2.3200000000000109E-2</v>
+        <v>4.5400000000000107E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -11579,35 +11579,35 @@
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>8.3390000000000004</v>
-      </c>
-      <c r="K5" s="16">
+        <v>3.1151</v>
+      </c>
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4) - 1</f>
-        <v>2.629999999999999E-2</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
-        <v>8.3263999999999996</v>
-      </c>
-      <c r="N5" s="10"/>
+        <v>2.9099999999999904E-2</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
+        <v>3.1452</v>
+      </c>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
-        <v>2.8299999999999992E-2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>8.2669999999999995</v>
-      </c>
-      <c r="Q5" s="10"/>
+        <v>2.7900000000000036E-2</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3.1044999999999998</v>
+      </c>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
-        <v>2.7400000000000091E-2</v>
+        <v>3.2000000000000028E-2</v>
       </c>
       <c r="S5" s="3">
-        <v>8.25</v>
+        <v>3.2006999999999999</v>
       </c>
       <c r="T5" s="6">
         <f>ROUND(S5/S3,4)-1</f>
-        <v>2.629999999999999E-2</v>
+        <v>2.5199999999999889E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -11615,35 +11615,35 @@
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>9.0373999999999999</v>
-      </c>
-      <c r="K6" s="16">
+        <v>3.6023999999999998</v>
+      </c>
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
-        <v>0.11220000000000008</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
-        <v>9.0866000000000007</v>
-      </c>
-      <c r="N6" s="10"/>
+        <v>0.19009999999999994</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
+        <v>3.6149</v>
+      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>0.12220000000000009</v>
-      </c>
-      <c r="P6" s="8">
-        <v>9.0182000000000002</v>
-      </c>
-      <c r="Q6" s="10"/>
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="P6" s="10">
+        <v>3.6132</v>
+      </c>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
-        <v>0.12080000000000002</v>
+        <v>0.20120000000000005</v>
       </c>
       <c r="S6" s="3">
-        <v>8.9440000000000008</v>
+        <v>3.6958000000000002</v>
       </c>
       <c r="T6" s="6">
         <f>ROUND(S6/S3,4)-1</f>
-        <v>0.11260000000000003</v>
+        <v>0.18379999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -11653,22 +11653,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11678,32 +11678,32 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>8.3377999999999997</v>
+        <v>3.222</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>2.9752127357383751E-2</v>
+        <v>5.3044416119227389E-2</v>
       </c>
       <c r="M12" s="2">
-        <v>8.1699000000000002</v>
+        <v>3.1909999999999998</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>1.5373716785563207E-2</v>
+        <v>6.0802499916891017E-2</v>
       </c>
       <c r="O12" s="3">
-        <v>8.1050000000000004</v>
+        <v>3.2789000000000001</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>8.2601448013335244E-3</v>
+        <v>5.0222606578905316E-2</v>
       </c>
       <c r="Q12" s="3">
-        <v>8.2477</v>
+        <v>3.1913999999999998</v>
       </c>
       <c r="R12" s="6">
         <f>ROUND(Q12/U3,4)-1</f>
-        <v>5.2000000000000934E-3</v>
+        <v>5.3600000000000092E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -11876,6 +11876,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -11886,22 +11902,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814E372-D397-4B43-9271-6C10A98419B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5760D8E-6AF7-4127-AE07-2B28F9A5D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="47">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>(8, 28, 39) 1.584</t>
+  </si>
+  <si>
+    <t>(4,) 1.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gravity Traffic, 20448 TMs, 30% sparsity</t>
+  </si>
+  <si>
+    <t>(4, 23) 1.875</t>
   </si>
 </sst>
 </file>
@@ -322,21 +331,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,8 +354,17 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,10 +1258,10 @@
                   <c:v>0.13727907932593508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.12612295226351944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.10428042980447416</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
@@ -1336,10 +1345,10 @@
                   <c:v>0.13712784588441318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.1239929947460594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.10630472854640982</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
@@ -1423,10 +1432,10 @@
                   <c:v>0.14190462214431743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.11693278595163381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.10550201586343344</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
@@ -1481,10 +1490,10 @@
                   <c:v>0.13178563178563185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.10533610533610527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>8.3737583737583776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
@@ -8878,25 +8887,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -8914,25 +8923,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8941,25 +8950,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -8971,23 +8980,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -9007,23 +9016,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -9043,23 +9052,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -9079,22 +9088,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -9346,6 +9355,493 @@
       <c r="R18" s="6">
         <f>Q18/U3-1</f>
         <v>8.318470428765079E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="8">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="8">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="8">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="8">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6836000000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.57571487287886791</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.62043199065966115</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6745000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56777408209701097</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.7198000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.5706860706860708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9598</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13178563178563185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9178999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12612295226351944</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9254</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.1239929947460594</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9054</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.11693278595163381</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.10533610533610527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8807</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.10428042980447416</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8951</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10630472854640982</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8858999999999999</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.10550201586343344</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8766</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>8.3737583737583776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -9368,458 +9864,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="Q11:R11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="5">
-        <v>1.7316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="10">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="7">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="10">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="10">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="7">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="10">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="10">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="7">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="10">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.6836000000000002</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.7757999999999998</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.6745000000000001</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2.7198000000000002</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.5706860706860708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.9479</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.948</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.9598</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13178563178563185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
@@ -9827,21 +9871,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9888,25 +9917,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -9924,25 +9953,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -9951,25 +9980,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -9986,18 +10015,18 @@
         <v>79.064800000000005</v>
       </c>
       <c r="L4" s="21"/>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -10022,18 +10051,18 @@
         <v>0.48760000000000003</v>
       </c>
       <c r="L5" s="21"/>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -10058,18 +10087,18 @@
         <v>0.49560000000000004</v>
       </c>
       <c r="L6" s="21"/>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -10089,22 +10118,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10324,6 +10353,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -10334,21 +10378,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10393,25 +10422,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10429,25 +10458,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10456,26 +10485,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -10488,23 +10517,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -10524,23 +10553,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>1.661</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -10560,23 +10589,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -10596,22 +10625,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10831,21 +10860,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -10856,6 +10870,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10900,25 +10929,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10936,25 +10965,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10963,29 +10992,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -10999,25 +11028,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -11038,23 +11067,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -11074,23 +11103,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -11110,22 +11139,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11381,18 +11410,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -11406,6 +11423,18 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11417,7 +11446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -11450,25 +11479,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11486,54 +11515,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="11"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>3.0270000000000001</v>
       </c>
       <c r="K3" s="22"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="14">
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
         <v>3.0596999999999999</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>3.0081000000000002</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <v>3.1221000000000001</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <v>3.0289999999999999</v>
       </c>
@@ -11545,23 +11574,23 @@
       <c r="J4" s="3">
         <v>3.1755</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>J4/J3 -1</f>
         <v>4.9058473736372621E-2</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>3.2151000000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>5.0789293067947883E-2</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>3.1680000000000001</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>5.3199999999999914E-2</v>
@@ -11581,23 +11610,23 @@
       <c r="J5" s="3">
         <v>3.1151</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.9099999999999904E-2</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>3.1452</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.7900000000000036E-2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>3.1044999999999998</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>3.2000000000000028E-2</v>
@@ -11617,23 +11646,23 @@
       <c r="J6" s="3">
         <v>3.6023999999999998</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.19009999999999994</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>3.6149</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.18149999999999999</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>3.6132</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.20120000000000005</v>
@@ -11653,22 +11682,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11876,22 +11905,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -11902,6 +11915,22 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5760D8E-6AF7-4127-AE07-2B28F9A5D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449CD50C-3078-47A2-BBFF-323E67DE2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="48">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>(4, 23) 1.875</t>
+  </si>
+  <si>
+    <t>(4, 9, 23) 1.853</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1267,7 @@
                   <c:v>0.10428042980447416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.10128589043508884</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1</c:v>
@@ -1351,7 +1354,7 @@
                   <c:v>0.10630472854640982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>9.7022767075306326E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1</c:v>
@@ -1438,7 +1441,7 @@
                   <c:v>0.10550201586343344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>9.5243632450946025E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1</c:v>
@@ -1496,7 +1499,7 @@
                   <c:v>8.3737583737583776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>7.057057057057059E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1</c:v>
@@ -9395,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9796,26 +9799,36 @@
       <c r="I16" s="2">
         <v>3</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8755999999999999</v>
+      </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>0.10128589043508884</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.8792</v>
+      </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>9.7022767075306326E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8684000000000001</v>
+      </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>9.5243632450946025E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8537999999999999</v>
+      </c>
       <c r="R16" s="6">
         <f>Q16/U3-1</f>
-        <v>-1</v>
+        <v>7.057057057057059E-2</v>
       </c>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.25">

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449CD50C-3078-47A2-BBFF-323E67DE2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC4928E-DEB9-4D0F-9A9C-5924033701A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -167,9 +167,6 @@
     <t>(8, 18, 28, 39)1.541</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bimodal Traffic, 1024 TMs, 30% sparsity 20% elephant flows</t>
-  </si>
-  <si>
     <t>(8, 28, 39) 1.584</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>(4, 9, 23) 1.853</t>
+  </si>
+  <si>
+    <t>(2, 4, 9, 23)1.846</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1267,10 @@
                   <c:v>0.10428042980447416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10128589043508884</c:v>
+                  <c:v>9.9994128354177647E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>9.6764723151899323E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,10 +1354,10 @@
                   <c:v>0.10630472854640982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7022767075306326E-2</c:v>
+                  <c:v>9.7840046701692884E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>9.4045534150613008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,10 +1441,10 @@
                   <c:v>0.10550201586343344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5243632450946025E-2</c:v>
+                  <c:v>9.8057360472656896E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>9.3367813769805519E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,7 +1502,7 @@
                   <c:v>7.057057057057059E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>6.8607068607068555E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,25 +4113,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.3044416119227389E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4203,25 +4203,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0802499916891017E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4293,25 +4293,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0222606578905316E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4354,25 +4354,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.3600000000000092E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9257,7 +9257,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2">
         <v>1.6398999999999999</v>
@@ -9398,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2">
         <v>1.9178999999999999</v>
@@ -9764,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2">
         <v>1.8807</v>
@@ -9800,28 +9800,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="2">
-        <v>1.8755999999999999</v>
+        <v>1.8734</v>
       </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>0.10128589043508884</v>
+        <v>9.9994128354177647E-2</v>
       </c>
       <c r="M16" s="2">
-        <v>1.8792</v>
+        <v>1.8806</v>
       </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>9.7022767075306326E-2</v>
+        <v>9.7840046701692884E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>1.8684000000000001</v>
+        <v>1.8732</v>
       </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>9.5243632450946025E-2</v>
+        <v>9.8057360472656896E-2</v>
       </c>
       <c r="Q16" s="2">
         <v>1.8537999999999999</v>
@@ -9835,26 +9835,36 @@
       <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8678999999999999</v>
+      </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>9.6764723151899323E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.8741000000000001</v>
+      </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>9.4045534150613008E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8652</v>
+      </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="3"/>
+        <v>9.3367813769805519E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8504</v>
+      </c>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>-1</v>
+        <v>6.8607068607068555E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9895,7 +9905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -11459,8 +11469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11528,28 +11538,18 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="S2" s="8"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
     </row>
@@ -11557,135 +11557,101 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
-        <v>3.0270000000000001</v>
-      </c>
+      <c r="J3" s="14"/>
       <c r="K3" s="22"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="11">
-        <v>3.0596999999999999</v>
-      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>3.0081000000000002</v>
-      </c>
+      <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="11">
-        <v>3.1221000000000001</v>
-      </c>
+      <c r="S3" s="11"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="5">
-        <v>3.0289999999999999</v>
-      </c>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
-        <v>3.1755</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="3"/>
+      <c r="K4" s="16" t="e">
         <f>J4/J3 -1</f>
-        <v>4.9058473736372621E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="8">
-        <v>3.2151000000000001</v>
-      </c>
+      <c r="M4" s="8"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="6">
+      <c r="O4" s="6" t="e">
         <f>M4/M3 -1</f>
-        <v>5.0789293067947883E-2</v>
-      </c>
-      <c r="P4" s="8">
-        <v>3.1680000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="8"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="6">
+      <c r="R4" s="6" t="e">
         <f>ROUND(P4/P3,4) - 1</f>
-        <v>5.3199999999999914E-2</v>
-      </c>
-      <c r="S4" s="3">
-        <v>3.2637</v>
-      </c>
-      <c r="T4" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="6" t="e">
         <f>ROUND(S4/S3,4) - 1</f>
-        <v>4.5400000000000107E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3">
-        <v>3.1151</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="3"/>
+      <c r="K5" s="16" t="e">
         <f>ROUND(J5/J3,4) - 1</f>
-        <v>2.9099999999999904E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L5" s="17"/>
-      <c r="M5" s="8">
-        <v>3.1452</v>
-      </c>
+      <c r="M5" s="8"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="6">
+      <c r="O5" s="6" t="e">
         <f>ROUND(M5/M3,4)-1</f>
-        <v>2.7900000000000036E-2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>3.1044999999999998</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="8"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="6">
+      <c r="R5" s="6" t="e">
         <f>ROUND(P5/P3,4)-1</f>
-        <v>3.2000000000000028E-2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3.2006999999999999</v>
-      </c>
-      <c r="T5" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="6" t="e">
         <f>ROUND(S5/S3,4)-1</f>
-        <v>2.5199999999999889E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3">
-        <v>3.6023999999999998</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="J6" s="3"/>
+      <c r="K6" s="16" t="e">
         <f>ROUND(J6/J3,4)-1</f>
-        <v>0.19009999999999994</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L6" s="17"/>
-      <c r="M6" s="8">
-        <v>3.6149</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="6">
+      <c r="O6" s="6" t="e">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>0.18149999999999999</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3.6132</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="8"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="6">
+      <c r="R6" s="6" t="e">
         <f>ROUND(P6/P3,4)-1</f>
-        <v>0.20120000000000005</v>
-      </c>
-      <c r="S6" s="3">
-        <v>3.6958000000000002</v>
-      </c>
-      <c r="T6" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="6" t="e">
         <f>ROUND(S6/S3,4)-1</f>
-        <v>0.18379999999999996</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -11719,33 +11685,25 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2">
-        <v>3.222</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="2"/>
+      <c r="L12" s="6" t="e">
         <f>K12/M3-1</f>
-        <v>5.3044416119227389E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <v>3.1909999999999998</v>
-      </c>
-      <c r="N12" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6" t="e">
         <f>M12/P3-1</f>
-        <v>6.0802499916891017E-2</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3.2789000000000001</v>
-      </c>
-      <c r="P12" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6" t="e">
         <f>O12/S3-1</f>
-        <v>5.0222606578905316E-2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3.1913999999999998</v>
-      </c>
-      <c r="R12" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6" t="e">
         <f>ROUND(Q12/U3,4)-1</f>
-        <v>5.3600000000000092E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -11756,24 +11714,24 @@
         <v>15</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="6">
+      <c r="L13" s="6" t="e">
         <f>(ROUND(K13/M3,4)-1)</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="6">
+      <c r="N13" s="6" t="e">
         <f>ROUND(M13/P3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="6">
+      <c r="P13" s="6" t="e">
         <f>ROUND(O13/S3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="6">
+      <c r="R13" s="6" t="e">
         <f>ROUND(Q13/U3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -11784,24 +11742,24 @@
         <v>23</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="6">
+      <c r="L14" s="6" t="e">
         <f>(ROUND(K14/M3,4)-1)</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="6">
+      <c r="N14" s="6" t="e">
         <f>ROUND(M14/P3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="6">
+      <c r="P14" s="6" t="e">
         <f>ROUND(O14/S3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="6">
+      <c r="R14" s="6" t="e">
         <f>ROUND(Q14/U3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -11812,24 +11770,24 @@
         <v>24</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="6">
+      <c r="L15" s="6" t="e">
         <f>(ROUND(K15/M3,4)-1)</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="6">
+      <c r="N15" s="6" t="e">
         <f>ROUND(M15/P3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O15" s="3"/>
-      <c r="P15" s="6">
+      <c r="P15" s="6" t="e">
         <f>ROUND(O15/S3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="6">
+      <c r="R15" s="6" t="e">
         <f>ROUND(Q15/U3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -11840,24 +11798,24 @@
         <v>25</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="6">
+      <c r="L16" s="6" t="e">
         <f>(ROUND(K16/M3,4)-1)</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="6">
+      <c r="N16" s="6" t="e">
         <f>ROUND(M16/P3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O16" s="3"/>
-      <c r="P16" s="6">
+      <c r="P16" s="6" t="e">
         <f>ROUND(O16/S3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="6">
+      <c r="R16" s="6" t="e">
         <f>ROUND(Q16/U3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.25">
@@ -11868,24 +11826,24 @@
         <v>26</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="6">
+      <c r="L17" s="6" t="e">
         <f>(ROUND(K17/M3,4)-1)</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="6">
+      <c r="N17" s="6" t="e">
         <f>ROUND(M17/P3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="6">
+      <c r="P17" s="6" t="e">
         <f>ROUND(O17/S3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="6">
+      <c r="R17" s="6" t="e">
         <f>ROUND(Q17/U3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="9:18" x14ac:dyDescent="0.25">
@@ -11896,24 +11854,24 @@
         <v>22</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="6">
+      <c r="L18" s="6" t="e">
         <f>(ROUND(K18/M3,4)-1)</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="6">
+      <c r="N18" s="6" t="e">
         <f>ROUND(M18/P3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="6">
+      <c r="P18" s="6" t="e">
         <f>ROUND(O18/S3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="6">
+      <c r="R18" s="6" t="e">
         <f>ROUND(Q18/U3,4)-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC4928E-DEB9-4D0F-9A9C-5924033701A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D3F74-25F8-4379-9AA0-10DFBA25B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -334,12 +334,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -357,17 +366,8 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,7 +532,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.43875957990349113</c:v>
+                  <c:v>0.44195288106727215</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2448197558898666</c:v>
@@ -622,7 +622,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.43124468386730941</c:v>
+                  <c:v>0.43606464417351831</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25347320669123885</c:v>
@@ -712,7 +712,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.44604214123006836</c:v>
+                  <c:v>0.44397779043280194</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25911161731207288</c:v>
@@ -773,7 +773,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.44110722693871729</c:v>
+                  <c:v>0.43846757508739409</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25290718413355218</c:v>
@@ -1255,7 +1255,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.57571487287886791</c:v>
+                  <c:v>0.58017732370383412</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13727907932593508</c:v>
@@ -1342,7 +1342,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.62043199065966115</c:v>
+                  <c:v>0.59427904261529463</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13712784588441318</c:v>
@@ -1429,7 +1429,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.56777408209701097</c:v>
+                  <c:v>0.56343625139687337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.14190462214431743</c:v>
@@ -1487,7 +1487,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5706860706860708</c:v>
+                  <c:v>0.55122430122430122</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13178563178563185</c:v>
@@ -1966,7 +1966,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.57571487287886791</c:v>
+                  <c:v>0.58017732370383412</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13727907932593508</c:v>
@@ -2053,7 +2053,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.62043199065966115</c:v>
+                  <c:v>0.59427904261529463</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13712784588441318</c:v>
@@ -2140,7 +2140,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.56777408209701097</c:v>
+                  <c:v>0.56343625139687337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.14190462214431743</c:v>
@@ -2198,7 +2198,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.57443327880345874</c:v>
+                  <c:v>0.56935031549427451</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.14086235101659272</c:v>
@@ -2677,7 +2677,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25221238938053103</c:v>
+                  <c:v>0.24610924626182484</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.15372291730241083</c:v>
@@ -2764,7 +2764,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23252626770214713</c:v>
+                  <c:v>0.23359220344144993</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.15676869194457144</c:v>
@@ -2851,7 +2851,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.24523410096080545</c:v>
+                  <c:v>0.2425651974988563</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.15197498856184244</c:v>
@@ -2909,7 +2909,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23090264685921125</c:v>
+                  <c:v>0.23746323806651071</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13852650629665941</c:v>
@@ -3389,7 +3389,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18650000000000011</c:v>
+                  <c:v>0.17959999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12840000000000007</c:v>
@@ -3479,7 +3479,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.1745000000000001</c:v>
+                  <c:v>0.1754</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12890000000000001</c:v>
@@ -3569,7 +3569,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18149999999999999</c:v>
+                  <c:v>0.18300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12490000000000001</c:v>
@@ -3630,7 +3630,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18389999999999995</c:v>
+                  <c:v>0.18870000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.125</c:v>
@@ -8855,8 +8855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8890,25 +8890,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -8926,25 +8926,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8953,25 +8953,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -8983,23 +8983,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -9019,23 +9019,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -9055,23 +9055,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -9091,22 +9091,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -9116,32 +9116,32 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>2.0274999999999999</v>
+        <v>2.032</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.43875957990349113</v>
+        <v>0.44195288106727215</v>
       </c>
       <c r="M12" s="2">
-        <v>2.0192000000000001</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.43124468386730941</v>
+        <v>0.43606464417351831</v>
       </c>
       <c r="O12" s="3">
-        <v>2.0314000000000001</v>
+        <v>2.0285000000000002</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.44604214123006836</v>
+        <v>0.44397779043280194</v>
       </c>
       <c r="Q12" s="3">
-        <v>2.02</v>
+        <v>2.0163000000000002</v>
       </c>
       <c r="R12" s="6">
         <f>Q12/U3-1</f>
-        <v>0.44110722693871729</v>
+        <v>0.43846757508739409</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -9358,6 +9358,1020 @@
       <c r="R18" s="6">
         <f>Q18/U3-1</f>
         <v>8.318470428765079E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="5">
+        <v>1.7316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="10">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="10">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="10">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6911999999999998</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.58017732370383412</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.59427904261529463</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6671</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56343625139687337</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6861000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.55122430122430122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9598</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13178563178563185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9178999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12612295226351944</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9254</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.1239929947460594</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9054</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.11693278595163381</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.10533610533610527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8807</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.10428042980447416</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8951</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10630472854640982</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8858999999999999</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.10550201586343344</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8766</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>8.3737583737583776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8734</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>9.9994128354177647E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.8806</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>9.7840046701692884E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8732</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>9.8057360472656896E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8537999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>7.057057057057059E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8678999999999999</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>9.6764723151899323E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.8741000000000001</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>9.4045534150613008E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8652</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>9.3367813769805519E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8504</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>6.8607068607068555E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="10">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="10">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="10">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6911999999999998</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.58017732370383412</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.59427904261529463</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6671</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56343625139687337</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6861000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.56935031549427451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.12214990665855585</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8943000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.11226586812283479</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8937999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10554582603619367</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8992</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8933</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>0.11167870354060239</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.899</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>0.10858143607705784</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8916999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>0.10890193722300068</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.8688946015424097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8993</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>0.1152016910339968</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.9074</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>0.11348511383537652</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>0.11241909725013932</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>8.5592428137415411E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9394,12 +10408,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9408,524 +10422,15 @@
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="5">
-        <v>1.7316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="8">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="7">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="8">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="8">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="7">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="8">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.6836000000000002</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.7757999999999998</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.6745000000000001</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2.7198000000000002</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.5706860706860708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.9479</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.948</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.9598</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13178563178563185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.9178999999999999</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.12612295226351944</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.9254</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.1239929947460594</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.9054</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.11693278595163381</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.10533610533610527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.8807</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.10428042980447416</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.8951</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.10630472854640982</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.8858999999999999</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.10550201586343344</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.8766</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>8.3737583737583776E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.8734</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>9.9994128354177647E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.8806</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>9.7840046701692884E-2</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.8732</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>9.8057360472656896E-2</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8537999999999999</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>7.057057057057059E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.8678999999999999</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.6764723151899323E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.8741000000000001</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>9.4045534150613008E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.8652</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>9.3367813769805519E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.8504</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>6.8607068607068555E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
     <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9940,61 +10445,61 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10003,27 +10508,28 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
+      <c r="J3" s="14">
+        <f>ROUND(1.3137349069022,4)</f>
+        <v>1.3137000000000001</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>1.3108</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>1.3133999999999999</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="14">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="15"/>
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
-        <v>1.7116</v>
+        <v>1.3261000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10031,35 +10537,36 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
+        <f>ROUND(1.88295256877831,4)</f>
+        <v>1.883</v>
+      </c>
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="8">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="7">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
+        <v>1.9887999999999999</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="8">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="10"/>
+        <v>0.5172000000000001</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
+        <v>0.42870000000000008</v>
       </c>
       <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
+        <v>1.8301000000000001</v>
+      </c>
+      <c r="T4" s="6">
         <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
+        <v>0.39549999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -10067,35 +10574,35 @@
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
+        <v>1.6628000000000001</v>
+      </c>
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="8">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="7">
+        <v>0.26570000000000005</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
+        <v>1.661</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="8">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="10"/>
+        <v>0.2672000000000001</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1.6674</v>
+      </c>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
+        <v>0.26950000000000007</v>
       </c>
       <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
+        <v>1.6593</v>
+      </c>
+      <c r="T5" s="6">
         <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
+        <v>0.26530000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10103,60 +10610,60 @@
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7">
+        <v>0.29940000000000011</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="10"/>
+        <v>0.29289999999999994</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1.7579</v>
+      </c>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
+        <v>0.33840000000000003</v>
       </c>
       <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
+        <v>1.7423999999999999</v>
+      </c>
+      <c r="T6" s="6">
         <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
+        <v>0.32869999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10166,32 +10673,32 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>2.6836000000000002</v>
+        <v>1.6334</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.57571487287886791</v>
+        <v>0.24610924626182484</v>
       </c>
       <c r="M12" s="2">
-        <v>2.7757999999999998</v>
+        <v>1.6202000000000001</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.62043199065966115</v>
+        <v>0.23359220344144993</v>
       </c>
       <c r="O12" s="3">
-        <v>2.6745000000000001</v>
+        <v>1.6294999999999999</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.56777408209701097</v>
+        <v>0.2425651974988563</v>
       </c>
       <c r="Q12" s="3">
-        <v>2.6947999999999999</v>
+        <v>1.641</v>
       </c>
       <c r="R12" s="6">
         <f>Q12/U3-1</f>
-        <v>0.57443327880345874</v>
+        <v>0.23746323806651071</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -10202,32 +10709,32 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>1.9369000000000001</v>
+        <v>1.5123</v>
       </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
+        <v>0.15372291730241083</v>
       </c>
       <c r="M13" s="3">
-        <v>1.9479</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
+        <v>0.15676869194457144</v>
       </c>
       <c r="O13" s="3">
-        <v>1.948</v>
+        <v>1.5106999999999999</v>
       </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
+        <v>0.15197498856184244</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.9527000000000001</v>
+        <v>1.5098</v>
       </c>
       <c r="R13" s="6">
         <f>Q13/U3-1</f>
-        <v>0.14086235101659272</v>
+        <v>0.13852650629665941</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -10235,35 +10742,35 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2">
-        <v>1.9159999999999999</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
+        <v>0.14540738480317361</v>
       </c>
       <c r="M14" s="2">
-        <v>1.9268000000000001</v>
+        <v>1.4993000000000001</v>
       </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
+        <v>0.14154103852596323</v>
       </c>
       <c r="O14" s="3">
-        <v>1.9142999999999999</v>
+        <v>1.502</v>
       </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
+        <v>0.14534085709928335</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.9112</v>
+        <v>1.4966999999999999</v>
       </c>
       <c r="R14" s="6">
         <f>Q14/U3-1</f>
-        <v>0.11661603178312685</v>
+        <v>0.12864791493854155</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -10271,35 +10778,35 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2">
-        <v>1.8943000000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>0.11226586812283479</v>
+        <v>0.12488556606652423</v>
       </c>
       <c r="M15" s="2">
-        <v>1.8937999999999999</v>
+        <v>1.4734</v>
       </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>0.10554582603619367</v>
+        <v>0.12182122734886569</v>
       </c>
       <c r="O15" s="2">
-        <v>1.8992</v>
+        <v>1.4752000000000001</v>
       </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>0.11329838725692398</v>
+        <v>0.12490468201921634</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.8764000000000001</v>
+        <v>1.4653</v>
       </c>
       <c r="R15" s="6">
         <f>Q15/U3-1</f>
-        <v>9.6284178546389487E-2</v>
+        <v>0.10496945931679358</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -10307,35 +10814,35 @@
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2">
-        <v>1.8933</v>
+        <v>1.4461999999999999</v>
       </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>0.11167870354060239</v>
+        <v>0.10329569728410126</v>
       </c>
       <c r="M16" s="2">
-        <v>1.899</v>
+        <v>1.4498</v>
       </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>0.10858143607705784</v>
+        <v>0.10385259631490795</v>
       </c>
       <c r="O16" s="2">
-        <v>1.8916999999999999</v>
+        <v>1.4549000000000001</v>
       </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>0.10890193722300068</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8633999999999999</v>
+        <v>0.10942504193991165</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.4409000000000001</v>
       </c>
       <c r="R16" s="6">
         <f>Q16/U3-1</f>
-        <v>8.8688946015424097E-2</v>
+        <v>8.6569640298620021E-2</v>
       </c>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.25">
@@ -10343,35 +10850,35 @@
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
-        <v>1.8993</v>
+        <v>1.44</v>
       </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>0.1152016910339968</v>
+        <v>9.8565761367104043E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>1.9074</v>
+        <v>1.4302999999999999</v>
       </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>0.11348511383537652</v>
+        <v>8.9005634231764885E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>1.8976999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>0.11241909725013932</v>
+        <v>8.8150068628946254E-2</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.8581000000000001</v>
+        <v>1.4093</v>
       </c>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>8.5592428137415411E-2</v>
+        <v>6.2740366488198474E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10403,513 +10910,6 @@
     <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11">
-        <f>ROUND(1.3137349069022,4)</f>
-        <v>1.3137000000000001</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
-        <v>1.3108</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
-        <v>1.3133999999999999</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="5">
-        <v>1.3261000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <f>ROUND(1.88295256877831,4)</f>
-        <v>1.883</v>
-      </c>
-      <c r="K4" s="16">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>0.43340000000000001</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
-        <v>1.9887999999999999</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="6">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>0.5172000000000001</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1.8765000000000001</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>0.42870000000000008</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.8301000000000001</v>
-      </c>
-      <c r="T4" s="6">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>0.39549999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.6628000000000001</v>
-      </c>
-      <c r="K5" s="16">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.26570000000000005</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
-        <v>1.661</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="6">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.2672000000000001</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1.6674</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.26950000000000007</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.6593</v>
-      </c>
-      <c r="T5" s="6">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.26530000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="K6" s="16">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.29940000000000011</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="6">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.29289999999999994</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1.7579</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.33840000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="T6" s="6">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.32869999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.6414</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.25221238938053103</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.6188</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.23252626770214713</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1.633</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.24523410096080545</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1.6323000000000001</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.23090264685921125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.5123</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.15372291730241083</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.5193000000000001</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.15676869194457144</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.5106999999999999</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.15197498856184244</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.5098</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13852650629665941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.5014000000000001</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.14540738480317361</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.4993000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.14154103852596323</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.502</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.14534085709928335</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.4966999999999999</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.12864791493854155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4744999999999999</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.12488556606652423</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.4734</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.12182122734886569</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.4752000000000001</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.12490468201921634</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.4653</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>0.10496945931679358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.4461999999999999</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.10329569728410126</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4498</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>0.10385259631490795</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.4549000000000001</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>0.10942504193991165</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1.4409000000000001</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>8.6569640298620021E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.8565761367104043E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.4302999999999999</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>8.9005634231764885E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.427</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>8.8150068628946254E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.4093</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>6.2740366488198474E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10920,7 +10920,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10952,25 +10952,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10988,25 +10988,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -11015,29 +11015,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -11051,25 +11051,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="12">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -11090,23 +11090,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -11126,23 +11126,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -11162,22 +11162,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11187,32 +11187,32 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>1.2454000000000001</v>
+        <v>1.2381</v>
       </c>
       <c r="L12" s="6">
         <f>ROUND(K12/M3,4)-1</f>
-        <v>0.18650000000000011</v>
+        <v>0.17959999999999998</v>
       </c>
       <c r="M12" s="2">
-        <v>1.2301</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="N12" s="6">
         <f>ROUND(M12/P3,4)-1</f>
-        <v>0.1745000000000001</v>
+        <v>0.1754</v>
       </c>
       <c r="O12" s="3">
-        <v>1.2406999999999999</v>
+        <v>1.2423</v>
       </c>
       <c r="P12" s="6">
         <f>ROUND(O12/S3,4)-1</f>
-        <v>0.18149999999999999</v>
+        <v>0.18300000000000005</v>
       </c>
       <c r="Q12" s="3">
-        <v>1.2468999999999999</v>
+        <v>1.2519</v>
       </c>
       <c r="R12" s="6">
         <f>ROUND(Q12/U3,4)-1</f>
-        <v>0.18389999999999995</v>
+        <v>0.18870000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -11433,6 +11433,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -11446,18 +11458,6 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11502,25 +11502,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11538,36 +11538,36 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="11"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="13"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -11575,19 +11575,19 @@
         <v>10</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="16" t="e">
+      <c r="K4" s="12" t="e">
         <f>J4/J3 -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6" t="e">
         <f>M4/M3 -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="6" t="e">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>#DIV/0!</v>
@@ -11603,19 +11603,19 @@
         <v>11</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="16" t="e">
+      <c r="K5" s="12" t="e">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6" t="e">
         <f>ROUND(M5/M3,4)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="6" t="e">
         <f>ROUND(P5/P3,4)-1</f>
         <v>#DIV/0!</v>
@@ -11631,19 +11631,19 @@
         <v>12</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="16" t="e">
+      <c r="K6" s="12" t="e">
         <f>ROUND(J6/J3,4)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6" t="e">
         <f>ROUND(M6/M3,4)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="6" t="e">
         <f>ROUND(P6/P3,4)-1</f>
         <v>#DIV/0!</v>
@@ -11661,22 +11661,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11876,6 +11876,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -11886,22 +11902,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D3F74-25F8-4379-9AA0-10DFBA25B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4803F76-544A-4A12-83FD-9044EBEB6ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId4"/>
     <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId5"/>
     <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId6"/>
+    <sheet name="GoodNet_Poisson_4096LP" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="61">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -184,14 +185,54 @@
   <si>
     <t>(2, 4, 9, 23)1.846</t>
   </si>
+  <si>
+    <t>(12,) 2.818</t>
+  </si>
+  <si>
+    <t>(5, 7, 9, 12, 15) 2.795</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bimodal Traffic, 1024 TMs, 100% sparsity</t>
+  </si>
+  <si>
+    <t>(5, 7, 12, 15) 2.7964</t>
+  </si>
+  <si>
+    <t>(7, 12)  2.8069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poisson Traffic, 1024 TMs, 20% sparsity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poisson Traffic, 4096 TMs, 20% sparsity</t>
+  </si>
+  <si>
+    <t>(5, 7, 9, 12, 15)  4.1277</t>
+  </si>
+  <si>
+    <t>(7, 12, 15)  2.7994</t>
+  </si>
+  <si>
+    <t>(7,) 4.1700</t>
+  </si>
+  <si>
+    <t>(7, 9, 12, 15) 4.133</t>
+  </si>
+  <si>
+    <t>(7, 15) 4.155</t>
+  </si>
+  <si>
+    <t>(7, 12, 15)  4.141</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -312,7 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -334,21 +375,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,8 +398,17 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +417,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4079,28 +4129,25 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$17</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>"-1 (No optimization, just smart weight init)"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0 just RL</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
@@ -4108,30 +4155,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Bimodal_1024LP!$L$12:$L$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.6645305314977543E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7200000000000104E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6299999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.8100000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.980000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.2199999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,28 +4213,25 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$17</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>"-1 (No optimization, just smart weight init)"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0 just RL</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
@@ -4198,30 +4239,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Bimodal_1024LP!$N$12:$N$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7459014226724801E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6799999999999926E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.4599999999999946E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7700000000000049E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.980000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3700000000000054E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,28 +4297,25 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$I$12:$I$17</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>"-1 (No optimization, just smart weight init)"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0 just RL</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
@@ -4288,30 +4323,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Bimodal_1024LP!$P$12:$P$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9699908001924005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8799999999999928E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7300000000000093E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9600000000000062E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1300000000000097E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3800000000000043E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4349,30 +4381,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Bimodal_1024LP!$R$12:$R$18</c:f>
+              <c:f>GoodNet_Bimodal_1024LP!$R$12:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7300000000000093E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.3200000000000101E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.300000000000086E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.6999999999999282E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.6000000000000494E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.2000000000000934E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,7 +4539,6 @@
         <c:axId val="2054783824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4585,6 +4613,708 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Poisson_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Poisson_4096LP!$L$12:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.000%">
+                  <c:v>2.4283881625555503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9700000000000051E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7200000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6799999999999926E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Poisson_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Poisson_4096LP!$N$12:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1485573971761873E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8899999999999917E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6199999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5600000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5600000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4599999999999946E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Poisson_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Poisson_4096LP!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5748739744983595E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3200000000000109E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0599999999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8299999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6799999999999926E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.639999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_Poisson_4096LP!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4942,6 +5672,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -7453,6 +8223,508 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8519,13 +9791,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1366837</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8534,6 +9806,99 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FD5FD8-5E25-42BF-A5A7-B66D08A24745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31439112-BF4F-4F6A-886F-52EEF958DBE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="466725"/>
+          <a:ext cx="5633720" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1366837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A7F59A-9E1A-4B95-A8F4-C864C952DEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8855,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8890,25 +10255,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -8926,25 +10291,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8953,25 +10318,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -8983,23 +10348,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -9019,23 +10384,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -9055,23 +10420,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -9091,22 +10456,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -9358,6 +10723,1020 @@
       <c r="R18" s="6">
         <f>Q18/U3-1</f>
         <v>8.318470428765079E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="8">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="8">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="8">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="8">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6911999999999998</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.58017732370383412</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.59427904261529463</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6671</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56343625139687337</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6861000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.55122430122430122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9598</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13178563178563185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9178999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12612295226351944</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9254</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.1239929947460594</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9054</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.11693278595163381</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.10533610533610527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8807</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.10428042980447416</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8951</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10630472854640982</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8858999999999999</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.10550201586343344</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8766</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>8.3737583737583776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8734</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>9.9994128354177647E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.8806</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>9.7840046701692884E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8732</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>9.8057360472656896E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8537999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>7.057057057057059E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8678999999999999</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>9.6764723151899323E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.8741000000000001</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>9.4045534150613008E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8652</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>9.3367813769805519E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8504</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>6.8607068607068555E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7073</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.7031000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>1.7059218101262801</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="5">
+        <v>1.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>136.69470000000001</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>79.064800000000005</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="8">
+        <v>132.49350000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="7">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>76.795500000000004</v>
+      </c>
+      <c r="P4" s="8">
+        <v>151.20259999999999</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>87.267700000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <v>49.514683496694197</v>
+      </c>
+      <c r="T4" s="7">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>28.025200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.5396999999999998</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.48760000000000003</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="8">
+        <v>2.5322</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="7">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.4867999999999999</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2.5428999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.48449999999999993</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.48940000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.5535000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.49560000000000004</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="8">
+        <v>2.9327999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="7">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2.9142999999999999</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.5127999999999999</v>
+      </c>
+      <c r="T6" s="7">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.47300000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.6911999999999998</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.58017732370383412</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.59427904261529463</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2.6671</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.56343625139687337</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.6861000000000002</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>0.56935031549427451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13727907932593508</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.9479</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13712784588441318</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.14190462214431743</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.14086235101659272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>0.12500733955727772</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.9268000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>0.12481027437244596</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>0.12214990665855585</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.9112</v>
+      </c>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>0.11661603178312685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.8943000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>0.11226586812283479</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8937999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>0.10554582603619367</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.8992</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>0.11329838725692398</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>9.6284178546389487E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.8933</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>0.11167870354060239</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.899</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>0.10858143607705784</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8916999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>0.10890193722300068</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>8.8688946015424097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8993</v>
+      </c>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>0.1152016910339968</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.9074</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>0.11348511383537652</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8976999999999999</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>0.11241909725013932</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>8.5592428137415411E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9394,12 +11773,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9408,524 +11787,15 @@
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="5">
-        <v>1.7316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="10">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="7">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="10">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
-      </c>
-      <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="10">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="7">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="10">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="10">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="7">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="10">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.6911999999999998</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.58017732370383412</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2.7309999999999999</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.59427904261529463</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.6671</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.56343625139687337</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2.6861000000000002</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.55122430122430122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.9479</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.948</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.9598</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13178563178563185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.9178999999999999</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.12612295226351944</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.9254</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.1239929947460594</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.9054</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.11693278595163381</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.10533610533610527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.8807</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.10428042980447416</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.8951</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.10630472854640982</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.8858999999999999</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.10550201586343344</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.8766</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>8.3737583737583776E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.8734</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>9.9994128354177647E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.8806</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>9.7840046701692884E-2</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.8732</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>9.8057360472656896E-2</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8537999999999999</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>7.057057057057059E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.8678999999999999</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.6764723151899323E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.8741000000000001</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>9.4045534150613008E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.8652</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>9.3367813769805519E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.8504</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>6.8607068607068555E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04364F8B-FA61-49FE-9A1A-9E99500FBC47}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
     <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9940,61 +11810,61 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10003,27 +11873,28 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
-        <v>1.7073</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
-        <v>1.7031000000000001</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
-        <v>1.7059218101262801</v>
-      </c>
-      <c r="T3" s="18"/>
+      <c r="J3" s="11">
+        <f>ROUND(1.3137349069022,4)</f>
+        <v>1.3137000000000001</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
+        <v>1.3108</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>1.3133999999999999</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
-        <v>1.7116</v>
+        <v>1.3261000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10031,35 +11902,36 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>136.69470000000001</v>
-      </c>
-      <c r="K4" s="20">
+        <f>ROUND(1.88295256877831,4)</f>
+        <v>1.883</v>
+      </c>
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
-        <v>79.064800000000005</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="10">
-        <v>132.49350000000001</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="7">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
+        <v>1.9887999999999999</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
-        <v>76.795500000000004</v>
-      </c>
-      <c r="P4" s="10">
-        <v>151.20259999999999</v>
-      </c>
-      <c r="Q4" s="11"/>
+        <v>0.5172000000000001</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
-        <v>87.267700000000005</v>
+        <v>0.42870000000000008</v>
       </c>
       <c r="S4" s="3">
-        <v>49.514683496694197</v>
-      </c>
-      <c r="T4" s="7">
+        <v>1.8301000000000001</v>
+      </c>
+      <c r="T4" s="6">
         <f>ROUND(S4/S3,4)-1</f>
-        <v>28.025200000000002</v>
+        <v>0.39549999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -10067,35 +11939,35 @@
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>2.5396999999999998</v>
-      </c>
-      <c r="K5" s="20">
+        <v>1.6628000000000001</v>
+      </c>
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
-        <v>0.48760000000000003</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="10">
-        <v>2.5322</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="7">
+        <v>0.26570000000000005</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
+        <v>1.661</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
-        <v>0.4867999999999999</v>
-      </c>
-      <c r="P5" s="10">
-        <v>2.5428999999999999</v>
-      </c>
-      <c r="Q5" s="11"/>
+        <v>0.2672000000000001</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1.6674</v>
+      </c>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
-        <v>0.48449999999999993</v>
+        <v>0.26950000000000007</v>
       </c>
       <c r="S5" s="3">
-        <v>2.5407999999999999</v>
-      </c>
-      <c r="T5" s="7">
+        <v>1.6593</v>
+      </c>
+      <c r="T5" s="6">
         <f>ROUND(S5/S3,4)-1</f>
-        <v>0.48940000000000006</v>
+        <v>0.26530000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -10103,60 +11975,60 @@
         <v>12</v>
       </c>
       <c r="J6" s="3">
-        <v>2.5535000000000001</v>
-      </c>
-      <c r="K6" s="20">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
-        <v>0.49560000000000004</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="10">
-        <v>2.9327999999999999</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="7">
+        <v>0.29940000000000011</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="P6" s="10">
-        <v>2.9142999999999999</v>
-      </c>
-      <c r="Q6" s="11"/>
+        <v>0.29289999999999994</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1.7579</v>
+      </c>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
-        <v>0.70130000000000003</v>
+        <v>0.33840000000000003</v>
       </c>
       <c r="S6" s="3">
-        <v>2.5127999999999999</v>
-      </c>
-      <c r="T6" s="7">
+        <v>1.7423999999999999</v>
+      </c>
+      <c r="T6" s="6">
         <f>ROUND(S6/S3,4)-1</f>
-        <v>0.47300000000000009</v>
+        <v>0.32869999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10166,32 +12038,32 @@
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>2.6911999999999998</v>
+        <v>1.6334</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>0.58017732370383412</v>
+        <v>0.24610924626182484</v>
       </c>
       <c r="M12" s="2">
-        <v>2.7309999999999999</v>
+        <v>1.6202000000000001</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>0.59427904261529463</v>
+        <v>0.23359220344144993</v>
       </c>
       <c r="O12" s="3">
-        <v>2.6671</v>
+        <v>1.6294999999999999</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>0.56343625139687337</v>
+        <v>0.2425651974988563</v>
       </c>
       <c r="Q12" s="3">
-        <v>2.6861000000000002</v>
+        <v>1.641</v>
       </c>
       <c r="R12" s="6">
         <f>Q12/U3-1</f>
-        <v>0.56935031549427451</v>
+        <v>0.23746323806651071</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -10202,32 +12074,32 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>1.9369000000000001</v>
+        <v>1.5123</v>
       </c>
       <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>0.13727907932593508</v>
+        <v>0.15372291730241083</v>
       </c>
       <c r="M13" s="3">
-        <v>1.9479</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>0.13712784588441318</v>
+        <v>0.15676869194457144</v>
       </c>
       <c r="O13" s="3">
-        <v>1.948</v>
+        <v>1.5106999999999999</v>
       </c>
       <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>0.14190462214431743</v>
+        <v>0.15197498856184244</v>
       </c>
       <c r="Q13" s="3">
-        <v>1.9527000000000001</v>
+        <v>1.5098</v>
       </c>
       <c r="R13" s="6">
         <f>Q13/U3-1</f>
-        <v>0.14086235101659272</v>
+        <v>0.13852650629665941</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -10235,35 +12107,35 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2">
-        <v>1.9159999999999999</v>
+        <v>1.5014000000000001</v>
       </c>
       <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>0.12500733955727772</v>
+        <v>0.14540738480317361</v>
       </c>
       <c r="M14" s="2">
-        <v>1.9268000000000001</v>
+        <v>1.4993000000000001</v>
       </c>
       <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>0.12481027437244596</v>
+        <v>0.14154103852596323</v>
       </c>
       <c r="O14" s="3">
-        <v>1.9142999999999999</v>
+        <v>1.502</v>
       </c>
       <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>0.12214990665855585</v>
+        <v>0.14534085709928335</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.9112</v>
+        <v>1.4966999999999999</v>
       </c>
       <c r="R14" s="6">
         <f>Q14/U3-1</f>
-        <v>0.11661603178312685</v>
+        <v>0.12864791493854155</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -10271,35 +12143,35 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2">
-        <v>1.8943000000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>0.11226586812283479</v>
+        <v>0.12488556606652423</v>
       </c>
       <c r="M15" s="2">
-        <v>1.8937999999999999</v>
+        <v>1.4734</v>
       </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>0.10554582603619367</v>
+        <v>0.12182122734886569</v>
       </c>
       <c r="O15" s="2">
-        <v>1.8992</v>
+        <v>1.4752000000000001</v>
       </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>0.11329838725692398</v>
+        <v>0.12490468201921634</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.8764000000000001</v>
+        <v>1.4653</v>
       </c>
       <c r="R15" s="6">
         <f>Q15/U3-1</f>
-        <v>9.6284178546389487E-2</v>
+        <v>0.10496945931679358</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -10307,35 +12179,35 @@
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2">
-        <v>1.8933</v>
+        <v>1.4461999999999999</v>
       </c>
       <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>0.11167870354060239</v>
+        <v>0.10329569728410126</v>
       </c>
       <c r="M16" s="2">
-        <v>1.899</v>
+        <v>1.4498</v>
       </c>
       <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>0.10858143607705784</v>
+        <v>0.10385259631490795</v>
       </c>
       <c r="O16" s="2">
-        <v>1.8916999999999999</v>
+        <v>1.4549000000000001</v>
       </c>
       <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>0.10890193722300068</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.8633999999999999</v>
+        <v>0.10942504193991165</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.4409000000000001</v>
       </c>
       <c r="R16" s="6">
         <f>Q16/U3-1</f>
-        <v>8.8688946015424097E-2</v>
+        <v>8.6569640298620021E-2</v>
       </c>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.25">
@@ -10343,35 +12215,35 @@
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
-        <v>1.8993</v>
+        <v>1.44</v>
       </c>
       <c r="L17" s="6">
         <f>K17/M3-1</f>
-        <v>0.1152016910339968</v>
+        <v>9.8565761367104043E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>1.9074</v>
+        <v>1.4302999999999999</v>
       </c>
       <c r="N17" s="6">
         <f>M17/P3-1</f>
-        <v>0.11348511383537652</v>
+        <v>8.9005634231764885E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>1.8976999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="P17" s="6">
         <f>O17/S3-1</f>
-        <v>0.11241909725013932</v>
+        <v>8.8150068628946254E-2</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.8581000000000001</v>
+        <v>1.4093</v>
       </c>
       <c r="R17" s="6">
         <f>Q17/U3-1</f>
-        <v>8.5592428137415411E-2</v>
+        <v>6.2740366488198474E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10403,513 +12275,6 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
-  <dimension ref="A1:U17"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="14">
-        <f>ROUND(1.3137349069022,4)</f>
-        <v>1.3137000000000001</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
-        <v>1.3108</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
-        <v>1.3133999999999999</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="5">
-        <v>1.3261000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <f>ROUND(1.88295256877831,4)</f>
-        <v>1.883</v>
-      </c>
-      <c r="K4" s="12">
-        <f>ROUND(J4/J3,4)-1</f>
-        <v>0.43340000000000001</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
-        <v>1.9887999999999999</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="6">
-        <f>ROUND(M4/M3,4)-1</f>
-        <v>0.5172000000000001</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1.8765000000000001</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4)-1</f>
-        <v>0.42870000000000008</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.8301000000000001</v>
-      </c>
-      <c r="T4" s="6">
-        <f>ROUND(S4/S3,4)-1</f>
-        <v>0.39549999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.6628000000000001</v>
-      </c>
-      <c r="K5" s="12">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>0.26570000000000005</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
-        <v>1.661</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="6">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>0.2672000000000001</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1.6674</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>0.26950000000000007</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.6593</v>
-      </c>
-      <c r="T5" s="6">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>0.26530000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="K6" s="12">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.29940000000000011</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="6">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.29289999999999994</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1.7579</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.33840000000000003</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="T6" s="6">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.32869999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.6334</v>
-      </c>
-      <c r="L12" s="6">
-        <f>K12/M3-1</f>
-        <v>0.24610924626182484</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.6202000000000001</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>0.23359220344144993</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1.6294999999999999</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>0.2425651974988563</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1.641</v>
-      </c>
-      <c r="R12" s="6">
-        <f>Q12/U3-1</f>
-        <v>0.23746323806651071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.5123</v>
-      </c>
-      <c r="L13" s="6">
-        <f>K13/M3-1</f>
-        <v>0.15372291730241083</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.5193000000000001</v>
-      </c>
-      <c r="N13" s="6">
-        <f>M13/P3-1</f>
-        <v>0.15676869194457144</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.5106999999999999</v>
-      </c>
-      <c r="P13" s="6">
-        <f>O13/S3-1</f>
-        <v>0.15197498856184244</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1.5098</v>
-      </c>
-      <c r="R13" s="6">
-        <f>Q13/U3-1</f>
-        <v>0.13852650629665941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.5014000000000001</v>
-      </c>
-      <c r="L14" s="6">
-        <f>K14/M3-1</f>
-        <v>0.14540738480317361</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.4993000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>M14/P3-1</f>
-        <v>0.14154103852596323</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.502</v>
-      </c>
-      <c r="P14" s="6">
-        <f>O14/S3-1</f>
-        <v>0.14534085709928335</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1.4966999999999999</v>
-      </c>
-      <c r="R14" s="6">
-        <f>Q14/U3-1</f>
-        <v>0.12864791493854155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4744999999999999</v>
-      </c>
-      <c r="L15" s="6">
-        <f>K15/M3-1</f>
-        <v>0.12488556606652423</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.4734</v>
-      </c>
-      <c r="N15" s="6">
-        <f>M15/P3-1</f>
-        <v>0.12182122734886569</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.4752000000000001</v>
-      </c>
-      <c r="P15" s="6">
-        <f>O15/S3-1</f>
-        <v>0.12490468201921634</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.4653</v>
-      </c>
-      <c r="R15" s="6">
-        <f>Q15/U3-1</f>
-        <v>0.10496945931679358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.4461999999999999</v>
-      </c>
-      <c r="L16" s="6">
-        <f>K16/M3-1</f>
-        <v>0.10329569728410126</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4498</v>
-      </c>
-      <c r="N16" s="6">
-        <f>M16/P3-1</f>
-        <v>0.10385259631490795</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.4549000000000001</v>
-      </c>
-      <c r="P16" s="6">
-        <f>O16/S3-1</f>
-        <v>0.10942504193991165</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1.4409000000000001</v>
-      </c>
-      <c r="R16" s="6">
-        <f>Q16/U3-1</f>
-        <v>8.6569640298620021E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="L17" s="6">
-        <f>K17/M3-1</f>
-        <v>9.8565761367104043E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.4302999999999999</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17/P3-1</f>
-        <v>8.9005634231764885E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.427</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17/S3-1</f>
-        <v>8.8150068628946254E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1.4093</v>
-      </c>
-      <c r="R17" s="6">
-        <f>Q17/U3-1</f>
-        <v>6.2740366488198474E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="Q11:R11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10919,8 +12284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10952,25 +12317,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10988,25 +12353,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -11015,29 +12380,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -11051,25 +12416,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -11090,23 +12455,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -11126,23 +12491,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -11162,22 +12527,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11433,18 +12798,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -11458,6 +12811,18 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11467,10 +12832,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11502,25 +12867,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11538,120 +12903,164 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="11"/>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="14">
+        <v>2.8029999999999999</v>
+      </c>
       <c r="K3" s="22"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="5"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
+        <v>2.7955000000000001</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>2.7581000000000002</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
+        <v>2.7648000000000001</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="5">
+        <v>2.7808999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="12" t="e">
+      <c r="J4" s="3">
+        <v>2.8767</v>
+      </c>
+      <c r="K4" s="16">
         <f>J4/J3 -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="6" t="e">
+        <v>2.6293257224402566E-2</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
+        <v>2.8866999999999998</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
         <f>M4/M3 -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="6" t="e">
+        <v>3.2623859774637776E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2.8269000000000002</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6" t="e">
+        <v>2.4899999999999922E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2.9761000000000002</v>
+      </c>
+      <c r="T4" s="6">
         <f>ROUND(S4/S3,4) - 1</f>
-        <v>#DIV/0!</v>
+        <v>7.6400000000000023E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="12" t="e">
+      <c r="J5" s="3">
+        <v>2.8637000000000001</v>
+      </c>
+      <c r="K5" s="16">
         <f>ROUND(J5/J3,4) - 1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="6" t="e">
+        <v>2.1700000000000053E-2</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
+        <v>2.8633000000000002</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="6" t="e">
+        <v>2.4299999999999988E-2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2.8247</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="6" t="e">
+        <v>2.410000000000001E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.8349000000000002</v>
+      </c>
+      <c r="T5" s="6">
         <f>ROUND(S5/S3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>2.5400000000000089E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="12" t="e">
+      <c r="J6" s="3">
+        <v>3.0714999999999999</v>
+      </c>
+      <c r="K6" s="16">
         <f>ROUND(J6/J3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="6" t="e">
+        <v>9.5800000000000107E-2</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
+        <v>3.0190999999999999</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="6" t="e">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3.0356999999999998</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="6" t="e">
+        <v>0.10060000000000002</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3.0482</v>
+      </c>
+      <c r="T6" s="6">
         <f>ROUND(S6/S3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>0.10250000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -11661,22 +13070,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11685,213 +13094,217 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="6" t="e">
+      <c r="K12" s="23">
+        <v>2.8420319510080199</v>
+      </c>
+      <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="6" t="e">
+        <v>1.6645305314977543E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <v>2.8062537071387301</v>
+      </c>
+      <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="6" t="e">
+        <v>1.7459014226724801E-2</v>
+      </c>
+      <c r="O12" s="24">
+        <v>2.8192663056437199</v>
+      </c>
+      <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="6" t="e">
+        <v>1.9699908001924005E-2</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>2.8291463089610698</v>
+      </c>
+      <c r="R12" s="6">
         <f>ROUND(Q12/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>1.7300000000000093E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
-        <v>20</v>
+      <c r="I13" s="2">
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="6" t="e">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.8437000000000001</v>
+      </c>
+      <c r="L13" s="6">
         <f>(ROUND(K13/M3,4)-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="6" t="e">
+        <v>1.7200000000000104E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.8043</v>
+      </c>
+      <c r="N13" s="6">
         <f>ROUND(M13/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="6" t="e">
+        <v>1.6799999999999926E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2.8168000000000002</v>
+      </c>
+      <c r="P13" s="6">
         <f>ROUND(O13/S3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="6" t="e">
+        <v>1.8799999999999928E-2</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>2.8176000000000001</v>
+      </c>
+      <c r="R13" s="6">
         <f>ROUND(Q13/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>1.3200000000000101E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="6" t="e">
+        <v>52</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="L14" s="6">
         <f>(ROUND(K14/M3,4)-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="6" t="e">
+        <v>1.6299999999999981E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.7982999999999998</v>
+      </c>
+      <c r="N14" s="6">
         <f>ROUND(M14/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="6" t="e">
+        <v>1.4599999999999946E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2.8127</v>
+      </c>
+      <c r="P14" s="6">
         <f>ROUND(O14/S3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="6" t="e">
+        <v>1.7300000000000093E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2.8069000000000002</v>
+      </c>
+      <c r="R14" s="6">
         <f>ROUND(Q14/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>9.300000000000086E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="6" t="e">
+        <v>56</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.8460999999999999</v>
+      </c>
+      <c r="L15" s="6">
         <f>(ROUND(K15/M3,4)-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="6" t="e">
+        <v>1.8100000000000005E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.8069000000000002</v>
+      </c>
+      <c r="N15" s="6">
         <f>ROUND(M15/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="6" t="e">
+        <v>1.7700000000000049E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2.8191000000000002</v>
+      </c>
+      <c r="P15" s="6">
         <f>ROUND(O15/S3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="6" t="e">
+        <v>1.9600000000000062E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2.7993999999999999</v>
+      </c>
+      <c r="R15" s="6">
         <f>ROUND(Q15/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>6.6999999999999282E-3</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6" t="e">
+        <v>51</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.8509000000000002</v>
+      </c>
+      <c r="L16" s="6">
         <f>(ROUND(K16/M3,4)-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="6" t="e">
+        <v>1.980000000000004E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.8126000000000002</v>
+      </c>
+      <c r="N16" s="6">
         <f>ROUND(M16/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="6" t="e">
+        <v>1.980000000000004E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.8237000000000001</v>
+      </c>
+      <c r="P16" s="6">
         <f>ROUND(O16/S3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="6" t="e">
+        <v>2.1300000000000097E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2.7964000000000002</v>
+      </c>
+      <c r="R16" s="6">
         <f>ROUND(Q16/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>5.6000000000000494E-3</v>
       </c>
     </row>
     <row r="17" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="6" t="e">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.8574999999999999</v>
+      </c>
+      <c r="L17" s="6">
         <f>(ROUND(K17/M3,4)-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="6" t="e">
+        <v>2.2199999999999998E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.8235000000000001</v>
+      </c>
+      <c r="N17" s="6">
         <f>ROUND(M17/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="6" t="e">
+        <v>2.3700000000000054E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2.8304999999999998</v>
+      </c>
+      <c r="P17" s="6">
         <f>ROUND(O17/S3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="6" t="e">
+        <v>2.3800000000000043E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2.7953999999999999</v>
+      </c>
+      <c r="R17" s="6">
         <f>ROUND(Q17/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="6" t="e">
-        <f>(ROUND(K18/M3,4)-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="6" t="e">
-        <f>ROUND(M18/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="6" t="e">
-        <f>ROUND(O18/S3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="6" t="e">
-        <f>ROUND(Q18/U3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>5.2000000000000934E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -11902,6 +13315,528 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>4.0945</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
+        <v>4.0652999999999997</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11">
+        <v>4.0724999999999998</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="11">
+        <v>4.0468000000000002</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.2218999999999998</v>
+      </c>
+      <c r="K4" s="16">
+        <f>J4/J3 -1</f>
+        <v>3.11149102454511E-2</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="8">
+        <v>4.2366000000000001</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="6">
+        <f>M4/M3 -1</f>
+        <v>4.2137111652276626E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>4.4214000000000002</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4) - 1</f>
+        <v>8.5700000000000109E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>4.1654</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4) - 1</f>
+        <v>2.9300000000000104E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2058999999999997</v>
+      </c>
+      <c r="K5" s="16">
+        <f>ROUND(J5/J3,4) - 1</f>
+        <v>2.7199999999999891E-2</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="8">
+        <v>4.1795</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>2.8100000000000014E-2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4.1736000000000004</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>2.4799999999999933E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>4.1481000000000003</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.5576999999999996</v>
+      </c>
+      <c r="K6" s="16">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.11309999999999998</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="8">
+        <v>4.5782999999999996</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.12620000000000009</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4.5223000000000004</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.11040000000000005</v>
+      </c>
+      <c r="S6" s="3">
+        <v>4.4356999999999998</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>9.6100000000000074E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="23">
+        <v>4.1640212639723702</v>
+      </c>
+      <c r="L12" s="25">
+        <f>K12/M3-1</f>
+        <v>2.4283881625555503E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <v>4.16</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>2.1485573971761873E-2</v>
+      </c>
+      <c r="O12" s="24">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>2.5748739744983595E-2</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="R12" s="6" t="e">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4.1547000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(ROUND(K13/M3,4)-1)</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="N13" s="6">
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>1.8899999999999917E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4.1406999999999998</v>
+      </c>
+      <c r="P13" s="6">
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>2.3200000000000109E-2</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>4.1700999999999997</v>
+      </c>
+      <c r="R13" s="6" t="e">
+        <f>ROUND(Q13/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4.1452</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>1.9700000000000051E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4.1386000000000003</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>1.6199999999999992E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4.1300999999999997</v>
+      </c>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>2.0599999999999952E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4.1550000000000002</v>
+      </c>
+      <c r="R14" s="6" t="e">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.1351000000000004</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>1.7200000000000104E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4.1359000000000004</v>
+      </c>
+      <c r="N15" s="6">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>1.5600000000000058E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4.1207000000000003</v>
+      </c>
+      <c r="P15" s="6">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>1.8299999999999983E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4.1406999999999998</v>
+      </c>
+      <c r="R15" s="6" t="e">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4.1307</v>
+      </c>
+      <c r="L16" s="6">
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>1.6100000000000003E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="N16" s="6">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>1.5600000000000058E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4.1146000000000003</v>
+      </c>
+      <c r="P16" s="6">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>1.6799999999999926E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4.1325000000000003</v>
+      </c>
+      <c r="R16" s="6" t="e">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4.1334</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>1.6799999999999926E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4.1319999999999997</v>
+      </c>
+      <c r="N17" s="6">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>1.4599999999999946E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4.1131000000000002</v>
+      </c>
+      <c r="P17" s="6">
+        <f>ROUND(O17/S3,4)-1</f>
+        <v>1.639999999999997E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4.1276999999999999</v>
+      </c>
+      <c r="R17" s="6" t="e">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4803F76-544A-4A12-83FD-9044EBEB6ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C21FC8-4089-44DF-9E11-18FC153FBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
     <sheet name="GEANT_2048LP" sheetId="6" r:id="rId2"/>
     <sheet name="GEANT_1024LP" sheetId="3" r:id="rId3"/>
     <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId4"/>
-    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId5"/>
-    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId6"/>
-    <sheet name="GoodNet_Poisson_4096LP" sheetId="8" r:id="rId7"/>
+    <sheet name="ScaleFree30Nodes_bimodal" sheetId="10" r:id="rId5"/>
+    <sheet name="ScaleFree30Nodes_poisson_4096LP" sheetId="9" r:id="rId6"/>
+    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId7"/>
+    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId8"/>
+    <sheet name="GoodNet_Poisson_4096LP" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="64">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -224,6 +226,15 @@
   <si>
     <t>(7, 12, 15)  4.141</t>
   </si>
+  <si>
+    <t>(0,) 10.226</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3) 10.095</t>
+  </si>
+  <si>
+    <t>(0, 2)  10.1587</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +243,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -374,6 +385,15 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,15 +437,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3434,6 +3445,1417 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>ScaleFree30Nodes_bimodal!$L$12:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1435203654273094E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A121-4E43-9972-943FDAE59AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_bimodal!$N$12:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9253283645137342E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A121-4E43-9972-943FDAE59AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_bimodal!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9227158827851865E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A121-4E43-9972-943FDAE59AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_bimodal!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9975943535858409E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A121-4E43-9972-943FDAE59AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.28000000000000003"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_4096LP!$L$12:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6660896229919073E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3714706702242072E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2091911911114703E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3893911035004711E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF34-4928-BD87-6A83DE4C2B64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_4096LP!$N$12:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5533776367706151E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2414564990299812E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0564094911207143E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2533950156693017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF34-4928-BD87-6A83DE4C2B64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_4096LP!$P$12:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5837079667445417E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.286350487589095E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2933089455948075E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2694513752895329E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF34-4928-BD87-6A83DE4C2B64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_4096LP!$R$12:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF34-4928-BD87-6A83DE4C2B64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>GoodNet_Gravity_1024LP!$L$12:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
@@ -4028,7 +5450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4730,7 +6152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5712,6 +7134,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -8725,6 +10227,1010 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9649,6 +12155,190 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>105790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB59B883-2393-4063-B7AD-356837618CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105790" y="466725"/>
+          <a:ext cx="5631689" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1290638</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91AAE18-6E8B-4B1E-92C8-F84676F7C594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EBD4A1-2366-4674-8D95-A3AE1C5C4B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105790" y="466725"/>
+          <a:ext cx="5631689" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1290638</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE84B15-11AE-46A5-948B-55D05025C33C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -9735,7 +12425,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9828,7 +12518,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10255,25 +12945,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10291,25 +12981,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -10318,25 +13008,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -10348,23 +13038,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="19">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -10384,23 +13074,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="19">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -10420,23 +13110,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="19">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -10456,22 +13146,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -10798,25 +13488,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -10834,25 +13524,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
@@ -10861,25 +13551,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.7316</v>
       </c>
@@ -10891,23 +13581,23 @@
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="23">
         <f>ROUND(J4/J3,4)-1</f>
         <v>79.064800000000005</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="8">
+      <c r="L4" s="24"/>
+      <c r="M4" s="11">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -10927,23 +13617,23 @@
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="23">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.48760000000000003</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="8">
+      <c r="L5" s="24"/>
+      <c r="M5" s="11">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -10963,23 +13653,23 @@
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="23">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.49560000000000004</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
+      <c r="L6" s="24"/>
+      <c r="M6" s="11">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -10999,22 +13689,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11305,25 +13995,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11341,25 +14031,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -11368,25 +14058,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -11398,23 +14088,23 @@
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="23">
         <f>ROUND(J4/J3,4)-1</f>
         <v>79.064800000000005</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="8">
+      <c r="L4" s="24"/>
+      <c r="M4" s="11">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -11434,23 +14124,23 @@
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="23">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.48760000000000003</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="8">
+      <c r="L5" s="24"/>
+      <c r="M5" s="11">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -11470,23 +14160,23 @@
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="23">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.49560000000000004</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
+      <c r="L6" s="24"/>
+      <c r="M6" s="11">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -11506,22 +14196,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -11777,7 +14467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -11810,25 +14500,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -11846,25 +14536,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -11873,26 +14563,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -11905,23 +14595,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="19">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -11941,23 +14631,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="19">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
         <v>1.661</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -11977,23 +14667,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="19">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -12013,22 +14703,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -12281,10 +14971,925 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F3E50D-F092-4480-B485-169EBCEBDEEB}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>17.248000000000001</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>17.224</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>17.266400000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
+        <v>17.2973</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="5">
+        <v>17.283300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>21.1402</v>
+      </c>
+      <c r="K4" s="19">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
+        <v>22.0962</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="6">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>0.28289999999999993</v>
+      </c>
+      <c r="P4" s="11">
+        <v>22.458500000000001</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>0.30069999999999997</v>
+      </c>
+      <c r="S4" s="3">
+        <v>21.569500000000001</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>0.24700000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>19.1327</v>
+      </c>
+      <c r="K5" s="19">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>0.10929999999999995</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
+        <v>19.1875</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>0.1140000000000001</v>
+      </c>
+      <c r="P5" s="11">
+        <v>19.234200000000001</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>0.1140000000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>19.2117</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>0.11070000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>18.1602</v>
+      </c>
+      <c r="K6" s="19">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>5.2899999999999947E-2</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
+        <v>18.143999999999998</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>5.3399999999999892E-2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>18.154599999999999</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>5.139999999999989E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>18.107600000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>4.6799999999999953E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>17.593199947741201</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>2.1435203654273094E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>17.598834896730398</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>1.9253283645137342E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>17.629877934393001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>1.9227158827851865E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>17.628550224913301</v>
+      </c>
+      <c r="R12" s="6">
+        <f>Q12/U3-1</f>
+        <v>1.9975943535858409E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6">
+        <f>Q14/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="6">
+        <f>Q15/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="6">
+        <f>Q16/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6">
+        <f>K17/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6">
+        <f>M17/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6">
+        <f>Q17/U3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D3B83-5511-49BD-80A8-3E4AB5856159}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14">
+        <v>10.089700000000001</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
+        <v>10.0444</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
+        <v>10.051500000000001</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
+        <v>10.059699999999999</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>11.442</v>
+      </c>
+      <c r="K4" s="19">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>0.1339999999999999</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
+        <v>11.426399999999999</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="6">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>0.13759999999999994</v>
+      </c>
+      <c r="P4" s="11">
+        <v>11.635199999999999</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>0.15759999999999996</v>
+      </c>
+      <c r="S4" s="3">
+        <v>11.5159</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>0.14480000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10.723699999999999</v>
+      </c>
+      <c r="K5" s="19">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>6.2799999999999967E-2</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
+        <v>10.7044</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>6.5700000000000092E-2</v>
+      </c>
+      <c r="P5" s="11">
+        <v>10.697699999999999</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>6.4300000000000024E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>10.756600000000001</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>6.9299999999999917E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10.696899999999999</v>
+      </c>
+      <c r="K6" s="19">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>6.0200000000000031E-2</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
+        <v>10.711</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>6.6400000000000015E-2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>10.670500000000001</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>6.1600000000000099E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>10.707100000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>6.4400000000000013E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10.3121927060918</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>2.6660896229919073E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>10.30815275316</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>2.5533776367706151E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>10.319613270330599</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>2.5837079667445417E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>10.300217341759501</v>
+      </c>
+      <c r="R12" s="6" t="e">
+        <f>Q12/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10.2826</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>2.3714706702242072E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10.2768</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>2.2414564990299812E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>10.2897</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>2.286350487589095E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>10.2262</v>
+      </c>
+      <c r="R13" s="6" t="e">
+        <f>Q13/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10.266299999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f>K14/M3-1</f>
+        <v>2.2091911911114703E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10.2582</v>
+      </c>
+      <c r="N14" s="6">
+        <f>M14/P3-1</f>
+        <v>2.0564094911207143E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>10.2904</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/S3-1</f>
+        <v>2.2933089455948075E-2</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="6" t="e">
+        <f>Q14/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6">
+        <f>K15/M3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6">
+        <f>M15/P3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6">
+        <f>O15/S3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6" t="e">
+        <f>Q15/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10.2844</v>
+      </c>
+      <c r="L16" s="6">
+        <f>K16/M3-1</f>
+        <v>2.3893911035004711E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>10.278</v>
+      </c>
+      <c r="N16" s="6">
+        <f>M16/P3-1</f>
+        <v>2.2533950156693017E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>10.288</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/S3-1</f>
+        <v>2.2694513752895329E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>10.095000000000001</v>
+      </c>
+      <c r="R16" s="6" t="e">
+        <f>Q16/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -12317,25 +15922,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -12353,25 +15958,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -12380,29 +15985,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -12416,25 +16021,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="19">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -12455,23 +16060,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="19">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -12491,23 +16096,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="19">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -12527,22 +16132,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -12830,12 +16435,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12867,25 +16472,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -12903,54 +16508,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>2.8029999999999999</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11">
+      <c r="K3" s="25"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14">
         <v>2.7955000000000001</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>2.7581000000000002</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>2.7648000000000001</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5">
         <v>2.7808999999999999</v>
       </c>
@@ -12962,23 +16567,23 @@
       <c r="J4" s="3">
         <v>2.8767</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="19">
         <f>J4/J3 -1</f>
         <v>2.6293257224402566E-2</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
         <v>2.8866999999999998</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>3.2623859774637776E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <v>2.8269000000000002</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>2.4899999999999922E-2</v>
@@ -12998,23 +16603,23 @@
       <c r="J5" s="3">
         <v>2.8637000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="19">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.1700000000000053E-2</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
         <v>2.8633000000000002</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.4299999999999988E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>2.8247</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.410000000000001E-2</v>
@@ -13034,23 +16639,23 @@
       <c r="J6" s="3">
         <v>3.0714999999999999</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="19">
         <f>ROUND(J6/J3,4)-1</f>
         <v>9.5800000000000107E-2</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
         <v>3.0190999999999999</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>3.0356999999999998</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.10060000000000002</v>
@@ -13070,22 +16675,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -13094,28 +16699,28 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="8">
         <v>2.8420319510080199</v>
       </c>
       <c r="L12" s="6">
         <f>K12/M3-1</f>
         <v>1.6645305314977543E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="8">
         <v>2.8062537071387301</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
         <v>1.7459014226724801E-2</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="9">
         <v>2.8192663056437199</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
         <v>1.9699908001924005E-2</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="9">
         <v>2.8291463089610698</v>
       </c>
       <c r="R12" s="6">
@@ -13151,7 +16756,7 @@
         <f>ROUND(O13/S3,4)-1</f>
         <v>1.8799999999999928E-2</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="9">
         <v>2.8176000000000001</v>
       </c>
       <c r="R13" s="6">
@@ -13338,12 +16943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13375,25 +16980,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -13411,54 +17016,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>4.0945</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11">
+      <c r="K3" s="25"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14">
         <v>4.0652999999999997</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <v>4.0724999999999998</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>4.0468000000000002</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="16"/>
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -13468,23 +17073,23 @@
       <c r="J4" s="3">
         <v>4.2218999999999998</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="19">
         <f>J4/J3 -1</f>
         <v>3.11149102454511E-2</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8">
+      <c r="L4" s="20"/>
+      <c r="M4" s="11">
         <v>4.2366000000000001</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>4.2137111652276626E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <v>4.4214000000000002</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>8.5700000000000109E-2</v>
@@ -13504,23 +17109,23 @@
       <c r="J5" s="3">
         <v>4.2058999999999997</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="19">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.7199999999999891E-2</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="8">
+      <c r="L5" s="20"/>
+      <c r="M5" s="11">
         <v>4.1795</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.8100000000000014E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <v>4.1736000000000004</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.4799999999999933E-2</v>
@@ -13540,23 +17145,23 @@
       <c r="J6" s="3">
         <v>4.5576999999999996</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="19">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.11309999999999998</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8">
+      <c r="L6" s="20"/>
+      <c r="M6" s="11">
         <v>4.5782999999999996</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.12620000000000009</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>4.5223000000000004</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.11040000000000005</v>
@@ -13576,22 +17181,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -13600,28 +17205,28 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="8">
         <v>4.1640212639723702</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="10">
         <f>K12/M3-1</f>
         <v>2.4283881625555503E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="8">
         <v>4.16</v>
       </c>
       <c r="N12" s="6">
         <f>M12/P3-1</f>
         <v>2.1485573971761873E-2</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="9">
         <v>4.1509999999999998</v>
       </c>
       <c r="P12" s="6">
         <f>O12/S3-1</f>
         <v>2.5748739744983595E-2</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="9">
         <v>4.1879999999999997</v>
       </c>
       <c r="R12" s="6" t="e">
@@ -13657,7 +17262,7 @@
         <f>ROUND(O13/S3,4)-1</f>
         <v>2.3200000000000109E-2</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="9">
         <v>4.1700999999999997</v>
       </c>
       <c r="R13" s="6" t="e">

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C21FC8-4089-44DF-9E11-18FC153FBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06CAF5-AFBE-40A4-9E3E-06CA599EB684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="ScaleFree30Nodes_poisson_4096LP" sheetId="9" r:id="rId6"/>
     <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId7"/>
     <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId8"/>
-    <sheet name="GoodNet_Poisson_4096LP" sheetId="8" r:id="rId9"/>
+    <sheet name="GoodNet_poisson_0.2_4096LP" sheetId="8" r:id="rId9"/>
+    <sheet name="GoodNet_poisson_0.1_4096LP" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="72">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -235,6 +236,30 @@
   <si>
     <t>(0, 2)  10.1587</t>
   </si>
+  <si>
+    <t>(0, 2, 3) 10.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poisson Traffic, 1024 TMs, 10% sparsity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poisson Traffic, 4096 TMs, 10% sparsity</t>
+  </si>
+  <si>
+    <t>(5, 7, 9, 12, 15) 2.67403</t>
+  </si>
+  <si>
+    <t>(12,) 2.72908</t>
+  </si>
+  <si>
+    <t>(7, 9, 12, 15) 2.68188</t>
+  </si>
+  <si>
+    <t>(7, 9) 2.71082</t>
+  </si>
+  <si>
+    <t>(7, 9, 12) 2.69447</t>
+  </si>
 </sst>
 </file>
 
@@ -395,12 +420,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,17 +452,8 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,6 +1089,708 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$L$12:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.000%">
+                  <c:v>4.759356463720521E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2399999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0100000000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4200000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9500000000000082E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7900000000000036E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0481-4ED1-A955-AA85084CACEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$N$12:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2954915003883931E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9800000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4200000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0999999999999917E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8699999999999948E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7099999999999902E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0481-4ED1-A955-AA85084CACEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7097573838258411E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3800000000000061E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7800000000000056E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7800000000000047E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6446594574084603E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0481-4ED1-A955-AA85084CACEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.1_4096LP!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0481-4ED1-A955-AA85084CACEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4171,7 +4898,7 @@
                   <c:v>2.2091911911114703E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>2.3017800963721191E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.3893911035004711E-2</c:v>
@@ -4255,7 +4982,7 @@
                   <c:v>2.0564094911207143E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>2.1151071979306435E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2533950156693017E-2</c:v>
@@ -4339,7 +5066,7 @@
                   <c:v>2.2933089455948075E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>2.414584927979968E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2694513752895329E-2</c:v>
@@ -6253,7 +6980,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_Poisson_4096LP!$I$12:$I$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6279,27 +7006,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Poisson_4096LP!$L$12:$L$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0.000%">
-                  <c:v>2.4283881625555503E-2</c:v>
+                  <c:v>2.2056625694392373E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.200000000000002E-2</c:v>
+                  <c:v>1.760000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9700000000000051E-2</c:v>
+                  <c:v>1.5500000000000069E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7200000000000104E-2</c:v>
+                  <c:v>1.3400000000000079E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6100000000000003E-2</c:v>
+                  <c:v>1.309999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6799999999999926E-2</c:v>
+                  <c:v>1.2899999999999912E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6337,7 +7064,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_Poisson_4096LP!$I$12:$I$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6363,7 +7090,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Poisson_4096LP!$N$12:$N$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6421,7 +7148,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>GoodNet_Poisson_4096LP!$I$12:$I$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6447,7 +7174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Poisson_4096LP!$P$12:$P$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6505,7 +7232,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GoodNet_Poisson_4096LP!$R$12:$R$17</c:f>
+              <c:f>GoodNet_poisson_0.2_4096LP!$R$12:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6894,6 +7621,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7716,6 +8483,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -11869,6 +13138,99 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F5CCC2-DE20-4717-A0B5-3FF7FAD2A3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="466725"/>
+          <a:ext cx="5633720" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1366837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3613AC-1EFF-4CCE-A7F2-0E28BE827635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12945,25 +14307,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -12981,25 +14343,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -13008,25 +14370,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -13038,23 +14400,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -13074,23 +14436,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -13110,23 +14472,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -13146,22 +14508,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -13417,6 +14779,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -13427,6 +14804,485 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00505A8E-CEBC-46D8-B865-3F68B9FEA27F}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="20">
+        <v>2.6265999999999998</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="17">
+        <v>2.63</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
+        <v>2.6288999999999998</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
+        <v>2.6355</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="K4" s="15">
+        <f>J4/J3 -1</f>
+        <v>4.507728622553886E-2</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
+        <v>2.7387000000000001</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="6">
+        <f>M4/M3 -1</f>
+        <v>4.1330798479087605E-2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2.7199</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4) - 1</f>
+        <v>3.4599999999999964E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2.7505999999999999</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4) - 1</f>
+        <v>4.3700000000000072E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.6985000000000001</v>
+      </c>
+      <c r="K5" s="15">
+        <f>ROUND(J5/J3,4) - 1</f>
+        <v>2.7400000000000091E-2</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
+        <v>2.7019000000000002</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>2.7300000000000102E-2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>2.6999999999999913E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.6987999999999999</v>
+      </c>
+      <c r="T5" s="6">
+        <f>S5/S3-1</f>
+        <v>2.4018212862834343E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.1152000000000002</v>
+      </c>
+      <c r="K6" s="15">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
+        <v>3.0914999999999999</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3.1057000000000001</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3.0897000000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.1722999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.7551710749958498</v>
+      </c>
+      <c r="L12" s="10">
+        <f>K12/M3-1</f>
+        <v>4.759356463720521E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2.7418241760537101</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>4.2954915003883931E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2.7596256558507299</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>4.7097573838258411E-2</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="6" t="e">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.7416</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(ROUND(K13/M3,4)-1)</f>
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.7336</v>
+      </c>
+      <c r="N13" s="6">
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>3.9800000000000058E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2.7509000000000001</v>
+      </c>
+      <c r="P13" s="6">
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>4.3800000000000061E-2</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="6" t="e">
+        <f>ROUND(Q13/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.7355</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>4.0100000000000025E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.7187000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>3.4200000000000008E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2.7351000000000001</v>
+      </c>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>3.7800000000000056E-2</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6" t="e">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>3.4200000000000008E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.7103999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>3.0999999999999917E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2.7206999999999999</v>
+      </c>
+      <c r="P15" s="6">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>3.2299999999999995E-2</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6" t="e">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.7077</v>
+      </c>
+      <c r="L16" s="6">
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>2.9500000000000082E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.7042999999999999</v>
+      </c>
+      <c r="N16" s="6">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>2.8699999999999948E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.7086999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>2.7800000000000047E-2</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="6" t="e">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.7035</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>2.7900000000000036E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.7002000000000002</v>
+      </c>
+      <c r="N17" s="6">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>2.7099999999999902E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2.7052</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/S3-1</f>
+        <v>2.6446594574084603E-2</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6" t="e">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
@@ -13488,25 +15344,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -13524,25 +15380,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
@@ -13551,25 +15407,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="5">
         <v>1.7316</v>
       </c>
@@ -13586,18 +15442,18 @@
         <v>79.064800000000005</v>
       </c>
       <c r="L4" s="24"/>
-      <c r="M4" s="11">
+      <c r="M4" s="13">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -13622,18 +15478,18 @@
         <v>0.48760000000000003</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="11">
+      <c r="M5" s="13">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -13658,18 +15514,18 @@
         <v>0.49560000000000004</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="11">
+      <c r="M6" s="13">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -13689,22 +15545,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -13924,21 +15780,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -13949,6 +15790,21 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13995,25 +15851,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -14031,25 +15887,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -14058,25 +15914,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -14093,18 +15949,18 @@
         <v>79.064800000000005</v>
       </c>
       <c r="L4" s="24"/>
-      <c r="M4" s="11">
+      <c r="M4" s="13">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -14129,18 +15985,18 @@
         <v>0.48760000000000003</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="11">
+      <c r="M5" s="13">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -14165,18 +16021,18 @@
         <v>0.49560000000000004</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="11">
+      <c r="M6" s="13">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -14196,22 +16052,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -14431,21 +16287,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -14456,6 +16297,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14500,25 +16356,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -14536,25 +16392,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -14563,26 +16419,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -14595,23 +16451,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -14631,23 +16487,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
         <v>1.661</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -14667,23 +16523,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -14703,22 +16559,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -14938,6 +16794,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -14948,21 +16819,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15007,25 +16863,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -15043,25 +16899,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="3" t="s">
         <v>50</v>
       </c>
@@ -15070,25 +16926,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>17.248000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <v>17.224</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>17.266400000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
         <v>17.2973</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="5">
         <v>17.283300000000001</v>
       </c>
@@ -15100,23 +16956,23 @@
       <c r="J4" s="3">
         <v>21.1402</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.22570000000000001</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
         <v>22.0962</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.28289999999999993</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>22.458500000000001</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.30069999999999997</v>
@@ -15136,23 +16992,23 @@
       <c r="J5" s="3">
         <v>19.1327</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.10929999999999995</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
         <v>19.1875</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.1140000000000001</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>19.234200000000001</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.1140000000000001</v>
@@ -15172,23 +17028,23 @@
       <c r="J6" s="3">
         <v>18.1602</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>5.2899999999999947E-2</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
         <v>18.143999999999998</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>5.3399999999999892E-2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>18.154599999999999</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>5.139999999999989E-2</v>
@@ -15208,22 +17064,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -15395,6 +17251,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -15405,21 +17276,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15431,8 +17287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D3B83-5511-49BD-80A8-3E4AB5856159}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15464,25 +17320,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -15500,54 +17356,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="11" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <v>10.089700000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <v>10.0444</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>10.051500000000001</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
         <v>10.059699999999999</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -15557,23 +17413,23 @@
       <c r="J4" s="3">
         <v>11.442</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.1339999999999999</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
         <v>11.426399999999999</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.13759999999999994</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>11.635199999999999</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.15759999999999996</v>
@@ -15593,23 +17449,23 @@
       <c r="J5" s="3">
         <v>10.723699999999999</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4)-1</f>
         <v>6.2799999999999967E-2</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
         <v>10.7044</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>6.5700000000000092E-2</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>10.697699999999999</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>6.4300000000000024E-2</v>
@@ -15629,23 +17485,23 @@
       <c r="J6" s="3">
         <v>10.696899999999999</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>6.0200000000000031E-2</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
         <v>10.711</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>6.6400000000000015E-2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>10.670500000000001</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>6.1600000000000099E-2</v>
@@ -15665,22 +17521,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -15782,7 +17638,9 @@
         <f>O14/S3-1</f>
         <v>2.2933089455948075E-2</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>10.1587</v>
+      </c>
       <c r="R14" s="6" t="e">
         <f>Q14/U3-1</f>
         <v>#DIV/0!</v>
@@ -15792,23 +17650,33 @@
       <c r="I15" s="2">
         <v>3</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="2">
+        <v>10.275600000000001</v>
+      </c>
       <c r="L15" s="6">
         <f>K15/M3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>2.3017800963721191E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10.264099999999999</v>
+      </c>
       <c r="N15" s="6">
         <f>M15/P3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>2.1151071979306435E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>10.3026</v>
+      </c>
       <c r="P15" s="6">
         <f>O15/S3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="3"/>
+        <v>2.414584927979968E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>10.114100000000001</v>
+      </c>
       <c r="R15" s="6" t="e">
         <f>Q15/U3-1</f>
         <v>#DIV/0!</v>
@@ -15852,16 +17720,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -15878,6 +17736,16 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15922,25 +17790,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -15958,25 +17826,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -15985,29 +17853,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="17">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -16021,25 +17889,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -16060,23 +17928,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -16096,23 +17964,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -16132,22 +18000,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -16403,6 +18271,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O11:P11"/>
@@ -16416,18 +18296,6 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16439,7 +18307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
@@ -16472,25 +18340,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -16508,54 +18376,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="11" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="20">
         <v>2.8029999999999999</v>
       </c>
       <c r="K3" s="25"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="14">
+      <c r="L3" s="21"/>
+      <c r="M3" s="17">
         <v>2.7955000000000001</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>2.7581000000000002</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
         <v>2.7648000000000001</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="5">
         <v>2.7808999999999999</v>
       </c>
@@ -16567,23 +18435,23 @@
       <c r="J4" s="3">
         <v>2.8767</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>J4/J3 -1</f>
         <v>2.6293257224402566E-2</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
         <v>2.8866999999999998</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>3.2623859774637776E-2</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>2.8269000000000002</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>2.4899999999999922E-2</v>
@@ -16603,23 +18471,23 @@
       <c r="J5" s="3">
         <v>2.8637000000000001</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.1700000000000053E-2</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
         <v>2.8633000000000002</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.4299999999999988E-2</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <v>2.8247</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.410000000000001E-2</v>
@@ -16639,23 +18507,23 @@
       <c r="J6" s="3">
         <v>3.0714999999999999</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>9.5800000000000107E-2</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
         <v>3.0190999999999999</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="13">
         <v>3.0356999999999998</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.10060000000000002</v>
@@ -16675,22 +18543,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -16910,6 +18778,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -16920,22 +18804,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16947,8 +18815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16980,25 +18848,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -17016,54 +18884,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="11" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="20">
         <v>4.0945</v>
       </c>
       <c r="K3" s="25"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="14">
-        <v>4.0652999999999997</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14">
+      <c r="L3" s="21"/>
+      <c r="M3" s="17">
+        <v>4.0998000000000001</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
         <v>4.0724999999999998</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
         <v>4.0468000000000002</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -17073,23 +18941,23 @@
       <c r="J4" s="3">
         <v>4.2218999999999998</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>J4/J3 -1</f>
         <v>3.11149102454511E-2</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11">
-        <v>4.2366000000000001</v>
-      </c>
-      <c r="N4" s="13"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
+        <v>4.2432999999999996</v>
+      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
-        <v>4.2137111652276626E-2</v>
-      </c>
-      <c r="P4" s="11">
+        <v>3.5001707400360793E-2</v>
+      </c>
+      <c r="P4" s="13">
         <v>4.4214000000000002</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>8.5700000000000109E-2</v>
@@ -17107,25 +18975,25 @@
         <v>11</v>
       </c>
       <c r="J5" s="3">
-        <v>4.2058999999999997</v>
-      </c>
-      <c r="K5" s="19">
+        <v>4.2055999999999996</v>
+      </c>
+      <c r="K5" s="15">
         <f>ROUND(J5/J3,4) - 1</f>
-        <v>2.7199999999999891E-2</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11">
-        <v>4.1795</v>
-      </c>
-      <c r="N5" s="13"/>
+        <v>2.7099999999999902E-2</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="N5" s="14"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
-        <v>2.8100000000000014E-2</v>
-      </c>
-      <c r="P5" s="11">
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="P5" s="13">
         <v>4.1736000000000004</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.4799999999999933E-2</v>
@@ -17145,23 +19013,23 @@
       <c r="J6" s="3">
         <v>4.5576999999999996</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.11309999999999998</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="11">
-        <v>4.5782999999999996</v>
-      </c>
-      <c r="N6" s="13"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
+        <v>4.5738000000000003</v>
+      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>0.12620000000000009</v>
-      </c>
-      <c r="P6" s="11">
+        <v>0.11559999999999993</v>
+      </c>
+      <c r="P6" s="13">
         <v>4.5223000000000004</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.11040000000000005</v>
@@ -17181,22 +19049,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="11" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -17206,11 +19074,11 @@
         <v>15</v>
       </c>
       <c r="K12" s="8">
-        <v>4.1640212639723702</v>
+        <v>4.19022775402187</v>
       </c>
       <c r="L12" s="10">
         <f>K12/M3-1</f>
-        <v>2.4283881625555503E-2</v>
+        <v>2.2056625694392373E-2</v>
       </c>
       <c r="M12" s="8">
         <v>4.16</v>
@@ -17242,11 +19110,11 @@
         <v>57</v>
       </c>
       <c r="K13" s="2">
-        <v>4.1547000000000001</v>
+        <v>4.1718000000000002</v>
       </c>
       <c r="L13" s="6">
         <f>(ROUND(K13/M3,4)-1)</f>
-        <v>2.200000000000002E-2</v>
+        <v>1.760000000000006E-2</v>
       </c>
       <c r="M13" s="2">
         <v>4.1496000000000004</v>
@@ -17278,11 +19146,11 @@
         <v>59</v>
       </c>
       <c r="K14" s="2">
-        <v>4.1452</v>
+        <v>4.1632999999999996</v>
       </c>
       <c r="L14" s="6">
         <f>(ROUND(K14/M3,4)-1)</f>
-        <v>1.9700000000000051E-2</v>
+        <v>1.5500000000000069E-2</v>
       </c>
       <c r="M14" s="2">
         <v>4.1386000000000003</v>
@@ -17314,11 +19182,11 @@
         <v>60</v>
       </c>
       <c r="K15" s="2">
-        <v>4.1351000000000004</v>
+        <v>4.1548999999999996</v>
       </c>
       <c r="L15" s="6">
         <f>(ROUND(K15/M3,4)-1)</f>
-        <v>1.7200000000000104E-2</v>
+        <v>1.3400000000000079E-2</v>
       </c>
       <c r="M15" s="2">
         <v>4.1359000000000004</v>
@@ -17350,11 +19218,11 @@
         <v>58</v>
       </c>
       <c r="K16" s="2">
-        <v>4.1307</v>
+        <v>4.1536999999999997</v>
       </c>
       <c r="L16" s="6">
         <f>(ROUND(K16/M3,4)-1)</f>
-        <v>1.6100000000000003E-2</v>
+        <v>1.309999999999989E-2</v>
       </c>
       <c r="M16" s="2">
         <v>4.1360000000000001</v>
@@ -17386,11 +19254,11 @@
         <v>55</v>
       </c>
       <c r="K17" s="2">
-        <v>4.1334</v>
+        <v>4.1525999999999996</v>
       </c>
       <c r="L17" s="6">
         <f>(ROUND(K17/M3,4)-1)</f>
-        <v>1.6799999999999926E-2</v>
+        <v>1.2899999999999912E-2</v>
       </c>
       <c r="M17" s="2">
         <v>4.1319999999999997</v>
@@ -17416,6 +19284,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -17426,22 +19310,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06CAF5-AFBE-40A4-9E3E-06CA599EB684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195AC537-6411-4262-8567-B1FACDE29354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="GEANT_1024LP" sheetId="3" r:id="rId3"/>
     <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId4"/>
     <sheet name="ScaleFree30Nodes_bimodal" sheetId="10" r:id="rId5"/>
-    <sheet name="ScaleFree30Nodes_poisson_4096LP" sheetId="9" r:id="rId6"/>
-    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId7"/>
-    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId8"/>
-    <sheet name="GoodNet_poisson_0.2_4096LP" sheetId="8" r:id="rId9"/>
-    <sheet name="GoodNet_poisson_0.1_4096LP" sheetId="13" r:id="rId10"/>
+    <sheet name="ScaleFree30Nodes_poisson_0.2sp" sheetId="9" r:id="rId6"/>
+    <sheet name="ScaleFree30Nodes_poisson_0.1sp" sheetId="14" r:id="rId7"/>
+    <sheet name="GoodNet_Gravity_1024LP" sheetId="1" r:id="rId8"/>
+    <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId9"/>
+    <sheet name="GoodNet_poisson_0.2_4096LP" sheetId="8" r:id="rId10"/>
+    <sheet name="GoodNet_poisson_0.1_4096LP" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -1307,6 +1308,708 @@
           </c:marker>
           <c:cat>
             <c:strRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$L$12:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.000%">
+                  <c:v>2.2056625694392373E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.760000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5500000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3400000000000079E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.309999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2899999999999912E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$N$12:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1485573971761873E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8899999999999917E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6199999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5600000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5600000000000058E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4599999999999946E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$P$12:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5748739744983595E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3200000000000109E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0599999999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8299999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6799999999999926E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.639999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_poisson_0.2_4096LP!$R$12:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D932-4423-A7C0-FEB540F34419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
               <c:f>GoodNet_poisson_0.1_4096LP!$I$12:$I$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -4884,7 +5587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_poisson_4096LP!$L$12:$L$16</c:f>
+              <c:f>ScaleFree30Nodes_poisson_0.2sp!$L$12:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4968,7 +5671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_poisson_4096LP!$N$12:$N$16</c:f>
+              <c:f>ScaleFree30Nodes_poisson_0.2sp!$N$12:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5052,7 +5755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_poisson_4096LP!$P$12:$P$16</c:f>
+              <c:f>ScaleFree30Nodes_poisson_0.2sp!$P$12:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5107,7 +5810,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_poisson_4096LP!$R$12:$R$16</c:f>
+              <c:f>ScaleFree30Nodes_poisson_0.2sp!$R$12:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5583,6 +6286,705 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_0.1sp!$L$12:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BBD-4A68-99FB-E3AEADDA5242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_0.1sp!$N$12:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BBD-4A68-99FB-E3AEADDA5242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_0.1sp!$P$12:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BBD-4A68-99FB-E3AEADDA5242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ScaleFree30Nodes_poisson_0.1sp!$R$12:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5BBD-4A68-99FB-E3AEADDA5242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_Gravity_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>GoodNet_Gravity_1024LP!$L$12:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
@@ -6177,7 +7579,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6879,708 +8281,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Expected Congestion Vs. Optimal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Test Set 0</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$L$12:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.000%">
-                  <c:v>2.2056625694392373E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.760000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5500000000000069E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3400000000000079E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.309999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2899999999999912E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D932-4423-A7C0-FEB540F34419}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Test Set 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$N$12:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.1485573971761873E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8899999999999917E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6199999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5600000000000058E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5600000000000058E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4599999999999946E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D932-4423-A7C0-FEB540F34419}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Test Set 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$I$12:$I$17</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$P$12:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.5748739744983595E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3200000000000109E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0599999999999952E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8299999999999983E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6799999999999926E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.639999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D932-4423-A7C0-FEB540F34419}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>LP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>GoodNet_poisson_0.2_4096LP!$R$12:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D932-4423-A7C0-FEB540F34419}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2054782576"/>
-        <c:axId val="2054783824"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2054782576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of ubs as Smart Node</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2054783824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2054783824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ratio</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2054782576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7622,6 +8322,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8985,6 +9725,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -13144,6 +14386,99 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31439112-BF4F-4F6A-886F-52EEF958DBE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="466725"/>
+          <a:ext cx="5633720" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1366837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A7F59A-9E1A-4B95-A8F4-C864C952DEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13701,6 +15036,98 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>105790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20AE2D8-143E-4E08-82E2-F1285321924E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105790" y="466725"/>
+          <a:ext cx="5631689" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1290638</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684F769A-12CD-4A80-9FD0-FE085952C65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -13787,7 +15214,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13858,99 +15285,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FD5FD8-5E25-42BF-A5A7-B66D08A24745}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>271145</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31439112-BF4F-4F6A-886F-52EEF958DBE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="466725"/>
-          <a:ext cx="5633720" cy="4520565"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1366837</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A7F59A-9E1A-4B95-A8F4-C864C952DEA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14812,10 +16146,516 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="20">
+        <v>4.0945</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="17">
+        <v>4.0998000000000001</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17">
+        <v>4.0724999999999998</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17">
+        <v>4.0468000000000002</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.2218999999999998</v>
+      </c>
+      <c r="K4" s="15">
+        <f>J4/J3 -1</f>
+        <v>3.11149102454511E-2</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13">
+        <v>4.2432999999999996</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="6">
+        <f>M4/M3 -1</f>
+        <v>3.5001707400360793E-2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>4.4214000000000002</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4) - 1</f>
+        <v>8.5700000000000109E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>4.1654</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4) - 1</f>
+        <v>2.9300000000000104E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2055999999999996</v>
+      </c>
+      <c r="K5" s="15">
+        <f>ROUND(J5/J3,4) - 1</f>
+        <v>2.7099999999999902E-2</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="13">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>4.1736000000000004</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>2.4799999999999933E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>4.1481000000000003</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.5576999999999996</v>
+      </c>
+      <c r="K6" s="15">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.11309999999999998</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13">
+        <v>4.5738000000000003</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.11559999999999993</v>
+      </c>
+      <c r="P6" s="13">
+        <v>4.5223000000000004</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.11040000000000005</v>
+      </c>
+      <c r="S6" s="3">
+        <v>4.4356999999999998</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>9.6100000000000074E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4.19022775402187</v>
+      </c>
+      <c r="L12" s="10">
+        <f>K12/M3-1</f>
+        <v>2.2056625694392373E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>2.1485573971761873E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>2.5748739744983595E-2</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="R12" s="6" t="e">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4.1718000000000002</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(ROUND(K13/M3,4)-1)</f>
+        <v>1.760000000000006E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4.1496000000000004</v>
+      </c>
+      <c r="N13" s="6">
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>1.8899999999999917E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4.1406999999999998</v>
+      </c>
+      <c r="P13" s="6">
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>2.3200000000000109E-2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>4.1700999999999997</v>
+      </c>
+      <c r="R13" s="6" t="e">
+        <f>ROUND(Q13/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4.1632999999999996</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>1.5500000000000069E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4.1386000000000003</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>1.6199999999999992E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4.1300999999999997</v>
+      </c>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>2.0599999999999952E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4.1550000000000002</v>
+      </c>
+      <c r="R14" s="6" t="e">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.1548999999999996</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>1.3400000000000079E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4.1359000000000004</v>
+      </c>
+      <c r="N15" s="6">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>1.5600000000000058E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4.1207000000000003</v>
+      </c>
+      <c r="P15" s="6">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>1.8299999999999983E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4.1406999999999998</v>
+      </c>
+      <c r="R15" s="6" t="e">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4.1536999999999997</v>
+      </c>
+      <c r="L16" s="6">
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>1.309999999999989E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="N16" s="6">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>1.5600000000000058E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4.1146000000000003</v>
+      </c>
+      <c r="P16" s="6">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>1.6799999999999926E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4.1325000000000003</v>
+      </c>
+      <c r="R16" s="6" t="e">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4.1525999999999996</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>1.2899999999999912E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4.1319999999999997</v>
+      </c>
+      <c r="N17" s="6">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>1.4599999999999946E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4.1131000000000002</v>
+      </c>
+      <c r="P17" s="6">
+        <f>ROUND(O17/S3,4)-1</f>
+        <v>1.639999999999997E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4.1276999999999999</v>
+      </c>
+      <c r="R17" s="6" t="e">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00505A8E-CEBC-46D8-B865-3F68B9FEA27F}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -17754,6 +19594,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD6F93-EF1A-4225-A073-573968BAED77}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="15" t="e">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="6" t="e">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="6" t="e">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="6" t="e">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="15" t="e">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="6" t="e">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="6" t="e">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="6" t="e">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="15" t="e">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="6" t="e">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="6" t="e">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="6" t="e">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6" t="e">
+        <f>K12/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="6" t="e">
+        <f>M12/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="6" t="e">
+        <f>O12/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6" t="e">
+        <f>Q12/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6" t="e">
+        <f>K13/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="6" t="e">
+        <f>M13/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6" t="e">
+        <f>O13/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6" t="e">
+        <f>Q13/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6" t="e">
+        <f>K14/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6" t="e">
+        <f>M14/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="6" t="e">
+        <f>O14/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="6" t="e">
+        <f>Q14/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6" t="e">
+        <f>K15/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6" t="e">
+        <f>M15/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6" t="e">
+        <f>O15/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6" t="e">
+        <f>Q15/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6" t="e">
+        <f>K16/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6" t="e">
+        <f>M16/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6" t="e">
+        <f>O16/S3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="6" t="e">
+        <f>Q16/U3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
@@ -18303,7 +20533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6299634-8B2C-428F-A684-78135E5BFAA9}">
   <dimension ref="A1:W17"/>
   <sheetViews>
@@ -18809,510 +21039,4 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
-  <dimension ref="A1:W17"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="14"/>
-    </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="20">
-        <v>4.0945</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="17">
-        <v>4.0998000000000001</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
-        <v>4.0724999999999998</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
-        <v>4.0468000000000002</v>
-      </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4.2218999999999998</v>
-      </c>
-      <c r="K4" s="15">
-        <f>J4/J3 -1</f>
-        <v>3.11149102454511E-2</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
-        <v>4.2432999999999996</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="6">
-        <f>M4/M3 -1</f>
-        <v>3.5001707400360793E-2</v>
-      </c>
-      <c r="P4" s="13">
-        <v>4.4214000000000002</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4) - 1</f>
-        <v>8.5700000000000109E-2</v>
-      </c>
-      <c r="S4" s="3">
-        <v>4.1654</v>
-      </c>
-      <c r="T4" s="6">
-        <f>ROUND(S4/S3,4) - 1</f>
-        <v>2.9300000000000104E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4.2055999999999996</v>
-      </c>
-      <c r="K5" s="15">
-        <f>ROUND(J5/J3,4) - 1</f>
-        <v>2.7099999999999902E-2</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="6">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>2.200000000000002E-2</v>
-      </c>
-      <c r="P5" s="13">
-        <v>4.1736000000000004</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>2.4799999999999933E-2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>4.1481000000000003</v>
-      </c>
-      <c r="T5" s="6">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>2.4999999999999911E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4.5576999999999996</v>
-      </c>
-      <c r="K6" s="15">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.11309999999999998</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
-        <v>4.5738000000000003</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="6">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.11559999999999993</v>
-      </c>
-      <c r="P6" s="13">
-        <v>4.5223000000000004</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.11040000000000005</v>
-      </c>
-      <c r="S6" s="3">
-        <v>4.4356999999999998</v>
-      </c>
-      <c r="T6" s="6">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>9.6100000000000074E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="8">
-        <v>4.19022775402187</v>
-      </c>
-      <c r="L12" s="10">
-        <f>K12/M3-1</f>
-        <v>2.2056625694392373E-2</v>
-      </c>
-      <c r="M12" s="8">
-        <v>4.16</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>2.1485573971761873E-2</v>
-      </c>
-      <c r="O12" s="9">
-        <v>4.1509999999999998</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>2.5748739744983595E-2</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>4.1879999999999997</v>
-      </c>
-      <c r="R12" s="6" t="e">
-        <f>ROUND(Q12/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="2">
-        <v>4.1718000000000002</v>
-      </c>
-      <c r="L13" s="6">
-        <f>(ROUND(K13/M3,4)-1)</f>
-        <v>1.760000000000006E-2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>4.1496000000000004</v>
-      </c>
-      <c r="N13" s="6">
-        <f>ROUND(M13/P3,4)-1</f>
-        <v>1.8899999999999917E-2</v>
-      </c>
-      <c r="O13" s="3">
-        <v>4.1406999999999998</v>
-      </c>
-      <c r="P13" s="6">
-        <f>ROUND(O13/S3,4)-1</f>
-        <v>2.3200000000000109E-2</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>4.1700999999999997</v>
-      </c>
-      <c r="R13" s="6" t="e">
-        <f>ROUND(Q13/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="2">
-        <v>4.1632999999999996</v>
-      </c>
-      <c r="L14" s="6">
-        <f>(ROUND(K14/M3,4)-1)</f>
-        <v>1.5500000000000069E-2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>4.1386000000000003</v>
-      </c>
-      <c r="N14" s="6">
-        <f>ROUND(M14/P3,4)-1</f>
-        <v>1.6199999999999992E-2</v>
-      </c>
-      <c r="O14" s="3">
-        <v>4.1300999999999997</v>
-      </c>
-      <c r="P14" s="6">
-        <f>ROUND(O14/S3,4)-1</f>
-        <v>2.0599999999999952E-2</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>4.1550000000000002</v>
-      </c>
-      <c r="R14" s="6" t="e">
-        <f>ROUND(Q14/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="2">
-        <v>4.1548999999999996</v>
-      </c>
-      <c r="L15" s="6">
-        <f>(ROUND(K15/M3,4)-1)</f>
-        <v>1.3400000000000079E-2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>4.1359000000000004</v>
-      </c>
-      <c r="N15" s="6">
-        <f>ROUND(M15/P3,4)-1</f>
-        <v>1.5600000000000058E-2</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4.1207000000000003</v>
-      </c>
-      <c r="P15" s="6">
-        <f>ROUND(O15/S3,4)-1</f>
-        <v>1.8299999999999983E-2</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4.1406999999999998</v>
-      </c>
-      <c r="R15" s="6" t="e">
-        <f>ROUND(Q15/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="2">
-        <v>4.1536999999999997</v>
-      </c>
-      <c r="L16" s="6">
-        <f>(ROUND(K16/M3,4)-1)</f>
-        <v>1.309999999999989E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="N16" s="6">
-        <f>ROUND(M16/P3,4)-1</f>
-        <v>1.5600000000000058E-2</v>
-      </c>
-      <c r="O16" s="3">
-        <v>4.1146000000000003</v>
-      </c>
-      <c r="P16" s="6">
-        <f>ROUND(O16/S3,4)-1</f>
-        <v>1.6799999999999926E-2</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>4.1325000000000003</v>
-      </c>
-      <c r="R16" s="6" t="e">
-        <f>ROUND(Q16/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4.1525999999999996</v>
-      </c>
-      <c r="L17" s="6">
-        <f>(ROUND(K17/M3,4)-1)</f>
-        <v>1.2899999999999912E-2</v>
-      </c>
-      <c r="M17" s="2">
-        <v>4.1319999999999997</v>
-      </c>
-      <c r="N17" s="6">
-        <f>ROUND(M17/P3,4)-1</f>
-        <v>1.4599999999999946E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4.1131000000000002</v>
-      </c>
-      <c r="P17" s="6">
-        <f>ROUND(O17/S3,4)-1</f>
-        <v>1.639999999999997E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4.1276999999999999</v>
-      </c>
-      <c r="R17" s="6" t="e">
-        <f>ROUND(Q17/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195AC537-6411-4262-8567-B1FACDE29354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24735E42-4F12-4149-91F9-FBD2E7549021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="China_Telecom_1024LP" sheetId="4" r:id="rId1"/>
-    <sheet name="GEANT_2048LP" sheetId="6" r:id="rId2"/>
-    <sheet name="GEANT_1024LP" sheetId="3" r:id="rId3"/>
-    <sheet name="ScaleFree30Nodes_random_1024LP" sheetId="2" r:id="rId4"/>
+    <sheet name="China_Telecom_gravity_1024LP" sheetId="4" r:id="rId1"/>
+    <sheet name="GEANT_gravity_2048LP" sheetId="6" r:id="rId2"/>
+    <sheet name="GEANT_gravity_1024LP" sheetId="3" r:id="rId3"/>
+    <sheet name="ScaleFree30Nodes_gravity_1024LP" sheetId="2" r:id="rId4"/>
     <sheet name="ScaleFree30Nodes_bimodal" sheetId="10" r:id="rId5"/>
     <sheet name="ScaleFree30Nodes_poisson_0.2sp" sheetId="9" r:id="rId6"/>
     <sheet name="ScaleFree30Nodes_poisson_0.1sp" sheetId="14" r:id="rId7"/>
@@ -24,6 +24,7 @@
     <sheet name="GoodNet_Bimodal_1024LP" sheetId="5" r:id="rId9"/>
     <sheet name="GoodNet_poisson_0.2_4096LP" sheetId="8" r:id="rId10"/>
     <sheet name="GoodNet_poisson_0.1_4096LP" sheetId="13" r:id="rId11"/>
+    <sheet name="T-lex_Gravity_1024LP" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="81">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -261,15 +262,43 @@
   <si>
     <t>(7, 9, 12) 2.69447</t>
   </si>
+  <si>
+    <t>(0,) 6.63571</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3) 6.53818</t>
+  </si>
+  <si>
+    <t>(0, 3) 6.58628</t>
+  </si>
+  <si>
+    <t>(0, 1, 3) 6.55522</t>
+  </si>
+  <si>
+    <t>{2,3,10,11}</t>
+  </si>
+  <si>
+    <t>(3,) 1.25128</t>
+  </si>
+  <si>
+    <t>(2, 3, 10, 11) 1.12889</t>
+  </si>
+  <si>
+    <t>(3, 10, 11) 1.1577</t>
+  </si>
+  <si>
+    <t>(3, 11) 1.1967</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -311,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +350,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -390,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -420,6 +467,17 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,7 +520,20 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$L$12:$L$18</c:f>
+              <c:f>China_Telecom_gravity_1024LP!$L$12:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -704,7 +775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$N$12:$N$18</c:f>
+              <c:f>China_Telecom_gravity_1024LP!$N$12:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -794,7 +865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$P$12:$P$18</c:f>
+              <c:f>China_Telecom_gravity_1024LP!$P$12:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -855,7 +926,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>China_Telecom_1024LP!$R$12:$R$18</c:f>
+              <c:f>China_Telecom_gravity_1024LP!$R$12:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1562,26 +1633,8 @@
             <c:numRef>
               <c:f>GoodNet_poisson_0.2_4096LP!$R$12:$R$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2264,26 +2317,8 @@
             <c:numRef>
               <c:f>GoodNet_poisson_0.1_4096LP!$R$12:$R$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2291,6 +2326,709 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0481-4ED1-A955-AA85084CACEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-2"/>
+          <c:min val="2.0000000000000004E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'T-lex_Gravity_1024LP'!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'T-lex_Gravity_1024LP'!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.20239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1584000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2799999999999967E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4299999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9999999999994493E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDAD-4BE2-878A-34CC28EB11F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'T-lex_Gravity_1024LP'!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'T-lex_Gravity_1024LP'!$N$12:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.19609999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16280000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7099999999999964E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5099999999999927E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9999999999998952E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDAD-4BE2-878A-34CC28EB11F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'T-lex_Gravity_1024LP'!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'T-lex_Gravity_1024LP'!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.19460000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.909999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.750000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9000000000000199E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDAD-4BE2-878A-34CC28EB11F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'T-lex_Gravity_1024LP'!$R$12:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.20229999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7900000000000098E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3099999999999925E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8000000000000238E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CDAD-4BE2-878A-34CC28EB11F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2493,7 +3231,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2741,7 +3479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_2048LP!$L$12:$L$17</c:f>
+              <c:f>GEANT_gravity_2048LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2828,7 +3566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_2048LP!$N$12:$N$17</c:f>
+              <c:f>GEANT_gravity_2048LP!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2915,7 +3653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_2048LP!$P$12:$P$17</c:f>
+              <c:f>GEANT_gravity_2048LP!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2973,7 +3711,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_2048LP!$R$12:$R$17</c:f>
+              <c:f>GEANT_gravity_2048LP!$R$12:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3452,7 +4190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$L$12:$L$17</c:f>
+              <c:f>GEANT_gravity_1024LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3539,7 +4277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$N$12:$N$17</c:f>
+              <c:f>GEANT_gravity_1024LP!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3626,7 +4364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$P$12:$P$17</c:f>
+              <c:f>GEANT_gravity_1024LP!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3684,7 +4422,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GEANT_1024LP!$R$12:$R$17</c:f>
+              <c:f>GEANT_gravity_1024LP!$R$12:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4163,7 +4901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_random_1024LP!$L$12:$L$17</c:f>
+              <c:f>ScaleFree30Nodes_gravity_1024LP!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4250,7 +4988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_random_1024LP!$N$12:$N$17</c:f>
+              <c:f>ScaleFree30Nodes_gravity_1024LP!$N$12:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4337,7 +5075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_random_1024LP!$P$12:$P$17</c:f>
+              <c:f>ScaleFree30Nodes_gravity_1024LP!$P$12:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4395,7 +5133,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>ScaleFree30Nodes_random_1024LP!$R$12:$R$17</c:f>
+              <c:f>ScaleFree30Nodes_gravity_1024LP!$R$12:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5812,23 +6550,8 @@
             <c:numRef>
               <c:f>ScaleFree30Nodes_poisson_0.2sp!$R$12:$R$16</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6291,19 +7014,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.7652237417001411E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.5580350224701629E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.2666976600030928E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.2388036572136958E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.3565783356578338E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6375,19 +7098,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.6014440889186039E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3061047680930766E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9874067885763855E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.1034376063615809E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.2024505708716289E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,19 +7182,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.3119869637092458E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.161336088579092E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.0796039848255852E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9593190019430615E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.2646578046448438E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,23 +7234,8 @@
             <c:numRef>
               <c:f>ScaleFree30Nodes_poisson_0.1sp!$R$12:$R$16</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8401,6 +9109,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10227,6 +10975,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
@@ -14549,6 +15799,98 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3613AC-1EFF-4CCE-A7F2-0E28BE827635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>237445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F3EB9C-DDB4-4667-95D4-70280CFABBB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="618445"/>
+          <a:ext cx="5622834" cy="4217125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1366837</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBEE2ED6-B1E3-46DC-9B23-5D2D4F033198}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15607,7 +16949,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15641,25 +16983,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -15677,25 +17019,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -15704,25 +17046,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="21"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -15734,23 +17076,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -15770,23 +17112,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -15806,23 +17148,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -15842,22 +17184,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -16079,34 +17421,34 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="12">
         <v>1.5899000000000001</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="13">
         <f>K18/M3-1</f>
         <v>0.12822878228782297</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="12">
         <v>1.5878000000000001</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="13">
         <f>M18/P3-1</f>
         <v>0.12546073149985837</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="14">
         <v>1.5807</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="13">
         <f>O18/S3-1</f>
         <v>0.1252135535307517</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="14">
         <v>1.5183</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="13">
         <f>Q18/U3-1</f>
         <v>8.318470428765079E-2</v>
       </c>
@@ -16149,8 +17491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16182,25 +17524,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -16218,55 +17560,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="14"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="25">
         <v>4.0945</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="17">
+      <c r="K3" s="31"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="22">
         <v>4.0998000000000001</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>4.0724999999999998</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <v>4.0468000000000002</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
@@ -16275,23 +17616,23 @@
       <c r="J4" s="3">
         <v>4.2218999999999998</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>J4/J3 -1</f>
         <v>3.11149102454511E-2</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>4.2432999999999996</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>3.5001707400360793E-2</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>4.4214000000000002</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>8.5700000000000109E-2</v>
@@ -16311,23 +17652,23 @@
       <c r="J5" s="3">
         <v>4.2055999999999996</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.7099999999999902E-2</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>4.1900000000000004</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>4.1736000000000004</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.4799999999999933E-2</v>
@@ -16347,23 +17688,23 @@
       <c r="J6" s="3">
         <v>4.5576999999999996</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.11309999999999998</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>4.5738000000000003</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.11559999999999993</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>4.5223000000000004</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.11040000000000005</v>
@@ -16383,22 +17724,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -16431,10 +17772,6 @@
       <c r="Q12" s="9">
         <v>4.1879999999999997</v>
       </c>
-      <c r="R12" s="6" t="e">
-        <f>ROUND(Q12/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I13" s="2">
@@ -16467,10 +17804,6 @@
       <c r="Q13" s="9">
         <v>4.1700999999999997</v>
       </c>
-      <c r="R13" s="6" t="e">
-        <f>ROUND(Q13/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
@@ -16503,10 +17836,6 @@
       <c r="Q14" s="3">
         <v>4.1550000000000002</v>
       </c>
-      <c r="R14" s="6" t="e">
-        <f>ROUND(Q14/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
@@ -16539,10 +17868,6 @@
       <c r="Q15" s="3">
         <v>4.1406999999999998</v>
       </c>
-      <c r="R15" s="6" t="e">
-        <f>ROUND(Q15/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
@@ -16575,45 +17900,37 @@
       <c r="Q16" s="3">
         <v>4.1325000000000003</v>
       </c>
-      <c r="R16" s="6" t="e">
-        <f>ROUND(Q16/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="12">
         <v>4.1525999999999996</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="13">
         <f>(ROUND(K17/M3,4)-1)</f>
         <v>1.2899999999999912E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="12">
         <v>4.1319999999999997</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="13">
         <f>ROUND(M17/P3,4)-1</f>
         <v>1.4599999999999946E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="14">
         <v>4.1131000000000002</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="13">
         <f>ROUND(O17/S3,4)-1</f>
         <v>1.639999999999997E-2</v>
       </c>
       <c r="Q17" s="3">
         <v>4.1276999999999999</v>
-      </c>
-      <c r="R17" s="6" t="e">
-        <f>ROUND(Q17/U3,4)-1</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -16655,8 +17972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00505A8E-CEBC-46D8-B865-3F68B9FEA27F}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16688,25 +18005,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -16724,55 +18041,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="14"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="25">
         <v>2.6265999999999998</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="17">
+      <c r="K3" s="31"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="22">
         <v>2.63</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>2.6288999999999998</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <v>2.6355</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
@@ -16781,23 +18097,23 @@
       <c r="J4" s="3">
         <v>2.7450000000000001</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>J4/J3 -1</f>
         <v>4.507728622553886E-2</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>2.7387000000000001</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>4.1330798479087605E-2</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>2.7199</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>3.4599999999999964E-2</v>
@@ -16817,23 +18133,23 @@
       <c r="J5" s="3">
         <v>2.6985000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.7400000000000091E-2</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>2.7019000000000002</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.7300000000000102E-2</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>2.7</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.6999999999999913E-2</v>
@@ -16853,23 +18169,23 @@
       <c r="J6" s="3">
         <v>3.1152000000000002</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.18599999999999994</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>3.0914999999999999</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.17549999999999999</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>3.1057000000000001</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.18140000000000001</v>
@@ -16889,22 +18205,20 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="14"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -16934,11 +18248,6 @@
         <f>O12/S3-1</f>
         <v>4.7097573838258411E-2</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="6" t="e">
-        <f>ROUND(Q12/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I13" s="2">
@@ -16968,11 +18277,6 @@
         <f>ROUND(O13/S3,4)-1</f>
         <v>4.3800000000000061E-2</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="6" t="e">
-        <f>ROUND(Q13/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
@@ -17002,11 +18306,6 @@
         <f>ROUND(O14/S3,4)-1</f>
         <v>3.7800000000000056E-2</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="6" t="e">
-        <f>ROUND(Q14/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
@@ -17036,11 +18335,6 @@
         <f>ROUND(O15/S3,4)-1</f>
         <v>3.2299999999999995E-2</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="6" t="e">
-        <f>ROUND(Q15/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
@@ -17070,44 +18364,34 @@
         <f>ROUND(O16/S3,4)-1</f>
         <v>2.7800000000000047E-2</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="6" t="e">
-        <f>ROUND(Q16/U3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="12">
         <v>5</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="12">
         <v>2.7035</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="13">
         <f>(ROUND(K17/M3,4)-1)</f>
         <v>2.7900000000000036E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="12">
         <v>2.7002000000000002</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="13">
         <f>ROUND(M17/P3,4)-1</f>
         <v>2.7099999999999902E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="14">
         <v>2.7052</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="13">
         <f>O17/S3-1</f>
         <v>2.6446594574084603E-2</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="6" t="e">
-        <f>ROUND(Q17/U3,4)-1</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -17145,12 +18429,519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6A811B-57C2-4536-9D42-C0E19C788128}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="15"/>
+    <col min="9" max="9" width="35.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="36" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" style="15" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" style="15" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="22">
+        <v>1.1397999999999999</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
+        <v>1.1405000000000001</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
+        <v>1.1354</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
+        <v>1.1472</v>
+      </c>
+      <c r="T3" s="24"/>
+      <c r="U3" s="5">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.3655999999999999</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ROUND(J4/J3,4)-1</f>
+        <v>0.19809999999999994</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
+        <v>1.3802000000000001</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="6">
+        <f>ROUND(M4/M3,4)-1</f>
+        <v>0.21019999999999994</v>
+      </c>
+      <c r="P4" s="18">
+        <v>1.3492</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4)-1</f>
+        <v>0.18829999999999991</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.3754</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4)-1</f>
+        <v>0.19890000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.2448999999999999</v>
+      </c>
+      <c r="K5" s="20">
+        <f>ROUND(J5/J3,4)-1</f>
+        <v>9.220000000000006E-2</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
+        <v>1.2455000000000001</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>9.2100000000000071E-2</v>
+      </c>
+      <c r="P5" s="18">
+        <v>1.2343</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>8.7099999999999955E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.2501</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>8.9699999999999891E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.6634</v>
+      </c>
+      <c r="K6" s="20">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.45940000000000003</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
+        <v>1.6489</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1.6713</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1.6698</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.45550000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="33">
+        <v>1.37135600568676</v>
+      </c>
+      <c r="L12" s="6">
+        <f>ROUND(K12/M3,4)-1</f>
+        <v>0.20239999999999991</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.35808132541656</v>
+      </c>
+      <c r="N12" s="6">
+        <f>ROUND(M12/P3,4)-1</f>
+        <v>0.19609999999999994</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1.3703973489635899</v>
+      </c>
+      <c r="P12" s="6">
+        <f>ROUND(O12/S3,4)-1</f>
+        <v>0.19460000000000011</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1.3573917718056401</v>
+      </c>
+      <c r="R12" s="6">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>0.20229999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.3211999999999999</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(ROUND(K13/M3,4)-1)</f>
+        <v>0.1584000000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.3202</v>
+      </c>
+      <c r="N13" s="6">
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>0.16280000000000006</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1.3092999999999999</v>
+      </c>
+      <c r="P13" s="6">
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>0.14129999999999998</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.3158000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>ROUND(Q13/U3,4)-1</f>
+        <v>0.16549999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.2866</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>0.1281000000000001</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.2457</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>9.7099999999999964E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.2537</v>
+      </c>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.2395</v>
+      </c>
+      <c r="R14" s="6">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>9.7900000000000098E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.2121</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>6.2799999999999967E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.198</v>
+      </c>
+      <c r="N15" s="6">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>5.5099999999999927E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="P15" s="6">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>5.909999999999993E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.1889000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>5.3099999999999925E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.1681999999999999</v>
+      </c>
+      <c r="L16" s="6">
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>2.4299999999999988E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="N16" s="6">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>3.2200000000000006E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.1788000000000001</v>
+      </c>
+      <c r="P16" s="6">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>2.750000000000008E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.1495</v>
+      </c>
+      <c r="R16" s="6">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>1.8199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.1411</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>4.9999999999994493E-4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.1434</v>
+      </c>
+      <c r="N17" s="6">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>6.9999999999998952E-3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.1585000000000001</v>
+      </c>
+      <c r="P17" s="6">
+        <f>ROUND(O17/S3,4)-1</f>
+        <v>9.9000000000000199E-3</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.131</v>
+      </c>
+      <c r="R17" s="6">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>1.8000000000000238E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R17" sqref="J17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17184,25 +18975,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -17220,25 +19011,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
@@ -17247,25 +19038,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="21"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="5">
         <v>1.7316</v>
       </c>
@@ -17277,23 +19068,23 @@
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="28">
         <f>ROUND(J4/J3,4)-1</f>
         <v>79.064800000000005</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="13">
+      <c r="L4" s="29"/>
+      <c r="M4" s="18">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -17313,23 +19104,23 @@
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="28">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.48760000000000003</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="13">
+      <c r="L5" s="29"/>
+      <c r="M5" s="18">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -17349,23 +19140,23 @@
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="28">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.49560000000000004</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="13">
+      <c r="L6" s="29"/>
+      <c r="M6" s="18">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -17385,22 +19176,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -17586,34 +19377,34 @@
       <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="12">
         <v>1.8678999999999999</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="13">
         <f>K17/M3-1</f>
         <v>9.6764723151899323E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="12">
         <v>1.8741000000000001</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="13">
         <f>M17/P3-1</f>
         <v>9.4045534150613008E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="14">
         <v>1.8652</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="13">
         <f>O17/S3-1</f>
         <v>9.3367813769805519E-2</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="14">
         <v>1.8504</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="13">
         <f>Q17/U3-1</f>
         <v>6.8607068607068555E-2</v>
       </c>
@@ -17657,7 +19448,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J17" sqref="J17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17691,25 +19482,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -17727,25 +19518,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -17754,25 +19545,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="21"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -17784,23 +19575,23 @@
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="28">
         <f>ROUND(J4/J3,4)-1</f>
         <v>79.064800000000005</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="13">
+      <c r="L4" s="29"/>
+      <c r="M4" s="18">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -17820,23 +19611,23 @@
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="28">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.48760000000000003</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="13">
+      <c r="L5" s="29"/>
+      <c r="M5" s="18">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -17856,23 +19647,23 @@
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="28">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.49560000000000004</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="13">
+      <c r="L6" s="29"/>
+      <c r="M6" s="18">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -17892,22 +19683,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -18163,8 +19954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412146B7-669A-4A41-83DA-A8A466CECDDE}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18196,25 +19987,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -18232,25 +20023,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -18259,26 +20050,26 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <f>ROUND(1.3137349069022,4)</f>
         <v>1.3137000000000001</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <v>1.3108</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>1.3133999999999999</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <v>1.3113999999999999</v>
       </c>
-      <c r="T3" s="19"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="5">
         <v>1.3261000000000001</v>
       </c>
@@ -18291,23 +20082,23 @@
         <f>ROUND(1.88295256877831,4)</f>
         <v>1.883</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.43340000000000001</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>1.9887999999999999</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.5172000000000001</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>1.8765000000000001</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.42870000000000008</v>
@@ -18327,23 +20118,23 @@
       <c r="J5" s="3">
         <v>1.6628000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.26570000000000005</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>1.661</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.2672000000000001</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>1.6674</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.26950000000000007</v>
@@ -18363,23 +20154,23 @@
       <c r="J6" s="3">
         <v>1.7070000000000001</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.29940000000000011</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>1.6947000000000001</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.29289999999999994</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>1.7579</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.33840000000000003</v>
@@ -18399,22 +20190,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -18600,34 +20391,34 @@
       <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="12">
         <v>1.44</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="13">
         <f>K17/M3-1</f>
         <v>9.8565761367104043E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="12">
         <v>1.4302999999999999</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="13">
         <f>M17/P3-1</f>
         <v>8.9005634231764885E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="14">
         <v>1.427</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="13">
         <f>O17/S3-1</f>
         <v>8.8150068628946254E-2</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="14">
         <v>1.4093</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="13">
         <f>Q17/U3-1</f>
         <v>6.2740366488198474E-2</v>
       </c>
@@ -18703,25 +20494,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -18739,25 +20530,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="3" t="s">
         <v>50</v>
       </c>
@@ -18766,25 +20557,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <v>17.248000000000001</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <v>17.224</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>17.266400000000001</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <v>17.2973</v>
       </c>
-      <c r="T3" s="19"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="5">
         <v>17.283300000000001</v>
       </c>
@@ -18796,23 +20587,23 @@
       <c r="J4" s="3">
         <v>21.1402</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.22570000000000001</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>22.0962</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.28289999999999993</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>22.458500000000001</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.30069999999999997</v>
@@ -18832,23 +20623,23 @@
       <c r="J5" s="3">
         <v>19.1327</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.10929999999999995</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>19.1875</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.1140000000000001</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>19.234200000000001</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.1140000000000001</v>
@@ -18868,23 +20659,23 @@
       <c r="J6" s="3">
         <v>18.1602</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>5.2899999999999947E-2</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>18.143999999999998</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>5.3399999999999892E-2</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>18.154599999999999</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>5.139999999999989E-2</v>
@@ -18904,22 +20695,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -19128,7 +20919,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J14" sqref="J14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19160,25 +20951,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -19196,55 +20987,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="14"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <v>10.089700000000001</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <v>10.0444</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>10.051500000000001</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <v>10.059699999999999</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
@@ -19253,23 +21043,23 @@
       <c r="J4" s="3">
         <v>11.442</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.1339999999999999</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>11.426399999999999</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.13759999999999994</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>11.635199999999999</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.15759999999999996</v>
@@ -19289,23 +21079,23 @@
       <c r="J5" s="3">
         <v>10.723699999999999</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4)-1</f>
         <v>6.2799999999999967E-2</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>10.7044</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>6.5700000000000092E-2</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>10.697699999999999</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>6.4300000000000024E-2</v>
@@ -19325,23 +21115,23 @@
       <c r="J6" s="3">
         <v>10.696899999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>6.0200000000000031E-2</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>10.711</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>6.6400000000000015E-2</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>10.670500000000001</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>6.1600000000000099E-2</v>
@@ -19361,22 +21151,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -19409,10 +21199,6 @@
       <c r="Q12" s="3">
         <v>10.300217341759501</v>
       </c>
-      <c r="R12" s="6" t="e">
-        <f>Q12/U3-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I13" s="2">
@@ -19445,45 +21231,37 @@
       <c r="Q13" s="3">
         <v>10.2262</v>
       </c>
-      <c r="R13" s="6" t="e">
-        <f>Q13/U3-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="12">
         <v>10.266299999999999</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="13">
         <f>K14/M3-1</f>
         <v>2.2091911911114703E-2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="12">
         <v>10.2582</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="13">
         <f>M14/P3-1</f>
         <v>2.0564094911207143E-2</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="12">
         <v>10.2904</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="13">
         <f>O14/S3-1</f>
         <v>2.2933089455948075E-2</v>
       </c>
       <c r="Q14" s="2">
         <v>10.1587</v>
-      </c>
-      <c r="R14" s="6" t="e">
-        <f>Q14/U3-1</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -19517,10 +21295,6 @@
       <c r="Q15" s="3">
         <v>10.114100000000001</v>
       </c>
-      <c r="R15" s="6" t="e">
-        <f>Q15/U3-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
@@ -19552,10 +21326,6 @@
       </c>
       <c r="Q16" s="3">
         <v>10.095000000000001</v>
-      </c>
-      <c r="R16" s="6" t="e">
-        <f>Q16/U3-1</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -19595,10 +21365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DD6F93-EF1A-4225-A073-573968BAED77}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19616,10 +21386,10 @@
     <col min="18" max="18" width="20.42578125" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19630,30 +21400,30 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
+      <c r="T1" s="19"/>
+      <c r="U1" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -19666,290 +21436,330 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="14"/>
+      <c r="J2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="5"/>
+      <c r="J3" s="22">
+        <v>6.5814000000000004</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
+        <v>6.4638</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
+        <v>6.4846000000000004</v>
+      </c>
+      <c r="T3" s="24"/>
     </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="15" t="e">
+      <c r="J4" s="3">
+        <v>7.1029</v>
+      </c>
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="6" t="e">
+        <v>7.9199999999999937E-2</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
+        <v>7.0242000000000004</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="6" t="e">
+        <v>8.8500000000000023E-2</v>
+      </c>
+      <c r="P4" s="18">
+        <v>7.0049000000000001</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6" t="e">
+        <v>8.3700000000000108E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>7.0021000000000004</v>
+      </c>
+      <c r="T4" s="6">
         <f>ROUND(S4/S3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>7.9800000000000093E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="15" t="e">
-        <f>ROUND(J5/J3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="6" t="e">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="6" t="e">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="6" t="e">
-        <f>ROUND(S5/S3,4)-1</f>
-        <v>#DIV/0!</v>
+      <c r="J5" s="3">
+        <v>6.7775999999999996</v>
+      </c>
+      <c r="K5" s="20">
+        <f>J5/J3-1</f>
+        <v>2.9811286352447786E-2</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
+        <v>6.6661999999999999</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="6">
+        <f>M5/M3-1</f>
+        <v>3.3038896637223036E-2</v>
+      </c>
+      <c r="P5" s="18">
+        <v>6.6772999999999998</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="6">
+        <f>P5/P3-1</f>
+        <v>3.3030106129521286E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>6.6875</v>
+      </c>
+      <c r="T5" s="6">
+        <f>S5/S3-1</f>
+        <v>3.1289516701107134E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="15" t="e">
+      <c r="J6" s="3">
+        <v>7.0854999999999997</v>
+      </c>
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="6" t="e">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
+        <v>7.0627000000000004</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="6" t="e">
+        <v>9.4500000000000028E-2</v>
+      </c>
+      <c r="P6" s="18">
+        <v>7.0060000000000002</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="6" t="e">
+        <v>8.3900000000000086E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7.0274000000000001</v>
+      </c>
+      <c r="T6" s="6">
         <f>ROUND(S6/S3,4)-1</f>
-        <v>#DIV/0!</v>
+        <v>8.3700000000000108E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="14"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
-    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6" t="e">
+      <c r="K12" s="8">
+        <v>6.6959698880519101</v>
+      </c>
+      <c r="L12" s="6">
         <f>K12/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="6" t="e">
+        <v>3.7652237417001411E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>6.6965901430195203</v>
+      </c>
+      <c r="N12" s="6">
         <f>M12/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="6" t="e">
+        <v>3.6014440889186039E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>6.6993691066486898</v>
+      </c>
+      <c r="P12" s="6">
         <f>O12/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="6" t="e">
-        <f>Q12/U3-1</f>
-        <v>#DIV/0!</v>
+        <v>3.3119869637092458E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="6" t="e">
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6.6825999999999999</v>
+      </c>
+      <c r="L13" s="6">
         <f>K13/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="6" t="e">
+        <v>3.5580350224701629E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6.6775000000000002</v>
+      </c>
+      <c r="N13" s="6">
         <f>M13/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="6" t="e">
+        <v>3.3061047680930766E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6.6896000000000004</v>
+      </c>
+      <c r="P13" s="6">
         <f>O13/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="6" t="e">
-        <f>Q13/U3-1</f>
-        <v>#DIV/0!</v>
+        <v>3.161336088579092E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="6" t="e">
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6.6638000000000002</v>
+      </c>
+      <c r="L14" s="6">
         <f>K14/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="6" t="e">
+        <v>3.2666976600030928E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6.6569000000000003</v>
+      </c>
+      <c r="N14" s="6">
         <f>M14/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="6" t="e">
+        <v>2.9874067885763855E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6.6843000000000004</v>
+      </c>
+      <c r="P14" s="6">
         <f>O14/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="6" t="e">
-        <f>Q14/U3-1</f>
-        <v>#DIV/0!</v>
+        <v>3.0796039848255852E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15" s="34">
         <v>3</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="6" t="e">
+      <c r="J15" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="34">
+        <v>6.6619999999999999</v>
+      </c>
+      <c r="L15" s="35">
         <f>K15/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="6" t="e">
+        <v>3.2388036572136958E-2</v>
+      </c>
+      <c r="M15" s="34">
+        <v>6.6643999999999997</v>
+      </c>
+      <c r="N15" s="35">
         <f>M15/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="6" t="e">
+        <v>3.1034376063615809E-2</v>
+      </c>
+      <c r="O15" s="34">
+        <v>6.6764999999999999</v>
+      </c>
+      <c r="P15" s="35">
         <f>O15/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="6" t="e">
-        <f>Q15/U3-1</f>
-        <v>#DIV/0!</v>
+        <v>2.9593190019430615E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>4</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6" t="e">
+      <c r="J16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6.6696</v>
+      </c>
+      <c r="L16" s="6">
         <f>K16/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="6" t="e">
+        <v>3.3565783356578338E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6.6707999999999998</v>
+      </c>
+      <c r="N16" s="6">
         <f>M16/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="6" t="e">
+        <v>3.2024505708716289E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6.6962999999999999</v>
+      </c>
+      <c r="P16" s="6">
         <f>O16/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="6" t="e">
-        <f>Q16/U3-1</f>
-        <v>#DIV/0!</v>
+        <v>3.2646578046448438E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -19960,7 +21770,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="U2:W2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
@@ -19987,8 +21796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138783-86F4-46D7-A421-98DE8BC5E9CD}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20020,25 +21829,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -20056,25 +21865,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -20083,29 +21892,29 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <f>ROUND(1.04953105339334,4)</f>
         <v>1.0495000000000001</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
         <f>ROUND(1.04960738441608,4)</f>
         <v>1.0496000000000001</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <f>ROUND(1.04726929636432,4)</f>
         <v>1.0472999999999999</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <f>ROUND(1.05010333606256,4)</f>
         <v>1.0501</v>
       </c>
-      <c r="T3" s="19"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="5">
         <f>ROUND(1.0532225410055,4)</f>
         <v>1.0531999999999999</v>
@@ -20119,25 +21928,25 @@
         <f>ROUND(1.29359759152171,4)</f>
         <v>1.2936000000000001</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.23259999999999992</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <f>ROUND(1.32368411192381,4)</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.26110000000000011</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <f>ROUND(1.29757323247913,4)</f>
         <v>1.2976000000000001</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.2390000000000001</v>
@@ -20158,23 +21967,23 @@
       <c r="J5" s="3">
         <v>1.2487999999999999</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.18989999999999996</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>1.2504999999999999</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.19140000000000001</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>1.2482</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.19179999999999997</v>
@@ -20194,23 +22003,23 @@
       <c r="J6" s="3">
         <v>1.4819</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.41199999999999992</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>1.5116000000000001</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44019999999999992</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>1.4991000000000001</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.43140000000000001</v>
@@ -20230,22 +22039,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -20467,27 +22276,27 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="13">
         <f>(ROUND(K18/M3,4)-1)</f>
         <v>6.7099999999999937E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="12">
         <v>1.1220000000000001</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="13">
         <f>ROUND(M18/P3,4)-1</f>
         <v>7.1299999999999919E-2</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="14">
         <v>1.127</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="13">
         <f>ROUND(O18/S3,4)-1</f>
         <v>7.3199999999999932E-2</v>
       </c>
@@ -20570,25 +22379,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="19"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -20606,54 +22415,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="14"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="25">
         <v>2.8029999999999999</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="17">
+      <c r="K3" s="31"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="22">
         <v>2.7955000000000001</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17">
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22">
         <v>2.7581000000000002</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="17">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="22">
         <v>2.7648000000000001</v>
       </c>
-      <c r="T3" s="19"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="5">
         <v>2.7808999999999999</v>
       </c>
@@ -20665,23 +22474,23 @@
       <c r="J4" s="3">
         <v>2.8767</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>J4/J3 -1</f>
         <v>2.6293257224402566E-2</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13">
+      <c r="L4" s="21"/>
+      <c r="M4" s="18">
         <v>2.8866999999999998</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>3.2623859774637776E-2</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="18">
         <v>2.8269000000000002</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>2.4899999999999922E-2</v>
@@ -20701,23 +22510,23 @@
       <c r="J5" s="3">
         <v>2.8637000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="20">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.1700000000000053E-2</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="13">
+      <c r="L5" s="21"/>
+      <c r="M5" s="18">
         <v>2.8633000000000002</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.4299999999999988E-2</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="18">
         <v>2.8247</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.410000000000001E-2</v>
@@ -20737,23 +22546,23 @@
       <c r="J6" s="3">
         <v>3.0714999999999999</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="20">
         <f>ROUND(J6/J3,4)-1</f>
         <v>9.5800000000000107E-2</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13">
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
         <v>3.0190999999999999</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="18">
         <v>3.0356999999999998</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.10060000000000002</v>
@@ -20773,22 +22582,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">

--- a/Smart_Nodes_Routing/Evaluations.xlsx
+++ b/Smart_Nodes_Routing/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24735E42-4F12-4149-91F9-FBD2E7549021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6622F14-09E1-4190-8808-BB5A519EDD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{B550FEBA-CBDF-4F8A-ACA3-FAF0BB6C78BC}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Telecom_gravity_1024LP" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="GoodNet_poisson_0.2_4096LP" sheetId="8" r:id="rId10"/>
     <sheet name="GoodNet_poisson_0.1_4096LP" sheetId="13" r:id="rId11"/>
     <sheet name="T-lex_Gravity_1024LP" sheetId="15" r:id="rId12"/>
+    <sheet name="GoodNet_cstm_Bimodal_1024LP" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="87">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -289,6 +290,24 @@
   <si>
     <t>(3, 11) 1.1967</t>
   </si>
+  <si>
+    <t>(12,) 1.8644</t>
+  </si>
+  <si>
+    <t>(5, 7, 9, 12, 15) 1.73388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bimodal Traffic, 1024 TMs, 50% sparsity</t>
+  </si>
+  <si>
+    <t>(7, 9, 12, 15) 1.75307</t>
+  </si>
+  <si>
+    <t>(12, 15) 1.82218</t>
+  </si>
+  <si>
+    <t>(9, 12, 15) 1.78346</t>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -437,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -478,22 +497,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,8 +540,17 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,18 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3029,6 +3055,729 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CDAD-4BE2-878A-34CC28EB11F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054782576"/>
+        <c:axId val="2054783824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054782576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ubs as Smart Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054783824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054783824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054782576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expected Congestion Vs. Optimal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test Set 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$L$12:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1444764042082296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13717811795419488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8100000000000067E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2500000000000009E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-553B-4C72-A366-727BE78F1DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Set 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$N$12:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14495188920159707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13311088601561116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10939999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10379999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5199999999999951E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.479999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-553B-4C72-A366-727BE78F1DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$I$12:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>"-1 (No optimization, just smart weight init)"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 just RL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$P$12:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14491021726495013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13403901046622257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11559999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8600000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4000000000000083E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0899999999999972E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5800000000000072E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-553B-4C72-A366-727BE78F1DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GoodNet_cstm_Bimodal_1024LP!$R$12:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13859134701693487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4600000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4400000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6300000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.750000000000008E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-553B-4C72-A366-727BE78F1DC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9149,6 +9898,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10976,6 +11765,508 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15891,6 +17182,99 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBEE2ED6-B1E3-46DC-9B23-5D2D4F033198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8991394E-DB34-48B6-8828-7996C88A0A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="466725"/>
+          <a:ext cx="5633720" cy="4520565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1366837</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F7DC26-06DF-45B9-8844-2FA35687F7B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16948,8 +18332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718E9FF-6293-4A98-AAC0-CA1B55B1C195}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16983,25 +18367,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -17019,25 +18403,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -17046,25 +18430,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="26">
         <v>1.4016999999999999</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22">
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26">
         <v>1.4092</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
         <v>1.4108000000000001</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29">
         <v>1.4048</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="30"/>
       <c r="U3" s="5">
         <v>1.4016999999999999</v>
       </c>
@@ -17076,23 +18460,23 @@
       <c r="J4" s="3">
         <v>6.8305999999999996</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="31">
         <f>ROUND(J4/J3,4)-1</f>
         <v>3.8731</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="18">
+      <c r="L4" s="32"/>
+      <c r="M4" s="23">
         <v>7.6843000000000004</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>4.4530000000000003</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="23">
         <v>7.6825999999999999</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>4.4455999999999998</v>
@@ -17112,23 +18496,23 @@
       <c r="J5" s="3">
         <v>2.1465000000000001</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="31">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.53140000000000009</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="18">
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
         <v>2.1532</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="23">
         <v>2.1534</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.52639999999999998</v>
@@ -17148,23 +18532,23 @@
       <c r="J6" s="3">
         <v>2.29</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="31">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.63369999999999993</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="18">
+      <c r="L6" s="32"/>
+      <c r="M6" s="23">
         <v>2.2345000000000002</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.58570000000000011</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="23">
         <v>2.23</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.58069999999999999</v>
@@ -17184,22 +18568,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="18" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -17455,21 +18839,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -17480,6 +18849,21 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -17491,8 +18875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009515A-D58F-4DBE-B49D-FCB095100639}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:P17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17524,25 +18908,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -17560,54 +18944,54 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="18" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="19"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="29">
         <v>4.0945</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="22">
+      <c r="K3" s="38"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="26">
         <v>4.0998000000000001</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
         <v>4.0724999999999998</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26">
         <v>4.0468000000000002</v>
       </c>
-      <c r="T3" s="24"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
@@ -17616,23 +19000,23 @@
       <c r="J4" s="3">
         <v>4.2218999999999998</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="31">
         <f>J4/J3 -1</f>
         <v>3.11149102454511E-2</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="18">
+      <c r="L4" s="32"/>
+      <c r="M4" s="23">
         <v>4.2432999999999996</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="6">
         <f>M4/M3 -1</f>
         <v>3.5001707400360793E-2</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="23">
         <v>4.4214000000000002</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4) - 1</f>
         <v>8.5700000000000109E-2</v>
@@ -17652,23 +19036,23 @@
       <c r="J5" s="3">
         <v>4.2055999999999996</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="31">
         <f>ROUND(J5/J3,4) - 1</f>
         <v>2.7099999999999902E-2</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="18">
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
         <v>4.1900000000000004</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="23">
         <v>4.1736000000000004</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>2.4799999999999933E-2</v>
@@ -17688,23 +19072,23 @@
       <c r="J6" s="3">
         <v>4.5576999999999996</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="31">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.11309999999999998</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="18">
+      <c r="L6" s="32"/>
+      <c r="M6" s="23">
         <v>4.5738000000000003</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.11559999999999993</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="23">
         <v>4.5223000000000004</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.11040000000000005</v>
@@ -17724,22 +19108,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="18" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -17931,6 +19315,467 @@
       </c>
       <c r="Q17" s="3">
         <v>4.1276999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00505A8E-CEBC-46D8-B865-3F68B9FEA27F}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="25"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="25"/>
+      <c r="U2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="29">
+        <v>2.6265999999999998</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="26">
+        <v>2.63</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
+        <v>2.6288999999999998</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26">
+        <v>2.6355</v>
+      </c>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="K4" s="31">
+        <f>J4/J3 -1</f>
+        <v>4.507728622553886E-2</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="23">
+        <v>2.7387000000000001</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="6">
+        <f>M4/M3 -1</f>
+        <v>4.1330798479087605E-2</v>
+      </c>
+      <c r="P4" s="23">
+        <v>2.7199</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4) - 1</f>
+        <v>3.4599999999999964E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2.7505999999999999</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4) - 1</f>
+        <v>4.3700000000000072E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.6985000000000001</v>
+      </c>
+      <c r="K5" s="31">
+        <f>ROUND(J5/J3,4) - 1</f>
+        <v>2.7400000000000091E-2</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
+        <v>2.7019000000000002</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>2.7300000000000102E-2</v>
+      </c>
+      <c r="P5" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>2.6999999999999913E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2.6987999999999999</v>
+      </c>
+      <c r="T5" s="6">
+        <f>S5/S3-1</f>
+        <v>2.4018212862834343E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.1152000000000002</v>
+      </c>
+      <c r="K6" s="31">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="23">
+        <v>3.0914999999999999</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="P6" s="23">
+        <v>3.1057000000000001</v>
+      </c>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3.0897000000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.1722999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.7551710749958498</v>
+      </c>
+      <c r="L12" s="10">
+        <f>K12/M3-1</f>
+        <v>4.759356463720521E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2.7418241760537101</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>4.2954915003883931E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2.7596256558507299</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>4.7097573838258411E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.7416</v>
+      </c>
+      <c r="L13" s="6">
+        <f>(ROUND(K13/M3,4)-1)</f>
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.7336</v>
+      </c>
+      <c r="N13" s="6">
+        <f>ROUND(M13/P3,4)-1</f>
+        <v>3.9800000000000058E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2.7509000000000001</v>
+      </c>
+      <c r="P13" s="6">
+        <f>ROUND(O13/S3,4)-1</f>
+        <v>4.3800000000000061E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.7355</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>4.0100000000000025E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.7187000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>3.4200000000000008E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2.7351000000000001</v>
+      </c>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>3.7800000000000056E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="L15" s="6">
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>3.4200000000000008E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.7103999999999999</v>
+      </c>
+      <c r="N15" s="6">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>3.0999999999999917E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2.7206999999999999</v>
+      </c>
+      <c r="P15" s="6">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>3.2299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.7077</v>
+      </c>
+      <c r="L16" s="6">
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>2.9500000000000082E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.7042999999999999</v>
+      </c>
+      <c r="N16" s="6">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>2.8699999999999948E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.7086999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>2.7800000000000047E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="12">
+        <v>5</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2.7035</v>
+      </c>
+      <c r="L17" s="13">
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>2.7900000000000036E-2</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2.7002000000000002</v>
+      </c>
+      <c r="N17" s="13">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>2.7099999999999902E-2</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2.7052</v>
+      </c>
+      <c r="P17" s="13">
+        <f>O17/S3-1</f>
+        <v>2.6446594574084603E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17968,473 +19813,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00505A8E-CEBC-46D8-B865-3F68B9FEA27F}">
-  <dimension ref="A1:W17"/>
-  <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="25">
-        <v>2.6265999999999998</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="22">
-        <v>2.63</v>
-      </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22">
-        <v>2.6288999999999998</v>
-      </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22">
-        <v>2.6355</v>
-      </c>
-      <c r="T3" s="24"/>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="K4" s="20">
-        <f>J4/J3 -1</f>
-        <v>4.507728622553886E-2</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="18">
-        <v>2.7387000000000001</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="6">
-        <f>M4/M3 -1</f>
-        <v>4.1330798479087605E-2</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2.7199</v>
-      </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="6">
-        <f>ROUND(P4/P3,4) - 1</f>
-        <v>3.4599999999999964E-2</v>
-      </c>
-      <c r="S4" s="3">
-        <v>2.7505999999999999</v>
-      </c>
-      <c r="T4" s="6">
-        <f>ROUND(S4/S3,4) - 1</f>
-        <v>4.3700000000000072E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.6985000000000001</v>
-      </c>
-      <c r="K5" s="20">
-        <f>ROUND(J5/J3,4) - 1</f>
-        <v>2.7400000000000091E-2</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="18">
-        <v>2.7019000000000002</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="6">
-        <f>ROUND(M5/M3,4)-1</f>
-        <v>2.7300000000000102E-2</v>
-      </c>
-      <c r="P5" s="18">
-        <v>2.7</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="6">
-        <f>ROUND(P5/P3,4)-1</f>
-        <v>2.6999999999999913E-2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2.6987999999999999</v>
-      </c>
-      <c r="T5" s="6">
-        <f>S5/S3-1</f>
-        <v>2.4018212862834343E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3.1152000000000002</v>
-      </c>
-      <c r="K6" s="20">
-        <f>ROUND(J6/J3,4)-1</f>
-        <v>0.18599999999999994</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="18">
-        <v>3.0914999999999999</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="6">
-        <f>ROUND(M6/M3,4)-1</f>
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="P6" s="18">
-        <v>3.1057000000000001</v>
-      </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="6">
-        <f>ROUND(P6/P3,4)-1</f>
-        <v>0.18140000000000001</v>
-      </c>
-      <c r="S6" s="3">
-        <v>3.0897000000000001</v>
-      </c>
-      <c r="T6" s="6">
-        <f>ROUND(S6/S3,4)-1</f>
-        <v>0.1722999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-    </row>
-    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2.7551710749958498</v>
-      </c>
-      <c r="L12" s="10">
-        <f>K12/M3-1</f>
-        <v>4.759356463720521E-2</v>
-      </c>
-      <c r="M12" s="8">
-        <v>2.7418241760537101</v>
-      </c>
-      <c r="N12" s="6">
-        <f>M12/P3-1</f>
-        <v>4.2954915003883931E-2</v>
-      </c>
-      <c r="O12" s="9">
-        <v>2.7596256558507299</v>
-      </c>
-      <c r="P12" s="6">
-        <f>O12/S3-1</f>
-        <v>4.7097573838258411E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.7416</v>
-      </c>
-      <c r="L13" s="6">
-        <f>(ROUND(K13/M3,4)-1)</f>
-        <v>4.2399999999999993E-2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2.7336</v>
-      </c>
-      <c r="N13" s="6">
-        <f>ROUND(M13/P3,4)-1</f>
-        <v>3.9800000000000058E-2</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2.7509000000000001</v>
-      </c>
-      <c r="P13" s="6">
-        <f>ROUND(O13/S3,4)-1</f>
-        <v>4.3800000000000061E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.7355</v>
-      </c>
-      <c r="L14" s="6">
-        <f>(ROUND(K14/M3,4)-1)</f>
-        <v>4.0100000000000025E-2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2.7187000000000001</v>
-      </c>
-      <c r="N14" s="6">
-        <f>ROUND(M14/P3,4)-1</f>
-        <v>3.4200000000000008E-2</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2.7351000000000001</v>
-      </c>
-      <c r="P14" s="6">
-        <f>ROUND(O14/S3,4)-1</f>
-        <v>3.7800000000000056E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I15" s="2">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2.72</v>
-      </c>
-      <c r="L15" s="6">
-        <f>(ROUND(K15/M3,4)-1)</f>
-        <v>3.4200000000000008E-2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2.7103999999999999</v>
-      </c>
-      <c r="N15" s="6">
-        <f>ROUND(M15/P3,4)-1</f>
-        <v>3.0999999999999917E-2</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2.7206999999999999</v>
-      </c>
-      <c r="P15" s="6">
-        <f>ROUND(O15/S3,4)-1</f>
-        <v>3.2299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I16" s="2">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.7077</v>
-      </c>
-      <c r="L16" s="6">
-        <f>(ROUND(K16/M3,4)-1)</f>
-        <v>2.9500000000000082E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>2.7042999999999999</v>
-      </c>
-      <c r="N16" s="6">
-        <f>ROUND(M16/P3,4)-1</f>
-        <v>2.8699999999999948E-2</v>
-      </c>
-      <c r="O16" s="3">
-        <v>2.7086999999999999</v>
-      </c>
-      <c r="P16" s="6">
-        <f>ROUND(O16/S3,4)-1</f>
-        <v>2.7800000000000047E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I17" s="12">
-        <v>5</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="12">
-        <v>2.7035</v>
-      </c>
-      <c r="L17" s="13">
-        <f>(ROUND(K17/M3,4)-1)</f>
-        <v>2.7900000000000036E-2</v>
-      </c>
-      <c r="M17" s="12">
-        <v>2.7002000000000002</v>
-      </c>
-      <c r="N17" s="13">
-        <f>ROUND(M17/P3,4)-1</f>
-        <v>2.7099999999999902E-2</v>
-      </c>
-      <c r="O17" s="14">
-        <v>2.7052</v>
-      </c>
-      <c r="P17" s="13">
-        <f>O17/S3-1</f>
-        <v>2.6446594574084603E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6A811B-57C2-4536-9D42-C0E19C788128}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18468,25 +19852,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -18504,25 +19888,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -18531,25 +19915,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="26">
         <v>1.1397999999999999</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22">
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26">
         <v>1.1405000000000001</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
         <v>1.1354</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26">
         <v>1.1472</v>
       </c>
-      <c r="T3" s="24"/>
+      <c r="T3" s="28"/>
       <c r="U3" s="5">
         <v>1.129</v>
       </c>
@@ -18561,23 +19945,23 @@
       <c r="J4" s="3">
         <v>1.3655999999999999</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="31">
         <f>ROUND(J4/J3,4)-1</f>
         <v>0.19809999999999994</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="18">
+      <c r="L4" s="32"/>
+      <c r="M4" s="23">
         <v>1.3802000000000001</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="6">
         <f>ROUND(M4/M3,4)-1</f>
         <v>0.21019999999999994</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="23">
         <v>1.3492</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>0.18829999999999991</v>
@@ -18597,23 +19981,23 @@
       <c r="J5" s="3">
         <v>1.2448999999999999</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="31">
         <f>ROUND(J5/J3,4)-1</f>
         <v>9.220000000000006E-2</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="18">
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
         <v>1.2455000000000001</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="6">
         <f>ROUND(M5/M3,4)-1</f>
         <v>9.2100000000000071E-2</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="23">
         <v>1.2343</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>8.7099999999999955E-2</v>
@@ -18633,23 +20017,23 @@
       <c r="J6" s="3">
         <v>1.6634</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="31">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.45940000000000003</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="18">
+      <c r="L6" s="32"/>
+      <c r="M6" s="23">
         <v>1.6489</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="6">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.44579999999999997</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="23">
         <v>1.6713</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.47199999999999998</v>
@@ -18669,22 +20053,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="18" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -18693,21 +20077,21 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="17">
         <v>1.37135600568676</v>
       </c>
       <c r="L12" s="6">
         <f>ROUND(K12/M3,4)-1</f>
         <v>0.20239999999999991</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="8">
         <v>1.35808132541656</v>
       </c>
       <c r="N12" s="6">
         <f>ROUND(M12/P3,4)-1</f>
         <v>0.19609999999999994</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="9">
         <v>1.3703973489635899</v>
       </c>
       <c r="P12" s="6">
@@ -18870,7 +20254,7 @@
       <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="16" t="s">
         <v>78</v>
       </c>
       <c r="K17" s="2">
@@ -18904,6 +20288,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -18914,21 +20313,552 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8B1B89-6CBB-4F1C-BC6D-72B49CA6F8EC}">
+  <dimension ref="A1:W18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="20"/>
+    <col min="9" max="9" width="35.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36" style="20" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="20" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="20" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" style="20" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="25"/>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>17</v>
+      </c>
+      <c r="B2" s="20">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="25"/>
+      <c r="U2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="29">
+        <v>1.6888000000000001</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="26">
+        <v>1.6854</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
+        <v>1.6782999999999999</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26">
+        <v>1.6816</v>
+      </c>
+      <c r="T3" s="28"/>
+      <c r="U3" s="5">
+        <v>1.6711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.9000999999999999</v>
+      </c>
+      <c r="K4" s="31">
+        <f>J4/J3 -1</f>
+        <v>0.12511842728564648</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="23">
+        <v>1.9051</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="6">
+        <f>M4/M3 -1</f>
+        <v>0.1303548119140856</v>
+      </c>
+      <c r="P4" s="23">
+        <v>1.8972</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="6">
+        <f>ROUND(P4/P3,4) - 1</f>
+        <v>0.13040000000000007</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.9051</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(S4/S3,4) - 1</f>
+        <v>0.13290000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.7718</v>
+      </c>
+      <c r="K5" s="31">
+        <f>ROUND(J5/J3,4) - 1</f>
+        <v>4.9099999999999921E-2</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="6">
+        <f>ROUND(M5/M3,4)-1</f>
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1.7597</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="6">
+        <f>ROUND(P5/P3,4)-1</f>
+        <v>4.8499999999999988E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.7766</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(S5/S3,4)-1</f>
+        <v>5.6499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="K6" s="31">
+        <f>ROUND(J6/J3,4)-1</f>
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="23">
+        <v>2.2833000000000001</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="6">
+        <f>ROUND(M6/M3,4)-1</f>
+        <v>0.3548</v>
+      </c>
+      <c r="P6" s="23">
+        <v>2.2574999999999998</v>
+      </c>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="6">
+        <f>ROUND(P6/P3,4)-1</f>
+        <v>0.34509999999999996</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.2565</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(S6/S3,4)-1</f>
+        <v>0.34190000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1.92890053165255</v>
+      </c>
+      <c r="L12" s="6">
+        <f>K12/M3-1</f>
+        <v>0.1444764042082296</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1.9215727556470401</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/P3-1</f>
+        <v>0.14495188920159707</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1.92528102135274</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/S3-1</f>
+        <v>0.14491021726495013</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1.9203021899242001</v>
+      </c>
+      <c r="R12" s="6">
+        <f>ROUND(Q12/U3,4)-1</f>
+        <v>0.14910000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1.9166000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f>K13/M3-1</f>
+        <v>0.13717811795419488</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1.9016999999999999</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13/P3-1</f>
+        <v>0.13311088601561116</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.907</v>
+      </c>
+      <c r="P13" s="6">
+        <f>O13/S3-1</f>
+        <v>0.13403901046622257</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1.9027000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f>Q13/U3-1</f>
+        <v>0.13859134701693487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1.899</v>
+      </c>
+      <c r="L14" s="6">
+        <f>(ROUND(K14/M3,4)-1)</f>
+        <v>0.12670000000000003</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.8788</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(M14/P3,4)-1</f>
+        <v>0.11949999999999994</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f>ROUND(O14/S3,4)-1</f>
+        <v>0.11559999999999993</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1.8465</v>
+      </c>
+      <c r="R14" s="6">
+        <f>ROUND(Q14/U3,4)-1</f>
+        <v>0.10499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1.8854</v>
+      </c>
+      <c r="L15" s="21">
+        <f>(ROUND(K15/M3,4)-1)</f>
+        <v>0.11870000000000003</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1.8619000000000001</v>
+      </c>
+      <c r="N15" s="21">
+        <f>ROUND(M15/P3,4)-1</f>
+        <v>0.10939999999999994</v>
+      </c>
+      <c r="O15" s="22">
+        <v>1.8473999999999999</v>
+      </c>
+      <c r="P15" s="21">
+        <f>ROUND(O15/S3,4)-1</f>
+        <v>9.8600000000000021E-2</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>1.8125</v>
+      </c>
+      <c r="R15" s="21">
+        <f>ROUND(Q15/U3,4)-1</f>
+        <v>8.4600000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1.8681000000000001</v>
+      </c>
+      <c r="L16" s="21">
+        <f>(ROUND(K16/M3,4)-1)</f>
+        <v>0.10840000000000005</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1.8525</v>
+      </c>
+      <c r="N16" s="21">
+        <f>ROUND(M16/P3,4)-1</f>
+        <v>0.10379999999999989</v>
+      </c>
+      <c r="O16" s="22">
+        <v>1.8395999999999999</v>
+      </c>
+      <c r="P16" s="21">
+        <f>ROUND(O16/S3,4)-1</f>
+        <v>9.4000000000000083E-2</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>1.7954000000000001</v>
+      </c>
+      <c r="R16" s="21">
+        <f>ROUND(Q16/U3,4)-1</f>
+        <v>7.4400000000000022E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.8338000000000001</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(ROUND(K17/M3,4)-1)</f>
+        <v>8.8100000000000067E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="N17" s="6">
+        <f>ROUND(M17/P3,4)-1</f>
+        <v>9.5199999999999951E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.8176000000000001</v>
+      </c>
+      <c r="P17" s="6">
+        <f>ROUND(O17/S3,4)-1</f>
+        <v>8.0899999999999972E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.7652000000000001</v>
+      </c>
+      <c r="R17" s="6">
+        <f>ROUND(Q17/U3,4)-1</f>
+        <v>5.6300000000000017E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.8076000000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <f>(ROUND(K18/M3,4)-1)</f>
+        <v>7.2500000000000009E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.7703</v>
+      </c>
+      <c r="N18" s="6">
+        <f>ROUND(M18/P3,4)-1</f>
+        <v>5.479999999999996E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.7755000000000001</v>
+      </c>
+      <c r="P18" s="6">
+        <f>ROUND(O18/S3,4)-1</f>
+        <v>5.5800000000000072E-2</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="R18" s="6">
+        <f>ROUND(Q18/U3,4)-1</f>
+        <v>2.750000000000008E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18940,8 +20870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA6A5E-47CB-4971-B4D4-80E7225292CB}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="J17:R17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18975,25 +20905,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -19011,25 +20941,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
@@ -19038,25 +20968,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="26">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22">
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="30"/>
       <c r="U3" s="5">
         <v>1.7316</v>
       </c>
@@ -19068,23 +20998,23 @@
       <c r="J4" s="3">
         <v>136.69470000000001</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="35">
         <f>ROUND(J4/J3,4)-1</f>
         <v>79.064800000000005</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="18">
+      <c r="L4" s="36"/>
+      <c r="M4" s="23">
         <v>132.49350000000001</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="7">
         <f>ROUND(M4/M3,4)-1</f>
         <v>76.795500000000004</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="23">
         <v>151.20259999999999</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="6">
         <f>ROUND(P4/P3,4)-1</f>
         <v>87.267700000000005</v>
@@ -19104,23 +21034,23 @@
       <c r="J5" s="3">
         <v>2.5396999999999998</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="35">
         <f>ROUND(J5/J3,4)-1</f>
         <v>0.48760000000000003</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="18">
+      <c r="L5" s="36"/>
+      <c r="M5" s="23">
         <v>2.5322</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="7">
         <f>ROUND(M5/M3,4)-1</f>
         <v>0.4867999999999999</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="23">
         <v>2.5428999999999999</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="6">
         <f>ROUND(P5/P3,4)-1</f>
         <v>0.48449999999999993</v>
@@ -19140,23 +21070,23 @@
       <c r="J6" s="3">
         <v>2.5535000000000001</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="35">
         <f>ROUND(J6/J3,4)-1</f>
         <v>0.49560000000000004</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="18">
+      <c r="L6" s="36"/>
+      <c r="M6" s="23">
         <v>2.9327999999999999</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="7">
         <f>ROUND(M6/M3,4)-1</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="23">
         <v>2.9142999999999999</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="6">
         <f>ROUND(P6/P3,4)-1</f>
         <v>0.70130000000000003</v>
@@ -19176,22 +21106,22 @@
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="18" t="s">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
@@ -19411,6 +21341,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -19421,21 +21366,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19482,25 +21412,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="25"/>
       <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
@@ -19518,25 +21448,25 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
@@ -19545,25 +21475,25 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="26">
         <v>1.7073</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22">
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26">
         <v>1.7031000000000001</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29">
         <v>1.7059218101262801</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="30"/>
       <c r="U3" s="5">
         <v>1.7116</v>
       </c>
@@ -19575,23 +21505,23